--- a/data/한동녹용연구소_인스타그램_인게이지먼트.xlsx
+++ b/data/한동녹용연구소_인스타그램_인게이지먼트.xlsx
@@ -39,15 +39,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="54">
   <x:si>
-    <x:t>2025.5.12 오후 3시</x:t>
+    <x:t>반응율</x:t>
   </x:si>
   <x:si>
-    <x:t>녹용체험 존댓말ver.</x:t>
+    <x:t>쉐이크 홍보</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.5.13 오후 3시</x:t>
+    <x:t>콘텐츠명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>팔로워수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>명함이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹용효능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참여한 계정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹용칼슘스틱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹용체험</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도달된 계정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업로드 날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참여율</x:t>
+  </x:si>
+  <x:si>
+    <x:t>438</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좋아요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재생수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>439</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반응률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참여률</x:t>
   </x:si>
   <x:si>
     <x:t>2025.5.07 오후 7시</x:t>
@@ -56,10 +131,13 @@
     <x:t>2025.5.14 오후 3시</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.01.13</x:t>
+    <x:t>2025.5.13 오후 3시</x:t>
   </x:si>
   <x:si>
-    <x:t>2024.03.12</x:t>
+    <x:t>녹용체험 존댓말ver.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.12 오후 3시</x:t>
   </x:si>
   <x:si>
     <x:t>2024.05.02</x:t>
@@ -68,7 +146,22 @@
     <x:t>2024.04.30</x:t>
   </x:si>
   <x:si>
+    <x:t>2025.01.13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.03.12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.02.17</x:t>
+  </x:si>
+  <x:si>
     <x:t>2024.03.06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>베이비페어 홍보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹용체험 반말ver.</x:t>
   </x:si>
   <x:si>
     <x:t>한동녹용연구소 홍보</x:t>
@@ -80,16 +173,19 @@
     <x:t>2024.04.18</x:t>
   </x:si>
   <x:si>
-    <x:t>녹용체험 반말ver.</x:t>
-  </x:si>
-  <x:si>
     <x:t>간기능이상-녹용</x:t>
   </x:si>
   <x:si>
-    <x:t>존댓말 ver. 첫 업로드 오후 7시 30분 업로드</x:t>
+    <x:t>2025.02.11</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.5.12 오후 10시</x:t>
+    <x:t>베이비페어 브이로그</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.02.04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진심환, 진액, 칼슘스틱 등 홍보</x:t>
   </x:si>
   <x:si>
     <x:t>2025.5.13 오후 10시</x:t>
@@ -98,103 +194,13 @@
     <x:t>5/7 오후 7시 20분경 업로드</x:t>
   </x:si>
   <x:si>
-    <x:t>진심환, 진액, 칼슘스틱 등 홍보</x:t>
-  </x:si>
-  <x:si>
     <x:t>2025.5.13 오전 11시</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.02.04</x:t>
+    <x:t>2025.5.12 오후 10시</x:t>
   </x:si>
   <x:si>
-    <x:t>베이비페어 홍보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.02.17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.02.11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>베이비페어 브이로그</x:t>
-  </x:si>
-  <x:si>
-    <x:t>팔로워수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>명함이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹용효능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>콘텐츠명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>참여한 계정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쉐이크 홍보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업로드 날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹용칼슘스틱</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹용체험</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도달된 계정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공유</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반응률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>참여율</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재생수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>438</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좋아요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>439</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
+    <x:t>존댓말 ver. 첫 업로드 오후 7시 30분 업로드</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -204,7 +210,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="164" formatCode="yyyy\.\ m\.\ d\ am/pm\ h:mm:ss"/>
   </x:numFmts>
-  <x:fonts count="9">
+  <x:fonts count="8">
     <x:font>
       <x:name val="Arial"/>
       <x:sz val="10"/>
@@ -261,11 +267,6 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:font>
-      <x:name val="돋움"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
   </x:fonts>
   <x:fills count="5">
     <x:fill>
@@ -1170,7 +1171,7 @@
   <x:dimension ref="A1:O1000"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:pane xSplit="2" ySplit="0" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <x:pane xSplit="2" ySplit="0" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <x:selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1184,57 +1185,57 @@
   <x:sheetData>
     <x:row r="1" spans="1:14" ht="17.149999999999999">
       <x:c r="A1" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C1" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D1" s="4" t="s">
-        <x:v>41</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E1" s="4" t="s">
-        <x:v>35</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F1" s="4" t="s">
-        <x:v>30</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1" s="4" t="s">
-        <x:v>46</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H1" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I1" s="4" t="s">
-        <x:v>50</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J1" s="4" t="s">
-        <x:v>45</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K1" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="L1" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M1" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N1" s="7" t="s">
-        <x:v>42</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:15" ht="16.399999999999999">
       <x:c r="A2" s="14" t="s">
-        <x:v>3</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B2" s="9" t="s">
-        <x:v>13</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C2" s="10" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D2" s="8">
         <x:v>4456</x:v>
@@ -1266,22 +1267,22 @@
         <x:v>1.2263396427619302</x:v>
       </x:c>
       <x:c r="M2" s="12" t="s">
-        <x:v>43</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="N2" s="13" t="s">
-        <x:v>18</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="O2" s="8"/>
     </x:row>
     <x:row r="3" spans="1:14" ht="16.399999999999999">
       <x:c r="A3" s="14" t="s">
-        <x:v>0</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B3" s="9" t="s">
-        <x:v>13</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C3" s="10" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D3" s="8">
         <x:v>4470</x:v>
@@ -1313,19 +1314,19 @@
         <x:v>1.2263396427619302</x:v>
       </x:c>
       <x:c r="M3" s="12" t="s">
-        <x:v>43</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="N3" s="13"/>
     </x:row>
     <x:row r="4" spans="1:14" ht="16.399999999999999">
       <x:c r="A4" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B4" s="9" t="s">
-        <x:v>13</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C4" s="10" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D4" s="8">
         <x:v>4504</x:v>
@@ -1357,19 +1358,19 @@
         <x:v>1.2263396427619302</x:v>
       </x:c>
       <x:c r="M4" s="12" t="s">
-        <x:v>43</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="N4" s="13"/>
     </x:row>
     <x:row r="5" spans="1:14" ht="16.399999999999999">
       <x:c r="A5" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B5" s="9" t="s">
-        <x:v>1</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C5" s="10" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D5" s="8">
         <x:v>1141</x:v>
@@ -1401,21 +1402,21 @@
         <x:v>1.3844515441959531</x:v>
       </x:c>
       <x:c r="M5" s="12" t="s">
-        <x:v>43</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="N5" s="13" t="s">
-        <x:v>15</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:14" ht="16.399999999999999">
       <x:c r="A6" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B6" s="9" t="s">
-        <x:v>1</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D6" s="8">
         <x:v>2587</x:v>
@@ -1447,19 +1448,19 @@
         <x:v>1.3507219375873312</x:v>
       </x:c>
       <x:c r="M6" s="12" t="s">
-        <x:v>48</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="N6" s="13"/>
     </x:row>
     <x:row r="7" spans="1:14" ht="16.399999999999999">
       <x:c r="A7" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B7" s="9" t="s">
-        <x:v>13</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D7" s="8">
         <x:v>4520</x:v>
@@ -1491,19 +1492,19 @@
         <x:v>1.248671625929862</x:v>
       </x:c>
       <x:c r="M7" s="12" t="s">
-        <x:v>48</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="N7" s="13"/>
     </x:row>
     <x:row r="8" spans="1:14" ht="16.399999999999999">
       <x:c r="A8" s="16" t="s">
-        <x:v>2</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>1</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D8" s="8">
         <x:v>2813</x:v>
@@ -1535,19 +1536,19 @@
         <x:v>1.3852813852813852</x:v>
       </x:c>
       <x:c r="M8" s="12" t="s">
-        <x:v>43</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="N8" s="13"/>
     </x:row>
     <x:row r="9" spans="1:14" ht="16.399999999999999">
       <x:c r="A9" s="16" t="s">
-        <x:v>17</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>1</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>3735</x:v>
@@ -1579,19 +1580,19 @@
         <x:v>1.1958629605688429</x:v>
       </x:c>
       <x:c r="M9" s="12" t="s">
-        <x:v>43</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="N9" s="13"/>
     </x:row>
     <x:row r="10" spans="1:14" ht="16.399999999999999">
       <x:c r="A10" s="16" t="s">
-        <x:v>4</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
-        <x:v>13</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>4558</x:v>
@@ -1623,19 +1624,19 @@
         <x:v>1.2624934245134138</x:v>
       </x:c>
       <x:c r="M10" s="12" t="s">
-        <x:v>43</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="N10" s="13"/>
     </x:row>
     <x:row r="11" spans="1:14" ht="16.399999999999999">
       <x:c r="A11" s="16" t="s">
-        <x:v>4</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>1</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>37</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>3872</x:v>
@@ -1667,7 +1668,7 @@
         <x:v>1.1558887847547641</x:v>
       </x:c>
       <x:c r="M11" s="12" t="s">
-        <x:v>43</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="N11" s="13"/>
     </x:row>
@@ -10573,7 +10574,7 @@
       <x:formula1>"후킹형,정보형,흥미형"</x:formula1>
     </x:dataValidation>
   </x:dataValidations>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:legacyDrawing r:id="rId1"/>
 </x:worksheet>
@@ -10598,63 +10599,63 @@
   <x:sheetData>
     <x:row r="1" spans="1:14" ht="17.149999999999999">
       <x:c r="A1" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>29</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C1" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D1" s="4" t="s">
-        <x:v>44</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E1" s="4" t="s">
-        <x:v>35</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F1" s="4" t="s">
-        <x:v>30</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="G1" s="4" t="s">
-        <x:v>46</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H1" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I1" s="4" t="s">
-        <x:v>50</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J1" s="4" t="s">
-        <x:v>45</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="K1" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="L1" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="M1" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N1" s="7" t="s">
-        <x:v>42</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:12" ht="16.399999999999999">
       <x:c r="A2" s="8" t="s">
-        <x:v>9</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B2" s="8" t="s">
-        <x:v>33</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D2" s="8">
         <x:v>25000</x:v>
       </x:c>
       <x:c r="E2" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F2" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G2" s="8">
         <x:v>78</x:v>
@@ -10669,27 +10670,27 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K2" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L2" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:12" ht="16.399999999999999">
       <x:c r="A3" s="8" t="s">
-        <x:v>6</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B3" s="8" t="s">
-        <x:v>14</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D3" s="8">
         <x:v>36000</x:v>
       </x:c>
       <x:c r="E3" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F3" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G3" s="8">
         <x:v>54</x:v>
@@ -10704,27 +10705,27 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K3" s="11" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L3" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:12" ht="16.399999999999999">
       <x:c r="A4" s="8" t="s">
-        <x:v>11</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B4" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D4" s="8">
         <x:v>28000</x:v>
       </x:c>
       <x:c r="E4" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F4" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G4" s="8">
         <x:v>56</x:v>
@@ -10739,27 +10740,27 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K4" s="11" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L4" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:12" ht="16.399999999999999">
       <x:c r="A5" s="8" t="s">
-        <x:v>12</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B5" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D5" s="8">
         <x:v>33</x:v>
       </x:c>
       <x:c r="E5" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F5" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G5" s="8">
         <x:v>5</x:v>
@@ -10774,18 +10775,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K5" s="11" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="L5" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:12" ht="16.399999999999999">
       <x:c r="A6" s="8" t="s">
-        <x:v>8</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B6" s="8" t="s">
-        <x:v>19</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D6" s="8">
         <x:v>39000</x:v>
@@ -10794,7 +10795,7 @@
         <x:v>30000</x:v>
       </x:c>
       <x:c r="F6" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G6" s="8">
         <x:v>136</x:v>
@@ -10813,15 +10814,15 @@
         <x:v>0.45999999999999996</x:v>
       </x:c>
       <x:c r="L6" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:12" ht="16.399999999999999">
       <x:c r="A7" s="8" t="s">
-        <x:v>8</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B7" s="8" t="s">
-        <x:v>31</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D7" s="8">
         <x:v>20000</x:v>
@@ -10830,7 +10831,7 @@
         <x:v>19000</x:v>
       </x:c>
       <x:c r="F7" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G7" s="8">
         <x:v>15</x:v>
@@ -10849,15 +10850,15 @@
         <x:v>0.078947368421052627</x:v>
       </x:c>
       <x:c r="L7" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:12" ht="16.399999999999999">
       <x:c r="A8" s="8" t="s">
-        <x:v>7</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B8" s="8" t="s">
-        <x:v>10</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D8" s="8">
         <x:v>18000</x:v>
@@ -10866,7 +10867,7 @@
         <x:v>15000</x:v>
       </x:c>
       <x:c r="F8" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G8" s="23">
         <x:v>612</x:v>
@@ -10885,15 +10886,15 @@
         <x:v>4.0800000000000001</x:v>
       </x:c>
       <x:c r="L8" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:12" ht="16.399999999999999">
       <x:c r="A9" s="8" t="s">
-        <x:v>5</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B9" s="8" t="s">
-        <x:v>49</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>7323</x:v>
@@ -10902,7 +10903,7 @@
         <x:v>2863</x:v>
       </x:c>
       <x:c r="F9" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G9" s="8">
         <x:v>209</x:v>
@@ -10921,15 +10922,15 @@
         <x:v>18.721620677610897</x:v>
       </x:c>
       <x:c r="L9" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:12" ht="16.399999999999999">
       <x:c r="A10" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B10" s="8" t="s">
-        <x:v>22</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>1738</x:v>
@@ -10938,7 +10939,7 @@
         <x:v>1436</x:v>
       </x:c>
       <x:c r="F10" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="G10" s="8">
         <x:v>25</x:v>
@@ -10957,15 +10958,15 @@
         <x:v>2.01949860724234</x:v>
       </x:c>
       <x:c r="L10" s="8" t="s">
-        <x:v>47</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:12" ht="16.399999999999999">
       <x:c r="A11" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B11" s="8" t="s">
-        <x:v>27</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D11" s="23">
         <x:v>364</x:v>
@@ -10999,10 +11000,10 @@
     </x:row>
     <x:row r="12" spans="1:12" ht="16.399999999999999">
       <x:c r="A12" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B12" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D12" s="8">
         <x:v>343</x:v>
@@ -11043,7 +11044,7 @@
       <x:c r="L17" s="25"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/data/한동녹용연구소_인스타그램_인게이지먼트.xlsx
+++ b/data/한동녹용연구소_인스타그램_인게이지먼트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="19335" windowHeight="11835" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11865" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="콘텐츠별 인게이지먼트" sheetId="1" r:id="rId4"/>
@@ -39,54 +39,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="64">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="67">
   <x:si>
-    <x:t>2025.5.16 오전 10시</x:t>
+    <x:t>-</x:t>
   </x:si>
   <x:si>
-    <x:t>첫 업로드 오후 7시 30분 업로드</x:t>
+    <x:t>흥미형</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.5.16 오후 10시</x:t>
+    <x:t>반응률</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.5.16 오후 12시</x:t>
+    <x:t>440</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.5.14 오후 3시</x:t>
+    <x:t>구분</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.5.07 오후 7시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹용체험 존댓말ver.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.5.13 오후 3시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.5.12 오후 3시</x:t>
+    <x:t>이벤트</x:t>
   </x:si>
   <x:si>
     <x:t>공유</x:t>
   </x:si>
   <x:si>
-    <x:t>이벤트</x:t>
+    <x:t>날짜</x:t>
   </x:si>
   <x:si>
-    <x:t>비고</x:t>
+    <x:t>437</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재생수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반응율</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참여률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보형</x:t>
   </x:si>
   <x:si>
     <x:t>저장</x:t>
   </x:si>
   <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반응율</x:t>
+    <x:t>좋아요</x:t>
   </x:si>
   <x:si>
     <x:t>438</x:t>
@@ -95,64 +92,88 @@
     <x:t>댓글</x:t>
   </x:si>
   <x:si>
+    <x:t>참여율</x:t>
+  </x:si>
+  <x:si>
     <x:t>조회수</x:t>
   </x:si>
   <x:si>
-    <x:t>좋아요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재생수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
+    <x:t>비고</x:t>
   </x:si>
   <x:si>
     <x:t>439</x:t>
   </x:si>
   <x:si>
-    <x:t>-</x:t>
+    <x:t>2025.5.12 오후 3시</x:t>
   </x:si>
   <x:si>
-    <x:t>참여률</x:t>
+    <x:t>녹용체험 존댓말ver.</x:t>
   </x:si>
   <x:si>
-    <x:t>반응률</x:t>
+    <x:t>2025.5.15 오후 8시</x:t>
   </x:si>
   <x:si>
-    <x:t>참여율</x:t>
+    <x:t>2025.5.07 오후 7시</x:t>
   </x:si>
   <x:si>
-    <x:t>437</x:t>
+    <x:t>2025.5.13 오후 3시</x:t>
   </x:si>
   <x:si>
-    <x:t>440</x:t>
+    <x:t>2025.5.14 오후 3시</x:t>
   </x:si>
   <x:si>
-    <x:t>흥미형</x:t>
+    <x:t>2025.5.17 오후 4시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.16 오전 10시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫 업로드 오후 7시 30분 업로드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.12 오후 10시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5/7 오후 7시 20분경 업로드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.13 오전 11시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.16 오후 12시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.16 오후 10시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진심환, 진액, 칼슘스틱 등 홍보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.13 오후 10시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.19 오후 10시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫 업로드 오후 6시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쉐이크 ASMR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업로드 날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>젤리 ASMR</x:t>
   </x:si>
   <x:si>
     <x:t>쉐이크 홍보</x:t>
   </x:si>
   <x:si>
-    <x:t>팔로워수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹용효능</x:t>
+    <x:t>도달된 계정</x:t>
   </x:si>
   <x:si>
     <x:t>참여한 계정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹용칼슘스틱</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도달된 계정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>명함이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업로드 날짜</x:t>
   </x:si>
   <x:si>
     <x:t>콘텐츠명</x:t>
@@ -161,40 +182,34 @@
     <x:t>녹용체험</x:t>
   </x:si>
   <x:si>
-    <x:t>진심환, 진액, 칼슘스틱 등 홍보</x:t>
+    <x:t>팔로워수</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.5.13 오전 11시</x:t>
+    <x:t>명함이벤트</x:t>
   </x:si>
   <x:si>
-    <x:t>5/7 오후 7시 20분경 업로드</x:t>
+    <x:t>녹용효능</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.5.12 오후 10시</x:t>
+    <x:t>녹용칼슘스틱</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.5.13 오후 10시</x:t>
+    <x:t>녹용체험 반말ver.</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.5.15 오후 8시</x:t>
+    <x:t>2025.02.04</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.5.17 오후 4시</x:t>
+    <x:t>2025.02.11</x:t>
   </x:si>
   <x:si>
-    <x:t>존댓말 ver. 첫 업로드 오후 7시 30분 업로드</x:t>
+    <x:t>베이비페어 브이로그</x:t>
   </x:si>
   <x:si>
-    <x:t>2024.05.02</x:t>
+    <x:t>2024.03.20</x:t>
   </x:si>
   <x:si>
-    <x:t>2024.04.30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.01.13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.03.12</x:t>
+    <x:t>한동녹용연구소 홍보</x:t>
   </x:si>
   <x:si>
     <x:t>2025.02.17</x:t>
@@ -203,34 +218,28 @@
     <x:t>간기능이상-녹용</x:t>
   </x:si>
   <x:si>
+    <x:t>2024.03.12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.01.13</x:t>
+  </x:si>
+  <x:si>
     <x:t>2024.04.18</x:t>
   </x:si>
   <x:si>
-    <x:t>2024.03.20</x:t>
+    <x:t>2024.04.30</x:t>
   </x:si>
   <x:si>
-    <x:t>한동녹용연구소 홍보</x:t>
+    <x:t>2024.05.02</x:t>
   </x:si>
   <x:si>
     <x:t>베이비페어 홍보</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.02.11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>베이비페어 브이로그</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.02.04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹용체험 반말ver.</x:t>
-  </x:si>
-  <x:si>
     <x:t>2024.03.06</x:t>
   </x:si>
   <x:si>
-    <x:t>젤리 ASMR</x:t>
+    <x:t>존댓말 ver. 첫 업로드 오후 7시 30분 업로드</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -415,7 +424,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="31">
+  <x:cellXfs count="33">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -610,13 +619,19 @@
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
+    <x:xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
     <x:xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellXfs>
@@ -1240,57 +1255,57 @@
   <x:sheetData>
     <x:row r="1" spans="1:14" ht="17.149999999999999">
       <x:c r="A1" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C1" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D1" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E1" s="4" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F1" s="4" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="G1" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H1" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="I1" s="4" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J1" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D1" s="4" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E1" s="4" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="F1" s="4" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G1" s="4" t="s">
+      <x:c r="K1" s="5" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="L1" s="5" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="M1" s="6" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="N1" s="7" t="s">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="H1" s="4" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="I1" s="4" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="J1" s="4" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="K1" s="5" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="L1" s="5" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="M1" s="6" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="N1" s="7" t="s">
-        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:15" ht="16.399999999999999">
       <x:c r="A2" s="14" t="s">
-        <x:v>5</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B2" s="9" t="s">
-        <x:v>61</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C2" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2" s="8">
         <x:v>4456</x:v>
@@ -1314,30 +1329,30 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="K2" s="11">
-        <x:f t="shared" ref="K2:K24" si="0">SUM((G2+I2+J2+H2)/E2)*100</x:f>
+        <x:f t="shared" ref="K2:K28" si="0">SUM((G2+I2+J2+H2)/E2)*100</x:f>
         <x:v>2.3727006131698212</x:v>
       </x:c>
       <x:c r="L2" s="11">
-        <x:f t="shared" ref="L2:L24" si="1">SUM(F2/E2)*100</x:f>
+        <x:f t="shared" ref="L2:L28" si="1">SUM(F2/E2)*100</x:f>
         <x:v>1.2263396427619302</x:v>
       </x:c>
       <x:c r="M2" s="12" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="N2" s="13" t="s">
-        <x:v>42</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="O2" s="8"/>
     </x:row>
     <x:row r="3" spans="1:14" ht="16.399999999999999">
       <x:c r="A3" s="14" t="s">
-        <x:v>8</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B3" s="9" t="s">
-        <x:v>61</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C3" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D3" s="8">
         <x:v>4470</x:v>
@@ -1369,19 +1384,19 @@
         <x:v>1.2263396427619302</x:v>
       </x:c>
       <x:c r="M3" s="12" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="N3" s="13"/>
     </x:row>
     <x:row r="4" spans="1:14" ht="16.399999999999999">
       <x:c r="A4" s="16" t="s">
-        <x:v>43</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B4" s="9" t="s">
-        <x:v>61</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C4" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D4" s="8">
         <x:v>4504</x:v>
@@ -1413,19 +1428,19 @@
         <x:v>1.2263396427619302</x:v>
       </x:c>
       <x:c r="M4" s="12" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="N4" s="13"/>
     </x:row>
     <x:row r="5" spans="1:14" ht="16.399999999999999">
       <x:c r="A5" s="16" t="s">
-        <x:v>43</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B5" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C5" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D5" s="8">
         <x:v>1141</x:v>
@@ -1457,21 +1472,21 @@
         <x:v>1.3844515441959531</x:v>
       </x:c>
       <x:c r="M5" s="12" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="N5" s="13" t="s">
-        <x:v>47</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:14" ht="16.399999999999999">
       <x:c r="A6" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B6" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C6" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D6" s="8">
         <x:v>2587</x:v>
@@ -1503,19 +1518,19 @@
         <x:v>1.3507219375873312</x:v>
       </x:c>
       <x:c r="M6" s="12" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="N6" s="13"/>
     </x:row>
     <x:row r="7" spans="1:14" ht="16.399999999999999">
       <x:c r="A7" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B7" s="9" t="s">
-        <x:v>61</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C7" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D7" s="8">
         <x:v>4520</x:v>
@@ -1547,19 +1562,19 @@
         <x:v>1.248671625929862</x:v>
       </x:c>
       <x:c r="M7" s="12" t="s">
-        <x:v>22</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="N7" s="13"/>
     </x:row>
     <x:row r="8" spans="1:14" ht="16.399999999999999">
       <x:c r="A8" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B8" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C8" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D8" s="8">
         <x:v>2813</x:v>
@@ -1591,19 +1606,19 @@
         <x:v>1.3852813852813852</x:v>
       </x:c>
       <x:c r="M8" s="12" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="N8" s="13"/>
     </x:row>
     <x:row r="9" spans="1:14" ht="16.399999999999999">
       <x:c r="A9" s="16" t="s">
-        <x:v>44</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B9" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C9" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>3735</x:v>
@@ -1635,19 +1650,19 @@
         <x:v>1.1958629605688429</x:v>
       </x:c>
       <x:c r="M9" s="12" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="N9" s="13"/>
     </x:row>
     <x:row r="10" spans="1:14" ht="16.399999999999999">
       <x:c r="A10" s="16" t="s">
-        <x:v>4</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B10" s="9" t="s">
-        <x:v>61</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C10" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>4558</x:v>
@@ -1679,19 +1694,19 @@
         <x:v>1.2624934245134138</x:v>
       </x:c>
       <x:c r="M10" s="12" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="N10" s="13"/>
     </x:row>
     <x:row r="11" spans="1:14" ht="16.399999999999999">
       <x:c r="A11" s="16" t="s">
-        <x:v>4</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B11" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D11" s="8">
         <x:v>3872</x:v>
@@ -1723,19 +1738,19 @@
         <x:v>1.1558887847547641</x:v>
       </x:c>
       <x:c r="M11" s="12" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="N11" s="13"/>
     </x:row>
     <x:row r="12" spans="1:14" ht="16.399999999999999">
       <x:c r="A12" s="24" t="s">
-        <x:v>45</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B12" s="25" t="s">
-        <x:v>61</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C12" s="26" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D12" s="27">
         <x:v>4584</x:v>
@@ -1767,19 +1782,19 @@
         <x:v>1.3368283093053734</x:v>
       </x:c>
       <x:c r="M12" s="12" t="s">
-        <x:v>27</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N12" s="29"/>
     </x:row>
     <x:row r="13" spans="1:14" ht="16.399999999999999">
       <x:c r="A13" s="24" t="s">
-        <x:v>45</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B13" s="25" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C13" s="26" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D13" s="27">
         <x:v>4044</x:v>
@@ -1811,19 +1826,19 @@
         <x:v>1.1887072808320951</x:v>
       </x:c>
       <x:c r="M13" s="12" t="s">
-        <x:v>27</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N13" s="29"/>
     </x:row>
     <x:row r="14" spans="1:14" ht="16.399999999999999">
       <x:c r="A14" s="24" t="s">
-        <x:v>45</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B14" s="25" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="26" t="s">
-        <x:v>29</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D14" s="27">
         <x:v>75</x:v>
@@ -1855,21 +1870,21 @@
         <x:v>66.666666666666657</x:v>
       </x:c>
       <x:c r="M14" s="12" t="s">
-        <x:v>27</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N14" s="30" t="s">
-        <x:v>1</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:14" ht="16.399999999999999">
       <x:c r="A15" s="24" t="s">
-        <x:v>3</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B15" s="25" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C15" s="26" t="s">
-        <x:v>29</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D15" s="27">
         <x:v>503</x:v>
@@ -1901,19 +1916,19 @@
         <x:v>8.4690553745928341</x:v>
       </x:c>
       <x:c r="M15" s="12" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="N15" s="29"/>
     </x:row>
     <x:row r="16" spans="1:14" ht="16.399999999999999">
       <x:c r="A16" s="24" t="s">
-        <x:v>0</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B16" s="25" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C16" s="26" t="s">
-        <x:v>29</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D16" s="27">
         <x:v>584</x:v>
@@ -1945,19 +1960,19 @@
         <x:v>9.0651558073654392</x:v>
       </x:c>
       <x:c r="M16" s="12" t="s">
-        <x:v>27</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N16" s="29"/>
     </x:row>
     <x:row r="17" spans="1:14" ht="16.399999999999999">
       <x:c r="A17" s="24" t="s">
-        <x:v>0</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B17" s="25" t="s">
-        <x:v>61</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C17" s="26" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D17" s="27">
         <x:v>4625</x:v>
@@ -1989,19 +2004,19 @@
         <x:v>1.3848967859942514</x:v>
       </x:c>
       <x:c r="M17" s="12" t="s">
-        <x:v>27</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N17" s="29"/>
     </x:row>
     <x:row r="18" spans="1:14" ht="16.399999999999999">
       <x:c r="A18" s="24" t="s">
-        <x:v>0</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B18" s="25" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C18" s="26" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D18" s="27">
         <x:v>4077</x:v>
@@ -2033,19 +2048,19 @@
         <x:v>1.2144549763033177</x:v>
       </x:c>
       <x:c r="M18" s="12" t="s">
-        <x:v>27</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N18" s="29"/>
     </x:row>
     <x:row r="19" spans="1:14" ht="16.399999999999999">
       <x:c r="A19" s="24" t="s">
-        <x:v>2</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B19" s="25" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C19" s="26" t="s">
-        <x:v>29</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D19" s="27">
         <x:v>683</x:v>
@@ -2077,19 +2092,19 @@
         <x:v>8.9330024813895772</x:v>
       </x:c>
       <x:c r="M19" s="12" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="N19" s="29"/>
     </x:row>
     <x:row r="20" spans="1:14" ht="16.399999999999999">
       <x:c r="A20" s="24" t="s">
-        <x:v>2</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B20" s="25" t="s">
-        <x:v>61</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C20" s="26" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D20" s="27">
         <x:v>4636</x:v>
@@ -2121,19 +2136,19 @@
         <x:v>1.3823682837767346</x:v>
       </x:c>
       <x:c r="M20" s="12" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="N20" s="29"/>
     </x:row>
     <x:row r="21" spans="1:14" ht="16.399999999999999">
       <x:c r="A21" s="24" t="s">
-        <x:v>2</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B21" s="25" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C21" s="26" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D21" s="27">
         <x:v>4087</x:v>
@@ -2165,19 +2180,19 @@
         <x:v>1.2126589766341318</x:v>
       </x:c>
       <x:c r="M21" s="12" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="N21" s="29"/>
     </x:row>
     <x:row r="22" spans="1:14" ht="16.399999999999999">
       <x:c r="A22" s="24" t="s">
-        <x:v>46</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B22" s="25" t="s">
-        <x:v>63</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C22" s="26" t="s">
-        <x:v>29</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D22" s="27">
         <x:v>701</x:v>
@@ -2209,19 +2224,19 @@
         <x:v>11.302211302211303</x:v>
       </x:c>
       <x:c r="M22" s="12" t="s">
-        <x:v>28</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N22" s="29"/>
     </x:row>
     <x:row r="23" spans="1:14" ht="16.399999999999999">
       <x:c r="A23" s="24" t="s">
-        <x:v>46</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B23" s="25" t="s">
-        <x:v>61</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C23" s="26" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D23" s="27">
         <x:v>4643</x:v>
@@ -2253,19 +2268,19 @@
         <x:v>1.3823682837767346</x:v>
       </x:c>
       <x:c r="M23" s="12" t="s">
-        <x:v>28</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N23" s="29"/>
     </x:row>
     <x:row r="24" spans="1:14" ht="16.399999999999999">
       <x:c r="A24" s="24" t="s">
-        <x:v>46</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B24" s="25" t="s">
-        <x:v>6</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C24" s="26" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D24" s="27">
         <x:v>4100</x:v>
@@ -2297,45 +2312,187 @@
         <x:v>1.2126589766341318</x:v>
       </x:c>
       <x:c r="M24" s="12" t="s">
-        <x:v>28</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="N24" s="29"/>
     </x:row>
     <x:row r="25" spans="1:14" ht="16.399999999999999">
-      <x:c r="A25" s="20"/>
-      <x:c r="B25" s="17"/>
-      <x:c r="C25" s="18"/>
-      <x:c r="K25" s="11"/>
-      <x:c r="L25" s="11"/>
-      <x:c r="M25" s="19"/>
-      <x:c r="N25" s="15"/>
+      <x:c r="A25" s="27" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B25" s="25" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C25" s="26" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D25" s="27">
+        <x:v>4666</x:v>
+      </x:c>
+      <x:c r="E25" s="27">
+        <x:v>3840</x:v>
+      </x:c>
+      <x:c r="F25" s="27">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G25" s="27">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H25" s="27">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I25" s="27">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J25" s="27">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="K25" s="31">
+        <x:f t="shared" si="0"/>
+        <x:v>2.578125</x:v>
+      </x:c>
+      <x:c r="L25" s="31">
+        <x:f t="shared" si="1"/>
+        <x:v>1.3802083333333333</x:v>
+      </x:c>
+      <x:c r="M25" s="12" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N25" s="32"/>
     </x:row>
     <x:row r="26" spans="1:14" ht="16.399999999999999">
-      <x:c r="A26" s="20"/>
-      <x:c r="B26" s="17"/>
-      <x:c r="C26" s="18"/>
-      <x:c r="K26" s="11"/>
-      <x:c r="L26" s="11"/>
-      <x:c r="M26" s="19"/>
-      <x:c r="N26" s="15"/>
+      <x:c r="A26" s="27" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B26" s="25" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C26" s="26" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D26" s="27">
+        <x:v>4145</x:v>
+      </x:c>
+      <x:c r="E26" s="27">
+        <x:v>3407</x:v>
+      </x:c>
+      <x:c r="F26" s="27">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G26" s="27">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H26" s="27">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I26" s="27">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J26" s="27">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="K26" s="31">
+        <x:f t="shared" si="0"/>
+        <x:v>2.6416201937188144</x:v>
+      </x:c>
+      <x:c r="L26" s="31">
+        <x:f t="shared" si="1"/>
+        <x:v>1.2327560904021133</x:v>
+      </x:c>
+      <x:c r="M26" s="12" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N26" s="32"/>
     </x:row>
     <x:row r="27" spans="1:14" ht="16.399999999999999">
-      <x:c r="A27" s="20"/>
-      <x:c r="B27" s="17"/>
-      <x:c r="C27" s="18"/>
-      <x:c r="K27" s="11"/>
-      <x:c r="L27" s="11"/>
-      <x:c r="M27" s="19"/>
-      <x:c r="N27" s="15"/>
+      <x:c r="A27" s="27" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B27" s="25" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C27" s="26" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D27" s="27">
+        <x:v>741</x:v>
+      </x:c>
+      <x:c r="E27" s="27">
+        <x:v>417</x:v>
+      </x:c>
+      <x:c r="F27" s="27">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G27" s="27">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H27" s="27">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I27" s="27">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J27" s="27">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K27" s="31">
+        <x:f t="shared" si="0"/>
+        <x:v>17.985611510791365</x:v>
+      </x:c>
+      <x:c r="L27" s="31">
+        <x:f t="shared" si="1"/>
+        <x:v>8.6330935251798557</x:v>
+      </x:c>
+      <x:c r="M27" s="12" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N27" s="32"/>
     </x:row>
     <x:row r="28" spans="1:14" ht="16.399999999999999">
-      <x:c r="A28" s="20"/>
-      <x:c r="B28" s="17"/>
-      <x:c r="C28" s="18"/>
-      <x:c r="K28" s="11"/>
-      <x:c r="L28" s="11"/>
-      <x:c r="M28" s="19"/>
-      <x:c r="N28" s="15"/>
+      <x:c r="A28" s="27" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B28" s="25" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C28" s="26" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D28" s="27">
+        <x:v>437</x:v>
+      </x:c>
+      <x:c r="E28" s="27">
+        <x:v>346</x:v>
+      </x:c>
+      <x:c r="F28" s="27">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G28" s="27">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H28" s="27">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I28" s="27">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J28" s="27">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K28" s="31">
+        <x:f t="shared" si="0"/>
+        <x:v>8.6705202312138727</x:v>
+      </x:c>
+      <x:c r="L28" s="31">
+        <x:f t="shared" si="1"/>
+        <x:v>2.3121387283236992</x:v>
+      </x:c>
+      <x:c r="M28" s="12" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="N28" s="29" t="s">
+        <x:v>38</x:v>
+      </x:c>
     </x:row>
     <x:row r="29" spans="1:14" ht="16.399999999999999">
       <x:c r="A29" s="20"/>
@@ -11086,8 +11243,8 @@
       <x:c r="N1000" s="15"/>
     </x:row>
   </x:sheetData>
-  <x:dataValidations count="3">
-    <x:dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B25:B204 B2:B11">
+  <x:dataValidations count="4">
+    <x:dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B11 B29:B204">
       <x:formula1>"녹용체험 반말ver.,녹용체험 존댓말ver."</x:formula1>
     </x:dataValidation>
     <x:dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C204">
@@ -11095,6 +11252,9 @@
     </x:dataValidation>
     <x:dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B12:B24">
       <x:formula1>"녹용체험 반말ver.,녹용체험 존댓말ver.,젤리 ASMR"</x:formula1>
+    </x:dataValidation>
+    <x:dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B25:B28">
+      <x:formula1>"녹용체험 반말ver.,녹용체험 존댓말ver.,젤리 ASMR,쉐이크 ASMR"</x:formula1>
     </x:dataValidation>
   </x:dataValidations>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
@@ -11122,63 +11282,63 @@
   <x:sheetData>
     <x:row r="1" spans="1:14" ht="17.149999999999999">
       <x:c r="A1" s="4" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B1" s="3" t="s">
-        <x:v>38</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C1" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D1" s="4" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="E1" s="4" t="s">
-        <x:v>35</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F1" s="4" t="s">
-        <x:v>33</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G1" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H1" s="4" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="I1" s="4" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J1" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="K1" s="5" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="L1" s="5" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="M1" s="6" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="N1" s="7" t="s">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="H1" s="4" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="I1" s="4" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="J1" s="4" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="K1" s="5" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="L1" s="5" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="M1" s="6" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="N1" s="7" t="s">
-        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:12" ht="16.399999999999999">
       <x:c r="A2" s="8" t="s">
-        <x:v>62</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B2" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D2" s="8">
         <x:v>25000</x:v>
       </x:c>
       <x:c r="E2" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F2" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G2" s="8">
         <x:v>78</x:v>
@@ -11193,27 +11353,27 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K2" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L2" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:12" ht="16.399999999999999">
       <x:c r="A3" s="8" t="s">
-        <x:v>51</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B3" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D3" s="8">
         <x:v>36000</x:v>
       </x:c>
       <x:c r="E3" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F3" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G3" s="8">
         <x:v>54</x:v>
@@ -11228,10 +11388,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K3" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L3" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:12" ht="16.399999999999999">
@@ -11239,16 +11399,16 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="B4" s="8" t="s">
-        <x:v>32</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D4" s="8">
         <x:v>28000</x:v>
       </x:c>
       <x:c r="E4" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F4" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G4" s="8">
         <x:v>56</x:v>
@@ -11263,27 +11423,27 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K4" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L4" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:12" ht="16.399999999999999">
       <x:c r="A5" s="8" t="s">
-        <x:v>54</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B5" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D5" s="8">
         <x:v>33</x:v>
       </x:c>
       <x:c r="E5" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F5" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G5" s="8">
         <x:v>5</x:v>
@@ -11298,18 +11458,18 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K5" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="L5" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:12" ht="16.399999999999999">
       <x:c r="A6" s="8" t="s">
-        <x:v>49</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B6" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D6" s="8">
         <x:v>39000</x:v>
@@ -11318,7 +11478,7 @@
         <x:v>30000</x:v>
       </x:c>
       <x:c r="F6" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G6" s="8">
         <x:v>136</x:v>
@@ -11337,15 +11497,15 @@
         <x:v>0.45999999999999996</x:v>
       </x:c>
       <x:c r="L6" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:12" ht="16.399999999999999">
       <x:c r="A7" s="8" t="s">
-        <x:v>49</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B7" s="8" t="s">
-        <x:v>30</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D7" s="8">
         <x:v>20000</x:v>
@@ -11354,7 +11514,7 @@
         <x:v>19000</x:v>
       </x:c>
       <x:c r="F7" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G7" s="8">
         <x:v>15</x:v>
@@ -11373,12 +11533,12 @@
         <x:v>0.078947368421052627</x:v>
       </x:c>
       <x:c r="L7" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:12" ht="16.399999999999999">
       <x:c r="A8" s="8" t="s">
-        <x:v>48</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B8" s="8" t="s">
         <x:v>56</x:v>
@@ -11390,7 +11550,7 @@
         <x:v>15000</x:v>
       </x:c>
       <x:c r="F8" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G8" s="21">
         <x:v>612</x:v>
@@ -11409,15 +11569,15 @@
         <x:v>4.0800000000000001</x:v>
       </x:c>
       <x:c r="L8" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:12" ht="16.399999999999999">
       <x:c r="A9" s="8" t="s">
-        <x:v>50</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B9" s="8" t="s">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D9" s="8">
         <x:v>7323</x:v>
@@ -11426,7 +11586,7 @@
         <x:v>2863</x:v>
       </x:c>
       <x:c r="F9" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G9" s="8">
         <x:v>209</x:v>
@@ -11445,15 +11605,15 @@
         <x:v>18.721620677610897</x:v>
       </x:c>
       <x:c r="L9" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:12" ht="16.399999999999999">
       <x:c r="A10" s="8" t="s">
-        <x:v>60</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B10" s="8" t="s">
-        <x:v>57</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D10" s="8">
         <x:v>1738</x:v>
@@ -11462,7 +11622,7 @@
         <x:v>1436</x:v>
       </x:c>
       <x:c r="F10" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G10" s="8">
         <x:v>25</x:v>
@@ -11481,15 +11641,15 @@
         <x:v>2.01949860724234</x:v>
       </x:c>
       <x:c r="L10" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:12" ht="16.399999999999999">
       <x:c r="A11" s="8" t="s">
-        <x:v>58</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B11" s="8" t="s">
-        <x:v>36</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D11" s="21">
         <x:v>364</x:v>
@@ -11523,10 +11683,10 @@
     </x:row>
     <x:row r="12" spans="1:12" ht="16.399999999999999">
       <x:c r="A12" s="8" t="s">
-        <x:v>52</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B12" s="8" t="s">
-        <x:v>59</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D12" s="8">
         <x:v>343</x:v>

--- a/data/한동녹용연구소_인스타그램_인게이지먼트.xlsx
+++ b/data/한동녹용연구소_인스타그램_인게이지먼트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="21825" windowHeight="9660" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11865" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="콘텐츠별 인게이지먼트" sheetId="1" r:id="rId4"/>
@@ -39,7 +39,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="129">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="131">
+  <x:si>
+    <x:t>이벤트제외평균</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2개콘테츠</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5/7 오후 7시 20분경 업로드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.20 오후 10시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.22 오전 10시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.16 오후 12시</x:t>
+  </x:si>
   <x:si>
     <x:t>2025.5.21 오후 11시</x:t>
   </x:si>
@@ -47,46 +65,277 @@
     <x:t>2025.5.12 오후 10시</x:t>
   </x:si>
   <x:si>
+    <x:t>2025.5.16 오전 10시</x:t>
+  </x:si>
+  <x:si>
     <x:t>2025.5.19 오후 10시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.13 오전 11시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.16 오후 10시</x:t>
   </x:si>
   <x:si>
     <x:t>첫 업로드 오후 7시 30분 업로드</x:t>
   </x:si>
   <x:si>
-    <x:t>5/7 오후 7시 20분경 업로드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.5.16 오후 12시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.5.16 오후 10시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.5.16 오전 10시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.5.22 오전 10시</x:t>
+    <x:t>5/23 금 오후 6시 업로드</x:t>
   </x:si>
   <x:si>
     <x:t>2025.5.13 오후 10시</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.5.13 오전 11시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5/23 금 오후 6시 업로드</x:t>
-  </x:si>
-  <x:si>
     <x:t>진심환, 진액, 칼슘스틱 등 홍보</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.5.20 오후 10시</x:t>
+    <x:t>기존에비해몇퍼센트증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.03.12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.04.18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>베이비페어 브이로그</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.03.20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11~12 평균</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.02.17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.03.06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.02.11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KPI(참여율3배)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쉐이크 ASMR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한동녹용연구소 홍보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.01.13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASMR NG(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아래는 참여율의 평균</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫 업로드 오후 6시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹용체험 반말ver.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>간기능이상-녹용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6~12인데 9뺌 평균</x:t>
+  </x:si>
+  <x:si>
+    <x:t>효능정보형+캐릭터(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹용체험 존댓말ver.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.7 오후 7시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우리가 한 것 전체 평균</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.17 오후 4시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.14 오후 3시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6~12인데 9뺌 참여율</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.23 오후 8시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.6.4 오후 3시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.13 오후 3시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KPI(3배): 7.84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.15 오후 8시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KPI(3배): 14.40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.12 오후 3시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이게 진짜 이벤트 제외.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.04.30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.02.04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기존에비해몇배증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우리가 한 것 전체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11~12 반응률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6~12 참여율</x:t>
+  </x:si>
+  <x:si>
+    <x:t>베이비페어 홍보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASMR NG(2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한동팀장은 근무중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.05.02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좋아요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참여률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>451</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참여율</x:t>
+  </x:si>
+  <x:si>
+    <x:t>437</x:t>
+  </x:si>
+  <x:si>
+    <x:t>443</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재생수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>흥미형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>438</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반응률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>439</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>440</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>후킹형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반응율</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>444</x:t>
+  </x:si>
+  <x:si>
+    <x:t>존댓말 ver. 첫 업로드 오후 7시 30분 업로드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이게 더 높은 이유는 우리가 한 것 이벤트는 제외 안함.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7개 전부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>산술평균2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쉐이크 홍보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가중평균4</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">11~12 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>가중평균4</x:t>
   </x:si>
   <x:si>
     <x:t>가중평균3</x:t>
@@ -95,10 +344,49 @@
     <x:t>산술평균3</x:t>
   </x:si>
   <x:si>
-    <x:t>21일꺼</x:t>
+    <x:t>도달된 계정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹용칼슘스틱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>팔로워수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이벤트뺀것</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025년</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20일꺼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저속노화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹용효능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6~12 평균</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23일꺼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6~12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>명함이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>산술평균4</x:t>
   </x:si>
   <x:si>
     <x:t>젤리 ASMR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21일꺼</x:t>
   </x:si>
   <x:si>
     <x:t>참여한 계정</x:t>
@@ -110,16 +398,7 @@
     <x:t>가중평균1</x:t>
   </x:si>
   <x:si>
-    <x:t>녹용효능</x:t>
-  </x:si>
-  <x:si>
     <x:t>산술평균1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도달된 계정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6~12 평균</x:t>
   </x:si>
   <x:si>
     <x:t>녹녹디어</x:t>
@@ -131,301 +410,28 @@
     <x:t>이전 총</x:t>
   </x:si>
   <x:si>
-    <x:t>녹용칼슘스틱</x:t>
+    <x:t>이벤트제외</x:t>
   </x:si>
   <x:si>
-    <x:t>팔로워수</x:t>
+    <x:t>가중평균2</x:t>
   </x:si>
   <x:si>
-    <x:t>명함이벤트</x:t>
+    <x:t>업로드 날짜</x:t>
   </x:si>
   <x:si>
-    <x:t>저속노화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23일꺼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이벤트뺀것</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20일꺼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6~12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>산술평균4</x:t>
+    <x:t>이전 총 평균</x:t>
   </x:si>
   <x:si>
     <x:t>22일꺼</x:t>
   </x:si>
   <x:si>
-    <x:t>이전 총 평균</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업로드 날짜</x:t>
-  </x:si>
-  <x:si>
     <x:t>콘텐츠명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이벤트제외</x:t>
   </x:si>
   <x:si>
     <x:t>(반응률3배)</x:t>
   </x:si>
   <x:si>
     <x:t>녹용체험</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가중평균2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쉐이크 홍보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7개 전부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>산술평균2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한동팀장은 근무중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ASMR NG(2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.05.02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>베이비페어 홍보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>존댓말 ver. 첫 업로드 오후 7시 30분 업로드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이게 더 높은 이유는 우리가 한 것 이벤트는 제외 안함.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>참여률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>후킹형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>흥미형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>438</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재생수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>참여율</x:t>
-  </x:si>
-  <x:si>
-    <x:t>437</x:t>
-  </x:si>
-  <x:si>
-    <x:t>451</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>443</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정보형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>댓글</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공유</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반응률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>440</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반응율</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>439</x:t>
-  </x:si>
-  <x:si>
-    <x:t>444</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좋아요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기존에비해몇배증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.04.30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6~12 참여율</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.02.04</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우리가 한 것 전체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11~12 반응률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.04.18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기존에비해몇퍼센트증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.03.12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>베이비페어 브이로그</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.02.11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.03.06</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아래는 참여율의 평균</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.01.13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.03.20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11~12 평균</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한동녹용연구소 홍보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹용체험 반말ver.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.02.17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쉐이크 ASMR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KPI(참여율3배)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>간기능이상-녹용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ASMR NG(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첫 업로드 오후 6시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.5.17 오후 4시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>효능정보형+캐릭터(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.5.12 오후 3시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.5.13 오후 3시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.6.4 오후 3시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.5.15 오후 8시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.5.14 오후 3시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이게 진짜 이벤트 제외.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6~12인데 9뺌 평균</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6~12인데 9뺌 참여율</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KPI(3배): 14.40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.5.23 오후 8시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우리가 한 것 전체 평균</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹용체험 존댓말ver.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.5.7 오후 7시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KPI(3배): 7.84</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1586,57 +1592,57 @@
   <x:sheetData>
     <x:row r="1" spans="1:14" ht="17.149999999999999">
       <x:c r="A1" s="10" t="s">
-        <x:v>65</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B1" s="11" t="s">
-        <x:v>43</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C1" s="12" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D1" s="12" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="E1" s="12" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="F1" s="12" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="G1" s="12" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H1" s="12" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="I1" s="12" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="J1" s="12" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="D1" s="12" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E1" s="12" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F1" s="12" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G1" s="12" t="s">
+      <x:c r="K1" s="13" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="L1" s="13" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="H1" s="12" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="I1" s="12" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="J1" s="12" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="K1" s="13" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="L1" s="13" t="s">
-        <x:v>84</x:v>
-      </x:c>
       <x:c r="M1" s="14" t="s">
-        <x:v>31</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="N1" s="15" t="s">
-        <x:v>62</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:15" ht="16.399999999999999">
       <x:c r="A2" s="22" t="s">
-        <x:v>127</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B2" s="17" t="s">
-        <x:v>106</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C2" s="18" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D2" s="16">
         <x:v>4456</x:v>
@@ -1668,22 +1674,22 @@
         <x:v>1.2263396427619302</x:v>
       </x:c>
       <x:c r="M2" s="20" t="s">
-        <x:v>66</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N2" s="21" t="s">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="O2" s="16"/>
     </x:row>
     <x:row r="3" spans="1:14" ht="16.399999999999999">
       <x:c r="A3" s="22" t="s">
-        <x:v>115</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B3" s="17" t="s">
-        <x:v>106</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C3" s="18" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D3" s="16">
         <x:v>4470</x:v>
@@ -1715,19 +1721,19 @@
         <x:v>1.2263396427619302</x:v>
       </x:c>
       <x:c r="M3" s="20" t="s">
-        <x:v>66</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N3" s="21"/>
     </x:row>
     <x:row r="4" spans="1:14" ht="16.399999999999999">
       <x:c r="A4" s="24" t="s">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B4" s="17" t="s">
-        <x:v>106</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C4" s="18" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D4" s="16">
         <x:v>4504</x:v>
@@ -1759,19 +1765,19 @@
         <x:v>1.2263396427619302</x:v>
       </x:c>
       <x:c r="M4" s="20" t="s">
-        <x:v>66</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N4" s="21"/>
     </x:row>
     <x:row r="5" spans="1:14" ht="16.399999999999999">
       <x:c r="A5" s="24" t="s">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B5" s="17" t="s">
-        <x:v>126</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C5" s="18" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D5" s="16">
         <x:v>1141</x:v>
@@ -1803,10 +1809,10 @@
         <x:v>1.3844515441959531</x:v>
       </x:c>
       <x:c r="M5" s="20" t="s">
-        <x:v>66</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N5" s="21" t="s">
-        <x:v>55</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:14" ht="16.399999999999999">
@@ -1814,10 +1820,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B6" s="17" t="s">
-        <x:v>126</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C6" s="18" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D6" s="16">
         <x:v>2587</x:v>
@@ -1849,7 +1855,7 @@
         <x:v>1.3507219375873312</x:v>
       </x:c>
       <x:c r="M6" s="20" t="s">
-        <x:v>86</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N6" s="21"/>
     </x:row>
@@ -1858,10 +1864,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B7" s="17" t="s">
-        <x:v>106</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C7" s="18" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D7" s="16">
         <x:v>4520</x:v>
@@ -1893,19 +1899,19 @@
         <x:v>1.248671625929862</x:v>
       </x:c>
       <x:c r="M7" s="20" t="s">
-        <x:v>86</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N7" s="21"/>
     </x:row>
     <x:row r="8" spans="1:14" ht="16.399999999999999">
       <x:c r="A8" s="24" t="s">
-        <x:v>116</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B8" s="17" t="s">
-        <x:v>126</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C8" s="18" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D8" s="16">
         <x:v>2813</x:v>
@@ -1937,19 +1943,19 @@
         <x:v>1.3852813852813852</x:v>
       </x:c>
       <x:c r="M8" s="20" t="s">
-        <x:v>66</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N8" s="21"/>
     </x:row>
     <x:row r="9" spans="1:14" ht="16.399999999999999">
       <x:c r="A9" s="24" t="s">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B9" s="17" t="s">
-        <x:v>126</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C9" s="18" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D9" s="16">
         <x:v>3735</x:v>
@@ -1981,19 +1987,19 @@
         <x:v>1.1958629605688429</x:v>
       </x:c>
       <x:c r="M9" s="20" t="s">
-        <x:v>66</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N9" s="21"/>
     </x:row>
     <x:row r="10" spans="1:14" ht="16.399999999999999">
       <x:c r="A10" s="24" t="s">
-        <x:v>119</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B10" s="17" t="s">
-        <x:v>106</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D10" s="16">
         <x:v>4558</x:v>
@@ -2025,19 +2031,19 @@
         <x:v>1.2624934245134138</x:v>
       </x:c>
       <x:c r="M10" s="20" t="s">
-        <x:v>66</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N10" s="21"/>
     </x:row>
     <x:row r="11" spans="1:14" ht="16.399999999999999">
       <x:c r="A11" s="24" t="s">
-        <x:v>119</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B11" s="17" t="s">
-        <x:v>126</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C11" s="18" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D11" s="16">
         <x:v>3872</x:v>
@@ -2069,19 +2075,19 @@
         <x:v>1.1558887847547641</x:v>
       </x:c>
       <x:c r="M11" s="20" t="s">
-        <x:v>66</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N11" s="21"/>
     </x:row>
     <x:row r="12" spans="1:14" ht="16.399999999999999">
       <x:c r="A12" s="32" t="s">
-        <x:v>118</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B12" s="33" t="s">
-        <x:v>106</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C12" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D12" s="35">
         <x:v>4584</x:v>
@@ -2113,19 +2119,19 @@
         <x:v>1.3368283093053734</x:v>
       </x:c>
       <x:c r="M12" s="20" t="s">
-        <x:v>69</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="N12" s="37"/>
     </x:row>
     <x:row r="13" spans="1:14" ht="16.399999999999999">
       <x:c r="A13" s="32" t="s">
-        <x:v>118</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B13" s="33" t="s">
-        <x:v>126</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C13" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D13" s="35">
         <x:v>4044</x:v>
@@ -2157,19 +2163,19 @@
         <x:v>1.1887072808320951</x:v>
       </x:c>
       <x:c r="M13" s="20" t="s">
-        <x:v>69</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="N13" s="37"/>
     </x:row>
     <x:row r="14" spans="1:14" ht="16.399999999999999">
       <x:c r="A14" s="32" t="s">
-        <x:v>118</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B14" s="33" t="s">
-        <x:v>19</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C14" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D14" s="35">
         <x:v>75</x:v>
@@ -2201,10 +2207,10 @@
         <x:v>66.666666666666657</x:v>
       </x:c>
       <x:c r="M14" s="20" t="s">
-        <x:v>69</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="N14" s="38" t="s">
-        <x:v>3</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:14" ht="16.399999999999999">
@@ -2212,10 +2218,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B15" s="33" t="s">
-        <x:v>19</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C15" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D15" s="35">
         <x:v>503</x:v>
@@ -2247,19 +2253,19 @@
         <x:v>8.4690553745928341</x:v>
       </x:c>
       <x:c r="M15" s="20" t="s">
-        <x:v>66</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N15" s="37"/>
     </x:row>
     <x:row r="16" spans="1:14" ht="16.399999999999999">
       <x:c r="A16" s="32" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B16" s="33" t="s">
-        <x:v>19</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C16" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D16" s="35">
         <x:v>584</x:v>
@@ -2291,19 +2297,19 @@
         <x:v>9.0651558073654392</x:v>
       </x:c>
       <x:c r="M16" s="20" t="s">
-        <x:v>69</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="N16" s="37"/>
     </x:row>
     <x:row r="17" spans="1:14" ht="16.399999999999999">
       <x:c r="A17" s="32" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B17" s="33" t="s">
-        <x:v>106</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C17" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D17" s="35">
         <x:v>4625</x:v>
@@ -2335,19 +2341,19 @@
         <x:v>1.3848967859942514</x:v>
       </x:c>
       <x:c r="M17" s="20" t="s">
-        <x:v>69</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="N17" s="37"/>
     </x:row>
     <x:row r="18" spans="1:14" ht="16.399999999999999">
       <x:c r="A18" s="32" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B18" s="33" t="s">
-        <x:v>126</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C18" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D18" s="35">
         <x:v>4077</x:v>
@@ -2379,19 +2385,19 @@
         <x:v>1.2144549763033177</x:v>
       </x:c>
       <x:c r="M18" s="20" t="s">
-        <x:v>69</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="N18" s="37"/>
     </x:row>
     <x:row r="19" spans="1:14" ht="16.399999999999999">
       <x:c r="A19" s="32" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B19" s="33" t="s">
-        <x:v>19</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C19" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D19" s="35">
         <x:v>683</x:v>
@@ -2423,19 +2429,19 @@
         <x:v>8.9330024813895772</x:v>
       </x:c>
       <x:c r="M19" s="20" t="s">
-        <x:v>66</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N19" s="37"/>
     </x:row>
     <x:row r="20" spans="1:14" ht="16.399999999999999">
       <x:c r="A20" s="32" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B20" s="33" t="s">
-        <x:v>106</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C20" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D20" s="35">
         <x:v>4636</x:v>
@@ -2467,19 +2473,19 @@
         <x:v>1.3823682837767346</x:v>
       </x:c>
       <x:c r="M20" s="20" t="s">
-        <x:v>66</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N20" s="37"/>
     </x:row>
     <x:row r="21" spans="1:14" ht="16.399999999999999">
       <x:c r="A21" s="32" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B21" s="33" t="s">
-        <x:v>126</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C21" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D21" s="35">
         <x:v>4087</x:v>
@@ -2511,19 +2517,19 @@
         <x:v>1.2126589766341318</x:v>
       </x:c>
       <x:c r="M21" s="20" t="s">
-        <x:v>66</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="N21" s="37"/>
     </x:row>
     <x:row r="22" spans="1:14" ht="16.399999999999999">
       <x:c r="A22" s="32" t="s">
-        <x:v>113</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B22" s="33" t="s">
-        <x:v>19</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C22" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D22" s="35">
         <x:v>701</x:v>
@@ -2555,19 +2561,19 @@
         <x:v>11.302211302211303</x:v>
       </x:c>
       <x:c r="M22" s="20" t="s">
-        <x:v>83</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="N22" s="37"/>
     </x:row>
     <x:row r="23" spans="1:14" ht="16.399999999999999">
       <x:c r="A23" s="32" t="s">
-        <x:v>113</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B23" s="33" t="s">
-        <x:v>106</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C23" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D23" s="35">
         <x:v>4643</x:v>
@@ -2599,19 +2605,19 @@
         <x:v>1.3823682837767346</x:v>
       </x:c>
       <x:c r="M23" s="20" t="s">
-        <x:v>83</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="N23" s="37"/>
     </x:row>
     <x:row r="24" spans="1:14" ht="16.399999999999999">
       <x:c r="A24" s="32" t="s">
-        <x:v>113</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B24" s="33" t="s">
-        <x:v>126</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C24" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D24" s="35">
         <x:v>4100</x:v>
@@ -2643,19 +2649,19 @@
         <x:v>1.2126589766341318</x:v>
       </x:c>
       <x:c r="M24" s="20" t="s">
-        <x:v>83</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="N24" s="37"/>
     </x:row>
     <x:row r="25" spans="1:14" ht="16.399999999999999">
       <x:c r="A25" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B25" s="33" t="s">
-        <x:v>106</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C25" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D25" s="35">
         <x:v>4666</x:v>
@@ -2687,19 +2693,19 @@
         <x:v>1.3802083333333333</x:v>
       </x:c>
       <x:c r="M25" s="20" t="s">
-        <x:v>83</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="N25" s="40"/>
     </x:row>
     <x:row r="26" spans="1:14" ht="16.399999999999999">
       <x:c r="A26" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B26" s="33" t="s">
-        <x:v>126</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C26" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D26" s="35">
         <x:v>4145</x:v>
@@ -2731,19 +2737,19 @@
         <x:v>1.2327560904021133</x:v>
       </x:c>
       <x:c r="M26" s="20" t="s">
-        <x:v>83</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="N26" s="40"/>
     </x:row>
     <x:row r="27" spans="1:14" ht="16.399999999999999">
       <x:c r="A27" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B27" s="33" t="s">
-        <x:v>19</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C27" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D27" s="35">
         <x:v>741</x:v>
@@ -2775,19 +2781,19 @@
         <x:v>8.6330935251798557</x:v>
       </x:c>
       <x:c r="M27" s="20" t="s">
-        <x:v>83</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="N27" s="40"/>
     </x:row>
     <x:row r="28" spans="1:14" ht="16.399999999999999">
       <x:c r="A28" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B28" s="33" t="s">
-        <x:v>108</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C28" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D28" s="35">
         <x:v>437</x:v>
@@ -2819,21 +2825,21 @@
         <x:v>2.3121387283236992</x:v>
       </x:c>
       <x:c r="M28" s="20" t="s">
-        <x:v>83</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="N28" s="37" t="s">
-        <x:v>112</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:14" ht="16.399999999999999">
       <x:c r="A29" s="35" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B29" s="33" t="s">
-        <x:v>106</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C29" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D29" s="35">
         <x:v>4679</x:v>
@@ -2865,19 +2871,19 @@
         <x:v>1.3802083333333333</x:v>
       </x:c>
       <x:c r="M29" s="20" t="s">
-        <x:v>83</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="N29" s="23"/>
     </x:row>
     <x:row r="30" spans="1:14" ht="16.399999999999999">
       <x:c r="A30" s="35" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B30" s="33" t="s">
-        <x:v>126</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C30" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D30" s="35">
         <x:v>4156</x:v>
@@ -2909,19 +2915,19 @@
         <x:v>1.2327560904021133</x:v>
       </x:c>
       <x:c r="M30" s="20" t="s">
-        <x:v>83</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="N30" s="23"/>
     </x:row>
     <x:row r="31" spans="1:14" ht="16.399999999999999">
       <x:c r="A31" s="35" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B31" s="33" t="s">
-        <x:v>19</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C31" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D31" s="35">
         <x:v>760</x:v>
@@ -2953,19 +2959,19 @@
         <x:v>8.5714285714285712</x:v>
       </x:c>
       <x:c r="M31" s="20" t="s">
-        <x:v>83</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="N31" s="23"/>
     </x:row>
     <x:row r="32" spans="1:14" ht="16.399999999999999">
       <x:c r="A32" s="35" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B32" s="33" t="s">
-        <x:v>108</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C32" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D32" s="35">
         <x:v>553</x:v>
@@ -2997,19 +3003,19 @@
         <x:v>3.8461538461538463</x:v>
       </x:c>
       <x:c r="M32" s="20" t="s">
-        <x:v>83</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="N32" s="23"/>
     </x:row>
     <x:row r="33" spans="1:14" ht="16.399999999999999">
       <x:c r="A33" s="35" t="s">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B33" s="33" t="s">
-        <x:v>51</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C33" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D33" s="35">
         <x:v>496</x:v>
@@ -3041,19 +3047,19 @@
         <x:v>4.0114613180515759</x:v>
       </x:c>
       <x:c r="M33" s="20" t="s">
-        <x:v>72</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="N33" s="23"/>
     </x:row>
     <x:row r="34" spans="1:14" ht="16.399999999999999">
       <x:c r="A34" s="35" t="s">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B34" s="33" t="s">
-        <x:v>106</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C34" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D34" s="35">
         <x:v>4697</x:v>
@@ -3085,19 +3091,19 @@
         <x:v>1.3964313421256789</x:v>
       </x:c>
       <x:c r="M34" s="20" t="s">
-        <x:v>72</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="N34" s="23"/>
     </x:row>
     <x:row r="35" spans="1:14" ht="16.399999999999999">
       <x:c r="A35" s="35" t="s">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B35" s="33" t="s">
-        <x:v>126</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C35" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D35" s="35">
         <x:v>4172</x:v>
@@ -3129,19 +3135,19 @@
         <x:v>1.2580456407255705</x:v>
       </x:c>
       <x:c r="M35" s="20" t="s">
-        <x:v>72</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="N35" s="23"/>
     </x:row>
     <x:row r="36" spans="1:14" ht="16.399999999999999">
       <x:c r="A36" s="35" t="s">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B36" s="33" t="s">
-        <x:v>19</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C36" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D36" s="35">
         <x:v>781</x:v>
@@ -3173,19 +3179,19 @@
         <x:v>8.7058823529411757</x:v>
       </x:c>
       <x:c r="M36" s="20" t="s">
-        <x:v>72</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="N36" s="23"/>
     </x:row>
     <x:row r="37" spans="1:14" ht="16.399999999999999">
       <x:c r="A37" s="35" t="s">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B37" s="33" t="s">
-        <x:v>108</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C37" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D37" s="35">
         <x:v>598</x:v>
@@ -3217,19 +3223,19 @@
         <x:v>5.1470588235294112</x:v>
       </x:c>
       <x:c r="M37" s="20" t="s">
-        <x:v>72</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="N37" s="23"/>
     </x:row>
     <x:row r="38" spans="1:14" ht="16.399999999999999">
       <x:c r="A38" s="35" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B38" s="33" t="s">
-        <x:v>51</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C38" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D38" s="35">
         <x:v>567</x:v>
@@ -3261,19 +3267,19 @@
         <x:v>4.5801526717557248</x:v>
       </x:c>
       <x:c r="M38" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N38" s="23"/>
     </x:row>
     <x:row r="39" spans="1:14" ht="16.399999999999999">
       <x:c r="A39" s="35" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B39" s="33" t="s">
-        <x:v>108</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C39" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D39" s="35">
         <x:v>599</x:v>
@@ -3305,19 +3311,19 @@
         <x:v>5.1470588235294112</x:v>
       </x:c>
       <x:c r="M39" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N39" s="23"/>
     </x:row>
     <x:row r="40" spans="1:14" ht="16.399999999999999">
       <x:c r="A40" s="35" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B40" s="33" t="s">
-        <x:v>19</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C40" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D40" s="35">
         <x:v>784</x:v>
@@ -3349,19 +3355,19 @@
         <x:v>8.9411764705882355</x:v>
       </x:c>
       <x:c r="M40" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N40" s="23"/>
     </x:row>
     <x:row r="41" spans="1:14" ht="16.399999999999999">
       <x:c r="A41" s="35" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B41" s="33" t="s">
-        <x:v>126</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C41" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D41" s="35">
         <x:v>4175</x:v>
@@ -3393,19 +3399,19 @@
         <x:v>1.2562080046742623</x:v>
       </x:c>
       <x:c r="M41" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N41" s="23"/>
     </x:row>
     <x:row r="42" spans="1:14" ht="16.399999999999999">
       <x:c r="A42" s="35" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B42" s="33" t="s">
-        <x:v>106</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C42" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D42" s="35">
         <x:v>4700</x:v>
@@ -3437,19 +3443,19 @@
         <x:v>1.3964313421256789</x:v>
       </x:c>
       <x:c r="M42" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N42" s="23"/>
     </x:row>
     <x:row r="43" spans="1:14" ht="16.399999999999999">
       <x:c r="A43" s="35" t="s">
-        <x:v>124</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B43" s="33" t="s">
-        <x:v>51</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C43" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D43" s="35">
         <x:v>686</x:v>
@@ -3481,19 +3487,19 @@
         <x:v>4.5356371490280782</x:v>
       </x:c>
       <x:c r="M43" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N43" s="45"/>
     </x:row>
     <x:row r="44" spans="1:14" ht="16.399999999999999">
       <x:c r="A44" s="35" t="s">
-        <x:v>124</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B44" s="33" t="s">
-        <x:v>108</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C44" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D44" s="35">
         <x:v>624</x:v>
@@ -3525,19 +3531,19 @@
         <x:v>5.3527980535279802</x:v>
       </x:c>
       <x:c r="M44" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N44" s="45"/>
     </x:row>
     <x:row r="45" spans="1:14" ht="16.399999999999999">
       <x:c r="A45" s="35" t="s">
-        <x:v>124</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B45" s="33" t="s">
-        <x:v>19</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C45" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D45" s="35">
         <x:v>810</x:v>
@@ -3569,19 +3575,19 @@
         <x:v>9.1549295774647899</x:v>
       </x:c>
       <x:c r="M45" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N45" s="45"/>
     </x:row>
     <x:row r="46" spans="1:14" ht="16.399999999999999">
       <x:c r="A46" s="35" t="s">
-        <x:v>124</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B46" s="33" t="s">
-        <x:v>126</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C46" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D46" s="35">
         <x:v>4192</x:v>
@@ -3613,19 +3619,19 @@
         <x:v>1.3146362839614372</x:v>
       </x:c>
       <x:c r="M46" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N46" s="45"/>
     </x:row>
     <x:row r="47" spans="1:14" ht="16.399999999999999">
       <x:c r="A47" s="35" t="s">
-        <x:v>124</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B47" s="33" t="s">
-        <x:v>106</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C47" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D47" s="35">
         <x:v>4712</x:v>
@@ -3657,19 +3663,19 @@
         <x:v>1.4200877872450297</x:v>
       </x:c>
       <x:c r="M47" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N47" s="45"/>
     </x:row>
     <x:row r="48" spans="1:14" ht="16.399999999999999">
       <x:c r="A48" s="35" t="s">
-        <x:v>124</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B48" s="33" t="s">
-        <x:v>111</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C48" s="34" t="s">
-        <x:v>60</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D48" s="35">
         <x:v>739</x:v>
@@ -3701,21 +3707,21 @@
         <x:v>1.6216216216216217</x:v>
       </x:c>
       <x:c r="M48" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N48" s="37" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:14" ht="16.399999999999999">
       <x:c r="A49" s="35" t="s">
-        <x:v>117</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B49" s="50" t="s">
-        <x:v>106</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C49" s="51" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D49" s="49">
         <x:v>4783</x:v>
@@ -3747,19 +3753,19 @@
         <x:v>1.5541264737406217</x:v>
       </x:c>
       <x:c r="M49" s="20" t="s">
-        <x:v>70</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N49" s="23"/>
     </x:row>
     <x:row r="50" spans="1:14" ht="16.399999999999999">
       <x:c r="A50" s="35" t="s">
-        <x:v>117</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B50" s="33" t="s">
-        <x:v>126</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C50" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D50" s="35">
         <x:v>4252</x:v>
@@ -3791,19 +3797,19 @@
         <x:v>1.3892908827785817</x:v>
       </x:c>
       <x:c r="M50" s="20" t="s">
-        <x:v>70</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N50" s="23"/>
     </x:row>
     <x:row r="51" spans="1:14" ht="16.399999999999999">
       <x:c r="A51" s="35" t="s">
-        <x:v>117</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B51" s="33" t="s">
-        <x:v>19</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C51" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D51" s="35">
         <x:v>872</x:v>
@@ -3835,19 +3841,19 @@
         <x:v>10.16548463356974</x:v>
       </x:c>
       <x:c r="M51" s="20" t="s">
-        <x:v>70</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N51" s="23"/>
     </x:row>
     <x:row r="52" spans="1:14" ht="16.399999999999999">
       <x:c r="A52" s="35" t="s">
-        <x:v>117</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B52" s="33" t="s">
-        <x:v>108</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C52" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D52" s="35">
         <x:v>681</x:v>
@@ -3879,19 +3885,19 @@
         <x:v>6.2068965517241379</x:v>
       </x:c>
       <x:c r="M52" s="20" t="s">
-        <x:v>70</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N52" s="23"/>
     </x:row>
     <x:row r="53" spans="1:14" ht="16.399999999999999">
       <x:c r="A53" s="35" t="s">
-        <x:v>117</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B53" s="33" t="s">
-        <x:v>51</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C53" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D53" s="35">
         <x:v>761</x:v>
@@ -3923,19 +3929,19 @@
         <x:v>5.5327868852459012</x:v>
       </x:c>
       <x:c r="M53" s="20" t="s">
-        <x:v>70</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N53" s="23"/>
     </x:row>
     <x:row r="54" spans="1:14" ht="16.399999999999999">
       <x:c r="A54" s="35" t="s">
-        <x:v>117</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B54" s="33" t="s">
-        <x:v>111</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C54" s="34" t="s">
-        <x:v>60</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D54" s="35">
         <x:v>3296</x:v>
@@ -3967,19 +3973,19 @@
         <x:v>1.2786761940579165</x:v>
       </x:c>
       <x:c r="M54" s="20" t="s">
-        <x:v>70</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N54" s="23"/>
     </x:row>
     <x:row r="55" spans="1:14" ht="16.399999999999999">
       <x:c r="A55" s="35" t="s">
-        <x:v>117</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B55" s="33" t="s">
-        <x:v>52</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C55" s="34" t="s">
-        <x:v>60</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D55" s="35">
         <x:v>706</x:v>
@@ -4011,19 +4017,19 @@
         <x:v>5.3497942386831276</x:v>
       </x:c>
       <x:c r="M55" s="20" t="s">
-        <x:v>70</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N55" s="23"/>
     </x:row>
     <x:row r="56" spans="1:14" ht="16.399999999999999">
       <x:c r="A56" s="35" t="s">
-        <x:v>117</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B56" s="33" t="s">
-        <x:v>114</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C56" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D56" s="35">
         <x:v>1396</x:v>
@@ -4055,19 +4061,19 @@
         <x:v>3.3834586466165413</x:v>
       </x:c>
       <x:c r="M56" s="20" t="s">
-        <x:v>70</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N56" s="23"/>
     </x:row>
     <x:row r="57" spans="1:14" ht="16.399999999999999">
       <x:c r="A57" s="35" t="s">
-        <x:v>117</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B57" s="33" t="s">
-        <x:v>27</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C57" s="34" t="s">
-        <x:v>60</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D57" s="35">
         <x:v>956</x:v>
@@ -4099,19 +4105,19 @@
         <x:v>4.4182621502209134</x:v>
       </x:c>
       <x:c r="M57" s="20" t="s">
-        <x:v>70</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N57" s="23"/>
     </x:row>
     <x:row r="58" spans="1:14" ht="16.399999999999999">
       <x:c r="A58" s="35" t="s">
-        <x:v>117</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B58" s="33" t="s">
-        <x:v>33</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C58" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D58" s="35">
         <x:v>1832</x:v>
@@ -4143,7 +4149,7 @@
         <x:v>1.8436109345200253</x:v>
       </x:c>
       <x:c r="M58" s="20" t="s">
-        <x:v>70</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N58" s="23"/>
     </x:row>
@@ -12658,10 +12664,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="A1:Y104"/>
+  <x:dimension ref="A1:Y106"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:pane xSplit="2" ySplit="0" topLeftCell="H19" activePane="topRight" state="frozen"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:pane xSplit="2" ySplit="0" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <x:selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -12669,8 +12675,10 @@
   <x:cols>
     <x:col min="2" max="2" width="22.37890625" style="9" customWidth="1"/>
     <x:col min="3" max="3" width="12.62890625" style="9" hidden="1"/>
-    <x:col min="4" max="10" width="12.62890625" style="8" bestFit="1" customWidth="1"/>
-    <x:col min="11" max="11" width="13.30078125" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="6" width="12.62890625" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="13.30078125" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="8" width="12.62890625" style="8" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="11" width="13.30078125" style="8" bestFit="1" customWidth="1"/>
     <x:col min="12" max="12" width="12.87109375" style="8" bestFit="1" customWidth="1"/>
     <x:col min="13" max="13" width="12.62890625" style="9" hidden="1"/>
     <x:col min="14" max="14" width="12.62890625" style="7" bestFit="1" customWidth="1"/>
@@ -12688,46 +12696,46 @@
   <x:sheetData>
     <x:row r="1" spans="1:22" ht="17.149999999999999">
       <x:c r="A1" s="12" t="s">
-        <x:v>42</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B1" s="11" t="s">
-        <x:v>43</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C1" s="12" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D1" s="12" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E1" s="12" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="F1" s="12" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="G1" s="12" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H1" s="12" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="I1" s="12" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="J1" s="12" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="D1" s="12" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="E1" s="12" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F1" s="12" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G1" s="12" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="H1" s="12" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="I1" s="12" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="J1" s="12" t="s">
-        <x:v>58</x:v>
-      </x:c>
       <x:c r="K1" s="13" t="s">
-        <x:v>68</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="L1" s="13" t="s">
-        <x:v>82</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="M1" s="14" t="s">
-        <x:v>31</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="N1" s="15" t="s">
-        <x:v>62</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="P1" s="46"/>
       <x:c r="R1" s="47"/>
@@ -12736,19 +12744,19 @@
     </x:row>
     <x:row r="2" spans="1:22" ht="16.399999999999999">
       <x:c r="A2" s="16" t="s">
-        <x:v>100</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B2" s="16" t="s">
-        <x:v>30</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D2" s="16">
         <x:v>25000</x:v>
       </x:c>
       <x:c r="E2" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F2" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G2" s="16">
         <x:v>78</x:v>
@@ -12763,10 +12771,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K2" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="L2" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="P2" s="46"/>
       <x:c r="R2" s="47"/>
@@ -12775,19 +12783,19 @@
     </x:row>
     <x:row r="3" spans="1:22" ht="16.399999999999999">
       <x:c r="A3" s="16" t="s">
-        <x:v>97</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B3" s="16" t="s">
-        <x:v>110</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D3" s="16">
         <x:v>36000</x:v>
       </x:c>
       <x:c r="E3" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F3" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G3" s="16">
         <x:v>54</x:v>
@@ -12802,10 +12810,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K3" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="L3" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="P3" s="46"/>
       <x:c r="R3" s="47"/>
@@ -12814,19 +12822,19 @@
     </x:row>
     <x:row r="4" spans="1:22" ht="16.399999999999999">
       <x:c r="A4" s="16" t="s">
-        <x:v>103</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B4" s="16" t="s">
-        <x:v>23</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D4" s="16">
         <x:v>28000</x:v>
       </x:c>
       <x:c r="E4" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F4" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G4" s="16">
         <x:v>56</x:v>
@@ -12841,10 +12849,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K4" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="L4" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="P4" s="46"/>
       <x:c r="R4" s="47"/>
@@ -12853,19 +12861,19 @@
     </x:row>
     <x:row r="5" spans="1:22" ht="16.399999999999999">
       <x:c r="A5" s="16" t="s">
-        <x:v>95</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B5" s="16" t="s">
-        <x:v>46</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D5" s="16">
         <x:v>33</x:v>
       </x:c>
       <x:c r="E5" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F5" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G5" s="16">
         <x:v>5</x:v>
@@ -12880,10 +12888,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K5" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="L5" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="P5" s="46"/>
       <x:c r="R5" s="47"/>
@@ -12892,10 +12900,10 @@
     </x:row>
     <x:row r="6" spans="1:22" ht="16.399999999999999">
       <x:c r="A6" s="16" t="s">
-        <x:v>90</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B6" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D6" s="16">
         <x:v>39000</x:v>
@@ -12904,7 +12912,7 @@
         <x:v>30000</x:v>
       </x:c>
       <x:c r="F6" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G6" s="16">
         <x:v>136</x:v>
@@ -12923,7 +12931,7 @@
         <x:v>0.45999999999999996</x:v>
       </x:c>
       <x:c r="L6" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="P6" s="46"/>
       <x:c r="R6" s="47"/>
@@ -12932,10 +12940,10 @@
     </x:row>
     <x:row r="7" spans="1:22" ht="16.399999999999999">
       <x:c r="A7" s="16" t="s">
-        <x:v>90</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B7" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D7" s="16">
         <x:v>20000</x:v>
@@ -12944,7 +12952,7 @@
         <x:v>19000</x:v>
       </x:c>
       <x:c r="F7" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G7" s="16">
         <x:v>15</x:v>
@@ -12963,7 +12971,7 @@
         <x:v>0.078947368421052627</x:v>
       </x:c>
       <x:c r="L7" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="P7" s="46"/>
       <x:c r="R7" s="47"/>
@@ -12972,10 +12980,10 @@
     </x:row>
     <x:row r="8" spans="1:22" ht="16.399999999999999">
       <x:c r="A8" s="16" t="s">
-        <x:v>53</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B8" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D8" s="16">
         <x:v>18000</x:v>
@@ -12984,7 +12992,7 @@
         <x:v>15000</x:v>
       </x:c>
       <x:c r="F8" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G8" s="29">
         <x:v>612</x:v>
@@ -13003,7 +13011,7 @@
         <x:v>4.0800000000000001</x:v>
       </x:c>
       <x:c r="L8" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="P8" s="46"/>
       <x:c r="R8" s="47"/>
@@ -13012,10 +13020,10 @@
     </x:row>
     <x:row r="9" spans="1:22" ht="16.399999999999999">
       <x:c r="A9" s="16" t="s">
-        <x:v>102</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B9" s="16" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D9" s="16">
         <x:v>7323</x:v>
@@ -13024,7 +13032,7 @@
         <x:v>2863</x:v>
       </x:c>
       <x:c r="F9" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G9" s="16">
         <x:v>209</x:v>
@@ -13043,7 +13051,7 @@
         <x:v>18.721620677610897</x:v>
       </x:c>
       <x:c r="L9" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="P9" s="46"/>
       <x:c r="R9" s="47"/>
@@ -13052,10 +13060,10 @@
     </x:row>
     <x:row r="10" spans="1:22" ht="16.399999999999999">
       <x:c r="A10" s="16" t="s">
-        <x:v>92</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B10" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D10" s="16">
         <x:v>1738</x:v>
@@ -13064,7 +13072,7 @@
         <x:v>1436</x:v>
       </x:c>
       <x:c r="F10" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G10" s="16">
         <x:v>25</x:v>
@@ -13083,7 +13091,7 @@
         <x:v>2.01949860724234</x:v>
       </x:c>
       <x:c r="L10" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="P10" s="46"/>
       <x:c r="R10" s="47"/>
@@ -13092,10 +13100,10 @@
     </x:row>
     <x:row r="11" spans="1:22" ht="16.399999999999999">
       <x:c r="A11" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B11" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D11" s="29">
         <x:v>364</x:v>
@@ -13133,10 +13141,10 @@
     </x:row>
     <x:row r="12" spans="1:22" ht="16.399999999999999">
       <x:c r="A12" s="16" t="s">
-        <x:v>107</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B12" s="16" t="s">
-        <x:v>98</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D12" s="16">
         <x:v>343</x:v>
@@ -13174,7 +13182,7 @@
     </x:row>
     <x:row r="13" spans="1:22" ht="16.399999999999999">
       <x:c r="A13" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="E13" s="8">
         <x:f>SUM(E9:E12)</x:f>
@@ -13207,7 +13215,7 @@
     </x:row>
     <x:row r="14" spans="1:22" customHeight="1">
       <x:c r="A14" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E14" s="8">
         <x:f>SUM(E10:E12)</x:f>
@@ -13234,10 +13242,10 @@
         <x:v>2.57201646090535</x:v>
       </x:c>
       <x:c r="O14" s="3" t="s">
-        <x:v>109</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="P14" s="46" t="s">
-        <x:v>45</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="R14" s="47"/>
       <x:c r="T14" s="46"/>
@@ -13245,7 +13253,7 @@
     </x:row>
     <x:row r="15" spans="1:22" customHeight="1">
       <x:c r="A15" s="8" t="s">
-        <x:v>29</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D15" s="8">
         <x:f>SUM(D2:D12)</x:f>
@@ -13282,7 +13290,7 @@
     </x:row>
     <x:row r="16" spans="1:22" ht="16.399999999999999">
       <x:c r="A16" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D16" s="8">
         <x:f>SUM(D2:D12)/11</x:f>
@@ -13335,7 +13343,7 @@
     <x:row r="17" spans="16:22" ht="13.199999999999999">
       <x:c r="P17" s="46"/>
       <x:c r="Q17" s="3" t="s">
-        <x:v>101</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="R17" s="47"/>
       <x:c r="T17" s="46"/>
@@ -13343,10 +13351,10 @@
     </x:row>
     <x:row r="18" spans="1:22" customHeight="1">
       <x:c r="A18" s="8" t="s">
-        <x:v>38</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B18" s="9" t="s">
-        <x:v>91</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D18" s="8">
         <x:f>SUM(D6:D12)</x:f>
@@ -13387,14 +13395,14 @@
         <x:v>4.8016042062817093</x:v>
       </x:c>
       <x:c r="R18" s="48" t="s">
-        <x:v>123</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="T18" s="46"/>
       <x:c r="V18" s="47"/>
     </x:row>
     <x:row r="19" spans="2:22" customHeight="1">
       <x:c r="B19" s="9" t="s">
-        <x:v>122</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D19" s="8">
         <x:f>SUM(D6,D7,D8,D10,D11,D12)</x:f>
@@ -13434,14 +13442,14 @@
         <x:v>2.481601461060178</x:v>
       </x:c>
       <x:c r="R19" s="48" t="s">
-        <x:v>128</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="T19" s="46"/>
       <x:c r="V19" s="47"/>
     </x:row>
     <x:row r="20" spans="2:22" customHeight="1">
       <x:c r="B20" s="9" t="s">
-        <x:v>26</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="D20" s="8">
         <x:f>SUM(D6:D12)/7</x:f>
@@ -13482,7 +13490,7 @@
     </x:row>
     <x:row r="21" spans="2:22" customHeight="1">
       <x:c r="B21" s="9" t="s">
-        <x:v>121</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D21" s="8">
         <x:f>SUM(D6,D7,D8,D10,D11,D12)/6</x:f>
@@ -13529,10 +13537,10 @@
     </x:row>
     <x:row r="23" spans="1:22" customHeight="1">
       <x:c r="A23" s="8" t="s">
-        <x:v>14</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B23" s="8" t="s">
-        <x:v>94</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D23" s="8">
         <x:f>SUM(D11,D12)</x:f>
@@ -13584,7 +13592,7 @@
     </x:row>
     <x:row r="24" spans="2:22" customHeight="1">
       <x:c r="B24" s="9" t="s">
-        <x:v>104</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D24" s="8">
         <x:f>SUM(D11,D12)/2</x:f>
@@ -13642,7 +13650,7 @@
     </x:row>
     <x:row r="26" spans="1:22" customHeight="1">
       <x:c r="A26" s="8" t="s">
-        <x:v>28</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="P26" s="46"/>
       <x:c r="R26" s="47"/>
@@ -13651,13 +13659,13 @@
     </x:row>
     <x:row r="27" spans="1:25" customHeight="1">
       <x:c r="A27" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B27" s="33" t="s">
-        <x:v>106</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C27" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D27" s="35">
         <x:v>4666</x:v>
@@ -13689,29 +13697,29 @@
         <x:v>1.3802083333333333</x:v>
       </x:c>
       <x:c r="M27" s="20" t="s">
-        <x:v>83</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="N27" s="37"/>
       <x:c r="P27" s="46"/>
       <x:c r="R27" s="47"/>
       <x:c r="T27" s="46"/>
       <x:c r="U27" s="3" t="s">
-        <x:v>56</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="V27" s="47"/>
       <x:c r="Y27" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:22" customHeight="1">
       <x:c r="A28" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B28" s="33" t="s">
-        <x:v>126</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C28" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D28" s="35">
         <x:v>4145</x:v>
@@ -13743,31 +13751,31 @@
         <x:v>1.2327560904021133</x:v>
       </x:c>
       <x:c r="M28" s="20" t="s">
-        <x:v>83</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="N28" s="37"/>
       <x:c r="P28" s="46" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="R28" s="47" t="s">
-        <x:v>96</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="T28" s="46" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="V28" s="47" t="s">
-        <x:v>96</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:23" customHeight="1">
       <x:c r="A29" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B29" s="33" t="s">
-        <x:v>19</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C29" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D29" s="35">
         <x:v>741</x:v>
@@ -13799,43 +13807,43 @@
         <x:v>8.6330935251798557</x:v>
       </x:c>
       <x:c r="M29" s="20" t="s">
-        <x:v>83</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="N29" s="37"/>
       <x:c r="P29" s="46" t="s">
-        <x:v>21</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="Q29" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="R29" s="47" t="s">
-        <x:v>21</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="S29" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="T29" s="46" t="s">
-        <x:v>21</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="U29" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="V29" s="47" t="s">
-        <x:v>21</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="W29" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:23" customHeight="1">
       <x:c r="A30" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B30" s="33" t="s">
-        <x:v>108</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C30" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D30" s="35">
         <x:v>437</x:v>
@@ -13867,37 +13875,37 @@
         <x:v>2.3121387283236992</x:v>
       </x:c>
       <x:c r="M30" s="20" t="s">
-        <x:v>83</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="N30" s="37"/>
       <x:c r="P30" s="46" t="s">
-        <x:v>24</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="Q30" s="3" t="s">
-        <x:v>50</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="R30" s="47" t="s">
-        <x:v>17</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="S30" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="T30" s="46" t="s">
-        <x:v>22</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="U30" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="V30" s="47" t="s">
-        <x:v>16</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="W30" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="2:22" customHeight="1">
       <x:c r="B31" s="9" t="s">
-        <x:v>44</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E31" s="1">
         <x:f>SUM(E30,E27:E28)</x:f>
@@ -13924,7 +13932,7 @@
         <x:v>2.8842354800474124</x:v>
       </x:c>
       <x:c r="N31" s="7" t="s">
-        <x:v>101</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="P31" s="46"/>
       <x:c r="R31" s="47"/>
@@ -13933,7 +13941,7 @@
     </x:row>
     <x:row r="32" spans="2:25" customHeight="1">
       <x:c r="B32" s="9" t="s">
-        <x:v>93</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D32" s="8">
         <x:f>SUM(D27:D30)</x:f>
@@ -14014,7 +14022,7 @@
     </x:row>
     <x:row r="33" spans="2:22" customHeight="1">
       <x:c r="B33" s="9" t="s">
-        <x:v>125</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D33" s="8">
         <x:f>SUM(D27:D30)/4</x:f>
@@ -14065,7 +14073,7 @@
     </x:row>
     <x:row r="35" spans="1:22" customHeight="1">
       <x:c r="A35" s="6" t="s">
-        <x:v>37</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="P35" s="46"/>
       <x:c r="R35" s="47"/>
@@ -14074,13 +14082,13 @@
     </x:row>
     <x:row r="36" spans="1:22" customHeight="1">
       <x:c r="A36" s="35" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B36" s="33" t="s">
-        <x:v>106</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C36" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D36" s="35">
         <x:v>4679</x:v>
@@ -14112,7 +14120,7 @@
         <x:v>1.3802083333333333</x:v>
       </x:c>
       <x:c r="M36" s="20" t="s">
-        <x:v>83</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="P36" s="46"/>
       <x:c r="R36" s="47"/>
@@ -14121,13 +14129,13 @@
     </x:row>
     <x:row r="37" spans="1:22" customHeight="1">
       <x:c r="A37" s="35" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B37" s="33" t="s">
-        <x:v>126</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C37" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D37" s="35">
         <x:v>4156</x:v>
@@ -14159,30 +14167,30 @@
         <x:v>1.2327560904021133</x:v>
       </x:c>
       <x:c r="M37" s="20" t="s">
-        <x:v>83</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="P37" s="46" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="R37" s="47" t="s">
-        <x:v>96</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="T37" s="46" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="V37" s="47" t="s">
-        <x:v>96</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:23" customHeight="1">
       <x:c r="A38" s="35" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B38" s="33" t="s">
-        <x:v>19</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C38" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D38" s="35">
         <x:v>760</x:v>
@@ -14214,42 +14222,42 @@
         <x:v>8.5714285714285712</x:v>
       </x:c>
       <x:c r="M38" s="20" t="s">
-        <x:v>83</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="P38" s="46" t="s">
-        <x:v>21</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="Q38" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="R38" s="47" t="s">
-        <x:v>21</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="S38" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="T38" s="46" t="s">
-        <x:v>21</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="U38" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="V38" s="47" t="s">
-        <x:v>21</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="W38" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:23" customHeight="1">
       <x:c r="A39" s="35" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B39" s="33" t="s">
-        <x:v>108</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C39" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D39" s="35">
         <x:v>553</x:v>
@@ -14281,36 +14289,36 @@
         <x:v>3.8461538461538463</x:v>
       </x:c>
       <x:c r="M39" s="20" t="s">
-        <x:v>83</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="P39" s="46" t="s">
-        <x:v>24</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="Q39" s="3" t="s">
-        <x:v>50</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="R39" s="47" t="s">
-        <x:v>17</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="S39" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="T39" s="46" t="s">
-        <x:v>22</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="U39" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="V39" s="47" t="s">
-        <x:v>16</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="W39" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="2:22" customHeight="1">
       <x:c r="B40" s="9" t="s">
-        <x:v>44</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E40" s="8">
         <x:f>SUM(E39,E36:E37)</x:f>
@@ -14343,7 +14351,7 @@
     </x:row>
     <x:row r="41" spans="2:25" customHeight="1">
       <x:c r="B41" s="9" t="s">
-        <x:v>93</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D41" s="6">
         <x:f>SUM(D36:D39)</x:f>
@@ -14424,7 +14432,7 @@
     </x:row>
     <x:row r="42" spans="2:22" customHeight="1">
       <x:c r="B42" s="9" t="s">
-        <x:v>125</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D42" s="6">
         <x:f>SUM(D36:D39)/4</x:f>
@@ -14475,7 +14483,7 @@
     </x:row>
     <x:row r="44" spans="1:22" customHeight="1">
       <x:c r="A44" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="P44" s="46"/>
       <x:c r="R44" s="47"/>
@@ -14484,13 +14492,13 @@
     </x:row>
     <x:row r="45" spans="1:22" customHeight="1">
       <x:c r="A45" s="35" t="s">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B45" s="33" t="s">
-        <x:v>51</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C45" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D45" s="35">
         <x:v>496</x:v>
@@ -14522,7 +14530,7 @@
         <x:v>4.0114613180515759</x:v>
       </x:c>
       <x:c r="M45" s="20" t="s">
-        <x:v>72</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="P45" s="46"/>
       <x:c r="R45" s="47"/>
@@ -14531,13 +14539,13 @@
     </x:row>
     <x:row r="46" spans="1:22" customHeight="1">
       <x:c r="A46" s="35" t="s">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B46" s="33" t="s">
-        <x:v>106</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C46" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D46" s="35">
         <x:v>4697</x:v>
@@ -14569,7 +14577,7 @@
         <x:v>1.3964313421256789</x:v>
       </x:c>
       <x:c r="M46" s="20" t="s">
-        <x:v>72</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="P46" s="46"/>
       <x:c r="R46" s="47"/>
@@ -14578,13 +14586,13 @@
     </x:row>
     <x:row r="47" spans="1:22" customHeight="1">
       <x:c r="A47" s="35" t="s">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B47" s="33" t="s">
-        <x:v>126</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C47" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D47" s="35">
         <x:v>4172</x:v>
@@ -14616,30 +14624,30 @@
         <x:v>1.2580456407255705</x:v>
       </x:c>
       <x:c r="M47" s="20" t="s">
-        <x:v>72</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="P47" s="46" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="R47" s="47" t="s">
-        <x:v>96</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="T47" s="46" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="V47" s="47" t="s">
-        <x:v>96</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:23" customHeight="1">
       <x:c r="A48" s="35" t="s">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B48" s="33" t="s">
-        <x:v>19</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C48" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D48" s="35">
         <x:v>781</x:v>
@@ -14671,42 +14679,42 @@
         <x:v>8.7058823529411757</x:v>
       </x:c>
       <x:c r="M48" s="20" t="s">
-        <x:v>72</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="P48" s="46" t="s">
-        <x:v>21</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="Q48" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="R48" s="47" t="s">
-        <x:v>21</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="S48" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="T48" s="46" t="s">
-        <x:v>21</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="U48" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="V48" s="47" t="s">
-        <x:v>21</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="W48" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:23" customHeight="1">
       <x:c r="A49" s="35" t="s">
-        <x:v>0</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B49" s="33" t="s">
-        <x:v>108</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C49" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D49" s="35">
         <x:v>598</x:v>
@@ -14738,36 +14746,36 @@
         <x:v>5.1470588235294112</x:v>
       </x:c>
       <x:c r="M49" s="20" t="s">
-        <x:v>72</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="P49" s="46" t="s">
-        <x:v>24</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="Q49" s="3" t="s">
-        <x:v>50</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="R49" s="47" t="s">
-        <x:v>17</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="S49" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="T49" s="46" t="s">
-        <x:v>22</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="U49" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="V49" s="47" t="s">
-        <x:v>16</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="W49" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="2:22" customHeight="1">
       <x:c r="B50" s="9" t="s">
-        <x:v>44</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E50" s="8">
         <x:f>SUM(E49,E45:E47)</x:f>
@@ -14800,7 +14808,7 @@
     </x:row>
     <x:row r="51" spans="2:25" customHeight="1">
       <x:c r="B51" s="9" t="s">
-        <x:v>93</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D51" s="5">
         <x:f>SUM(D45:D49)</x:f>
@@ -14881,7 +14889,7 @@
     </x:row>
     <x:row r="52" spans="2:22" customHeight="1">
       <x:c r="B52" s="9" t="s">
-        <x:v>125</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D52" s="5">
         <x:f>SUM(D45:D49)/5</x:f>
@@ -14933,7 +14941,7 @@
     </x:row>
     <x:row r="54" spans="1:22" customHeight="1">
       <x:c r="A54" s="5" t="s">
-        <x:v>40</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="P54" s="46"/>
       <x:c r="R54" s="47"/>
@@ -14942,13 +14950,13 @@
     </x:row>
     <x:row r="55" spans="1:22" customHeight="1">
       <x:c r="A55" s="35" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B55" s="33" t="s">
-        <x:v>51</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C55" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D55" s="35">
         <x:v>567</x:v>
@@ -14980,7 +14988,7 @@
         <x:v>4.5801526717557248</x:v>
       </x:c>
       <x:c r="M55" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="P55" s="46"/>
       <x:c r="R55" s="47"/>
@@ -14989,13 +14997,13 @@
     </x:row>
     <x:row r="56" spans="1:22" customHeight="1">
       <x:c r="A56" s="35" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B56" s="33" t="s">
-        <x:v>108</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C56" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D56" s="35">
         <x:v>599</x:v>
@@ -15027,7 +15035,7 @@
         <x:v>5.1470588235294112</x:v>
       </x:c>
       <x:c r="M56" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="P56" s="46"/>
       <x:c r="R56" s="47"/>
@@ -15036,13 +15044,13 @@
     </x:row>
     <x:row r="57" spans="1:22" customHeight="1">
       <x:c r="A57" s="35" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B57" s="33" t="s">
-        <x:v>19</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C57" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D57" s="35">
         <x:v>784</x:v>
@@ -15074,30 +15082,30 @@
         <x:v>8.9411764705882355</x:v>
       </x:c>
       <x:c r="M57" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="P57" s="46" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="R57" s="47" t="s">
-        <x:v>96</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="T57" s="46" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="V57" s="47" t="s">
-        <x:v>96</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:23" customHeight="1">
       <x:c r="A58" s="35" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B58" s="33" t="s">
-        <x:v>126</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C58" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D58" s="35">
         <x:v>4175</x:v>
@@ -15129,42 +15137,42 @@
         <x:v>1.2562080046742623</x:v>
       </x:c>
       <x:c r="M58" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="P58" s="46" t="s">
-        <x:v>21</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="Q58" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="R58" s="47" t="s">
-        <x:v>21</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="S58" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="T58" s="46" t="s">
-        <x:v>21</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="U58" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="V58" s="47" t="s">
-        <x:v>21</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="W58" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:23" customHeight="1">
       <x:c r="A59" s="35" t="s">
-        <x:v>8</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B59" s="33" t="s">
-        <x:v>106</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C59" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D59" s="35">
         <x:v>4700</x:v>
@@ -15196,36 +15204,36 @@
         <x:v>1.3964313421256789</x:v>
       </x:c>
       <x:c r="M59" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="P59" s="46" t="s">
-        <x:v>24</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="Q59" s="3" t="s">
-        <x:v>50</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="R59" s="47" t="s">
-        <x:v>17</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="S59" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="T59" s="46" t="s">
-        <x:v>22</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="U59" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="V59" s="47" t="s">
-        <x:v>16</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="W59" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="2:22" customHeight="1">
       <x:c r="B60" s="9" t="s">
-        <x:v>44</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E60" s="8">
         <x:f>SUM(E55:E56,E58:E59)</x:f>
@@ -15258,7 +15266,7 @@
     </x:row>
     <x:row r="61" spans="2:25" customHeight="1">
       <x:c r="B61" s="9" t="s">
-        <x:v>93</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D61" s="5">
         <x:f>SUM(D55:D59)</x:f>
@@ -15339,7 +15347,7 @@
     </x:row>
     <x:row r="62" spans="2:22" customHeight="1">
       <x:c r="B62" s="9" t="s">
-        <x:v>125</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D62" s="5">
         <x:f>SUM(D55:D59)/5</x:f>
@@ -15391,7 +15399,7 @@
     </x:row>
     <x:row r="64" spans="1:22" customHeight="1">
       <x:c r="A64" s="4" t="s">
-        <x:v>34</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="P64" s="46"/>
       <x:c r="R64" s="47"/>
@@ -15400,13 +15408,13 @@
     </x:row>
     <x:row r="65" spans="1:22" customHeight="1">
       <x:c r="A65" s="35" t="s">
-        <x:v>124</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B65" s="33" t="s">
-        <x:v>51</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C65" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D65" s="35">
         <x:v>686</x:v>
@@ -15438,7 +15446,7 @@
         <x:v>4.5356371490280782</x:v>
       </x:c>
       <x:c r="M65" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N65" s="45"/>
       <x:c r="P65" s="46"/>
@@ -15448,13 +15456,13 @@
     </x:row>
     <x:row r="66" spans="1:22" customHeight="1">
       <x:c r="A66" s="35" t="s">
-        <x:v>124</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B66" s="33" t="s">
-        <x:v>108</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C66" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D66" s="35">
         <x:v>624</x:v>
@@ -15486,7 +15494,7 @@
         <x:v>5.3527980535279802</x:v>
       </x:c>
       <x:c r="M66" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N66" s="45"/>
       <x:c r="P66" s="46"/>
@@ -15496,13 +15504,13 @@
     </x:row>
     <x:row r="67" spans="1:22" customHeight="1">
       <x:c r="A67" s="35" t="s">
-        <x:v>124</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B67" s="33" t="s">
-        <x:v>19</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C67" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D67" s="35">
         <x:v>810</x:v>
@@ -15534,7 +15542,7 @@
         <x:v>9.1549295774647899</x:v>
       </x:c>
       <x:c r="M67" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N67" s="45"/>
       <x:c r="P67" s="46"/>
@@ -15544,13 +15552,13 @@
     </x:row>
     <x:row r="68" spans="1:22" customHeight="1">
       <x:c r="A68" s="35" t="s">
-        <x:v>124</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B68" s="33" t="s">
-        <x:v>126</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C68" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D68" s="35">
         <x:v>4192</x:v>
@@ -15582,31 +15590,31 @@
         <x:v>1.3146362839614372</x:v>
       </x:c>
       <x:c r="M68" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N68" s="45"/>
       <x:c r="P68" s="46" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="R68" s="47" t="s">
-        <x:v>96</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="T68" s="46" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="V68" s="47" t="s">
-        <x:v>96</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:23" customHeight="1">
       <x:c r="A69" s="35" t="s">
-        <x:v>124</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B69" s="33" t="s">
-        <x:v>106</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C69" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D69" s="35">
         <x:v>4712</x:v>
@@ -15638,43 +15646,43 @@
         <x:v>1.4200877872450297</x:v>
       </x:c>
       <x:c r="M69" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N69" s="45"/>
       <x:c r="P69" s="46" t="s">
-        <x:v>21</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="Q69" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="R69" s="47" t="s">
-        <x:v>21</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="S69" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="T69" s="46" t="s">
-        <x:v>21</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="U69" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="V69" s="47" t="s">
-        <x:v>21</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="W69" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:23" customHeight="1">
       <x:c r="A70" s="35" t="s">
-        <x:v>124</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B70" s="33" t="s">
-        <x:v>111</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C70" s="34" t="s">
-        <x:v>60</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D70" s="35">
         <x:v>739</x:v>
@@ -15706,37 +15714,37 @@
         <x:v>1.6216216216216217</x:v>
       </x:c>
       <x:c r="M70" s="20" t="s">
-        <x:v>87</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N70" s="37"/>
       <x:c r="P70" s="46" t="s">
-        <x:v>24</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="Q70" s="3" t="s">
-        <x:v>50</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="R70" s="47" t="s">
-        <x:v>17</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="S70" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="T70" s="46" t="s">
-        <x:v>22</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="U70" s="3" t="s">
-        <x:v>47</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="V70" s="47" t="s">
-        <x:v>16</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="W70" s="3" t="s">
-        <x:v>15</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="2:22" customHeight="1">
       <x:c r="B71" s="9" t="s">
-        <x:v>44</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E71" s="8">
         <x:f>SUM(E68:E70,E65:E66)</x:f>
@@ -15769,7 +15777,7 @@
     </x:row>
     <x:row r="72" spans="2:25" customHeight="1">
       <x:c r="B72" s="9" t="s">
-        <x:v>93</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D72" s="4">
         <x:f>SUM(D65:D70)</x:f>
@@ -15850,7 +15858,7 @@
     </x:row>
     <x:row r="73" spans="2:14" customHeight="1">
       <x:c r="B73" s="9" t="s">
-        <x:v>125</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D73" s="4">
         <x:f>SUM(D65:D70)/6</x:f>
@@ -15917,189 +15925,136 @@
     </x:row>
     <x:row r="75" spans="1:19" customHeight="1">
       <x:c r="A75" s="12" t="s">
-        <x:v>42</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B75" s="11" t="s">
-        <x:v>43</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C75" s="12" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D75" s="12" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E75" s="12" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="F75" s="12" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="G75" s="12" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H75" s="12" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="I75" s="12" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="J75" s="12" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="D75" s="12" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="E75" s="12" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F75" s="12" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G75" s="12" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="H75" s="12" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="I75" s="12" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="J75" s="12" t="s">
-        <x:v>58</x:v>
-      </x:c>
       <x:c r="K75" s="13" t="s">
-        <x:v>68</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="L75" s="13" t="s">
-        <x:v>82</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="M75" s="14" t="s">
-        <x:v>31</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="N75" s="15" t="s">
-        <x:v>62</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="O75" s="53"/>
       <x:c r="P75" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="Q75" s="2"/>
       <x:c r="R75" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="S75" s="2"/>
     </x:row>
     <x:row r="76" spans="1:19" customHeight="1">
-      <x:c r="A76" s="16" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="B76" s="16" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D76" s="16">
-        <x:v>25000</x:v>
-      </x:c>
-      <x:c r="E76" s="16" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="F76" s="16" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="G76" s="16">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="H76" s="16">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I76" s="16">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J76" s="16">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K76" s="16" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="L76" s="16" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="A76" s="16"/>
+      <x:c r="B76" s="16"/>
+      <x:c r="D76" s="16"/>
+      <x:c r="E76" s="16"/>
+      <x:c r="F76" s="16"/>
+      <x:c r="G76" s="16"/>
+      <x:c r="H76" s="16"/>
+      <x:c r="I76" s="16"/>
+      <x:c r="J76" s="16"/>
+      <x:c r="K76" s="16"/>
+      <x:c r="L76" s="16"/>
       <x:c r="N76" s="2"/>
       <x:c r="O76" s="53"/>
       <x:c r="P76" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="Q76" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="R76" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="S76" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="77" spans="1:19" customHeight="1">
-      <x:c r="A77" s="16" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="B77" s="16" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="D77" s="16">
-        <x:v>36000</x:v>
-      </x:c>
-      <x:c r="E77" s="16" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="F77" s="16" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="G77" s="16">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="H77" s="16">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I77" s="16">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J77" s="16">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K77" s="19" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="L77" s="16" t="s">
-        <x:v>76</x:v>
-      </x:c>
+        <x:v>123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="2:19" customHeight="1">
+      <x:c r="B77" s="16"/>
+      <x:c r="D77" s="16"/>
+      <x:c r="E77" s="16"/>
+      <x:c r="F77" s="16"/>
+      <x:c r="G77" s="16"/>
+      <x:c r="H77" s="16"/>
+      <x:c r="I77" s="16"/>
+      <x:c r="J77" s="16"/>
+      <x:c r="K77" s="19"/>
+      <x:c r="L77" s="16"/>
       <x:c r="N77" s="2"/>
       <x:c r="O77" s="53"/>
       <x:c r="P77" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="Q77" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="R77" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="S77" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:25" customHeight="1">
       <x:c r="A78" s="16" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="B78" s="16" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D78" s="16">
-        <x:v>28000</x:v>
-      </x:c>
-      <x:c r="E78" s="16" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="F78" s="16" t="s">
-        <x:v>76</x:v>
-      </x:c>
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B78" s="16"/>
+      <x:c r="D78" s="16"/>
+      <x:c r="E78" s="16"/>
+      <x:c r="F78" s="16"/>
       <x:c r="G78" s="16">
-        <x:v>56</x:v>
+        <x:f>AVERAGE(G84:G86,G80:G82)</x:f>
+        <x:v>134.33333333333334</x:v>
       </x:c>
       <x:c r="H78" s="16">
-        <x:v>0</x:v>
+        <x:f>AVERAGE(H84:H86,H80:H82)</x:f>
+        <x:v>0.5</x:v>
       </x:c>
       <x:c r="I78" s="16">
-        <x:v>0</x:v>
+        <x:f>AVERAGE(I84:I86,I80:I82)</x:f>
+        <x:v>0.33333333333333331</x:v>
       </x:c>
       <x:c r="J78" s="16">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K78" s="19" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="L78" s="16" t="s">
-        <x:v>76</x:v>
-      </x:c>
+        <x:f>AVERAGE(J84:J86,J80:J82)</x:f>
+        <x:v>0.66666666666666663</x:v>
+      </x:c>
+      <x:c r="K78" s="19"/>
+      <x:c r="L78" s="16"/>
       <x:c r="N78" s="2"/>
       <x:c r="O78" s="53"/>
       <x:c r="P78" s="2">
@@ -16124,48 +16079,26 @@
       </x:c>
     </x:row>
     <x:row r="79" spans="1:15" customHeight="1">
-      <x:c r="A79" s="16" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="B79" s="16" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="D79" s="16">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E79" s="16" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="F79" s="16" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="G79" s="16">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="H79" s="16">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="I79" s="16">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="J79" s="16">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="K79" s="19" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="L79" s="16" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="A79" s="16"/>
+      <x:c r="B79" s="16"/>
+      <x:c r="D79" s="16"/>
+      <x:c r="E79" s="16"/>
+      <x:c r="F79" s="16"/>
+      <x:c r="G79" s="16"/>
+      <x:c r="H79" s="16"/>
+      <x:c r="I79" s="16"/>
+      <x:c r="J79" s="16"/>
+      <x:c r="K79" s="19"/>
+      <x:c r="L79" s="16"/>
       <x:c r="N79" s="2"/>
       <x:c r="O79" s="53"/>
     </x:row>
     <x:row r="80" spans="1:15" customHeight="1">
       <x:c r="A80" s="16" t="s">
-        <x:v>90</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B80" s="16" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D80" s="16">
         <x:v>39000</x:v>
@@ -16174,7 +16107,7 @@
         <x:v>30000</x:v>
       </x:c>
       <x:c r="F80" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G80" s="16">
         <x:v>136</x:v>
@@ -16193,17 +16126,17 @@
         <x:v>0.45999999999999996</x:v>
       </x:c>
       <x:c r="L80" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N80" s="2"/>
       <x:c r="O80" s="53"/>
     </x:row>
     <x:row r="81" spans="1:15" customHeight="1">
       <x:c r="A81" s="16" t="s">
-        <x:v>90</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B81" s="16" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D81" s="16">
         <x:v>20000</x:v>
@@ -16212,7 +16145,7 @@
         <x:v>19000</x:v>
       </x:c>
       <x:c r="F81" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G81" s="16">
         <x:v>15</x:v>
@@ -16231,17 +16164,17 @@
         <x:v>0.078947368421052627</x:v>
       </x:c>
       <x:c r="L81" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N81" s="2"/>
       <x:c r="O81" s="53"/>
     </x:row>
     <x:row r="82" spans="1:15" customHeight="1">
       <x:c r="A82" s="16" t="s">
-        <x:v>53</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B82" s="16" t="s">
-        <x:v>105</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D82" s="16">
         <x:v>18000</x:v>
@@ -16250,7 +16183,7 @@
         <x:v>15000</x:v>
       </x:c>
       <x:c r="F82" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G82" s="29">
         <x:v>612</x:v>
@@ -16269,17 +16202,17 @@
         <x:v>4.0800000000000001</x:v>
       </x:c>
       <x:c r="L82" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N82" s="2"/>
       <x:c r="O82" s="53"/>
     </x:row>
     <x:row r="83" spans="1:15" customHeight="1">
       <x:c r="A83" s="16" t="s">
-        <x:v>102</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B83" s="16" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D83" s="16">
         <x:v>7323</x:v>
@@ -16288,7 +16221,7 @@
         <x:v>2863</x:v>
       </x:c>
       <x:c r="F83" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G83" s="16">
         <x:v>209</x:v>
@@ -16307,17 +16240,17 @@
         <x:v>18.721620677610897</x:v>
       </x:c>
       <x:c r="L83" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N83" s="2"/>
       <x:c r="O83" s="53"/>
     </x:row>
     <x:row r="84" spans="1:15" customHeight="1">
       <x:c r="A84" s="16" t="s">
-        <x:v>92</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B84" s="16" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D84" s="16">
         <x:v>1738</x:v>
@@ -16326,7 +16259,7 @@
         <x:v>1436</x:v>
       </x:c>
       <x:c r="F84" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G84" s="16">
         <x:v>25</x:v>
@@ -16345,17 +16278,17 @@
         <x:v>2.01949860724234</x:v>
       </x:c>
       <x:c r="L84" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N84" s="2"/>
       <x:c r="O84" s="53"/>
     </x:row>
     <x:row r="85" spans="1:21" customHeight="1">
       <x:c r="A85" s="16" t="s">
-        <x:v>99</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B85" s="16" t="s">
-        <x:v>32</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D85" s="29">
         <x:v>364</x:v>
@@ -16394,10 +16327,10 @@
     </x:row>
     <x:row r="86" spans="1:21" customHeight="1">
       <x:c r="A86" s="16" t="s">
-        <x:v>107</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B86" s="16" t="s">
-        <x:v>98</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D86" s="16">
         <x:v>343</x:v>
@@ -16456,10 +16389,10 @@
     </x:row>
     <x:row r="88" spans="1:21" customHeight="1">
       <x:c r="A88" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B88" s="9" t="s">
-        <x:v>80</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E88" s="8">
         <x:f>SUM(E80:E86)</x:f>
@@ -16492,10 +16425,10 @@
     </x:row>
     <x:row r="89" spans="1:21" customHeight="1">
       <x:c r="A89" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B89" s="9" t="s">
-        <x:v>71</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E89" s="8">
         <x:f>SUM(E80:E82,E84:E86)</x:f>
@@ -16548,13 +16481,13 @@
     </x:row>
     <x:row r="91" spans="1:21" customHeight="1">
       <x:c r="A91" s="35" t="s">
-        <x:v>117</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B91" s="50" t="s">
-        <x:v>106</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C91" s="51" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D91" s="49">
         <x:v>4783</x:v>
@@ -16586,7 +16519,7 @@
         <x:v>1.5541264737406217</x:v>
       </x:c>
       <x:c r="M91" s="20" t="s">
-        <x:v>70</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N91" s="2"/>
       <x:c r="O91" s="53"/>
@@ -16596,13 +16529,13 @@
     </x:row>
     <x:row r="92" spans="1:21" customHeight="1">
       <x:c r="A92" s="35" t="s">
-        <x:v>117</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B92" s="33" t="s">
-        <x:v>126</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C92" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D92" s="35">
         <x:v>4252</x:v>
@@ -16634,7 +16567,7 @@
         <x:v>1.3892908827785817</x:v>
       </x:c>
       <x:c r="M92" s="20" t="s">
-        <x:v>70</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N92" s="2"/>
       <x:c r="O92" s="53"/>
@@ -16644,13 +16577,13 @@
     </x:row>
     <x:row r="93" spans="1:21" customHeight="1">
       <x:c r="A93" s="35" t="s">
-        <x:v>117</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B93" s="33" t="s">
-        <x:v>19</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C93" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D93" s="35">
         <x:v>872</x:v>
@@ -16682,7 +16615,7 @@
         <x:v>10.16548463356974</x:v>
       </x:c>
       <x:c r="M93" s="20" t="s">
-        <x:v>70</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N93" s="2"/>
       <x:c r="O93" s="53"/>
@@ -16692,13 +16625,13 @@
     </x:row>
     <x:row r="94" spans="1:21" customHeight="1">
       <x:c r="A94" s="35" t="s">
-        <x:v>117</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B94" s="33" t="s">
-        <x:v>108</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C94" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D94" s="35">
         <x:v>681</x:v>
@@ -16730,7 +16663,7 @@
         <x:v>6.2068965517241379</x:v>
       </x:c>
       <x:c r="M94" s="20" t="s">
-        <x:v>70</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N94" s="2"/>
       <x:c r="O94" s="53"/>
@@ -16740,13 +16673,13 @@
     </x:row>
     <x:row r="95" spans="1:21" customHeight="1">
       <x:c r="A95" s="35" t="s">
-        <x:v>117</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B95" s="33" t="s">
-        <x:v>51</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C95" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D95" s="35">
         <x:v>761</x:v>
@@ -16778,7 +16711,7 @@
         <x:v>5.5327868852459012</x:v>
       </x:c>
       <x:c r="M95" s="20" t="s">
-        <x:v>70</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N95" s="2"/>
       <x:c r="O95" s="53"/>
@@ -16788,13 +16721,13 @@
     </x:row>
     <x:row r="96" spans="1:21" customHeight="1">
       <x:c r="A96" s="35" t="s">
-        <x:v>117</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B96" s="33" t="s">
-        <x:v>111</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C96" s="34" t="s">
-        <x:v>60</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D96" s="35">
         <x:v>3296</x:v>
@@ -16826,7 +16759,7 @@
         <x:v>1.2786761940579165</x:v>
       </x:c>
       <x:c r="M96" s="20" t="s">
-        <x:v>70</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N96" s="2"/>
       <x:c r="O96" s="53"/>
@@ -16836,13 +16769,13 @@
     </x:row>
     <x:row r="97" spans="1:21" customHeight="1">
       <x:c r="A97" s="35" t="s">
-        <x:v>117</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B97" s="33" t="s">
-        <x:v>52</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C97" s="34" t="s">
-        <x:v>60</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D97" s="35">
         <x:v>706</x:v>
@@ -16874,7 +16807,7 @@
         <x:v>5.3497942386831276</x:v>
       </x:c>
       <x:c r="M97" s="20" t="s">
-        <x:v>70</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N97" s="2"/>
       <x:c r="O97" s="53"/>
@@ -16884,13 +16817,13 @@
     </x:row>
     <x:row r="98" spans="1:21" customHeight="1">
       <x:c r="A98" s="35" t="s">
-        <x:v>117</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B98" s="33" t="s">
-        <x:v>114</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C98" s="34" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D98" s="35">
         <x:v>1396</x:v>
@@ -16922,7 +16855,7 @@
         <x:v>3.3834586466165413</x:v>
       </x:c>
       <x:c r="M98" s="20" t="s">
-        <x:v>70</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N98" s="2"/>
       <x:c r="O98" s="53"/>
@@ -16932,13 +16865,13 @@
     </x:row>
     <x:row r="99" spans="1:19" customHeight="1">
       <x:c r="A99" s="35" t="s">
-        <x:v>117</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B99" s="33" t="s">
-        <x:v>27</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C99" s="34" t="s">
-        <x:v>60</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D99" s="35">
         <x:v>956</x:v>
@@ -16970,7 +16903,7 @@
         <x:v>4.4182621502209134</x:v>
       </x:c>
       <x:c r="M99" s="20" t="s">
-        <x:v>70</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N99" s="2"/>
       <x:c r="O99" s="53"/>
@@ -16979,13 +16912,13 @@
     </x:row>
     <x:row r="100" spans="1:19" customHeight="1">
       <x:c r="A100" s="35" t="s">
-        <x:v>117</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B100" s="33" t="s">
-        <x:v>33</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C100" s="34" t="s">
-        <x:v>64</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D100" s="35">
         <x:v>1832</x:v>
@@ -17017,7 +16950,7 @@
         <x:v>1.8436109345200253</x:v>
       </x:c>
       <x:c r="M100" s="20" t="s">
-        <x:v>70</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="N100" s="2"/>
       <x:c r="O100" s="53"/>
@@ -17045,10 +16978,10 @@
     </x:row>
     <x:row r="102" spans="1:21" customHeight="1">
       <x:c r="A102" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B102" s="9" t="s">
-        <x:v>61</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E102" s="8">
         <x:f>SUM(E91:E100)</x:f>
@@ -17081,10 +17014,10 @@
     </x:row>
     <x:row r="103" spans="1:15" customHeight="1">
       <x:c r="A103" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B103" s="9" t="s">
-        <x:v>59</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E103" s="8">
         <x:f>SUM(E91:E92,E94:E100)</x:f>
@@ -17129,15 +17062,35 @@
       <x:c r="N104" s="53"/>
       <x:c r="O104" s="53"/>
     </x:row>
+    <x:row r="106" spans="1:12" customHeight="1">
+      <x:c r="A106" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B106" s="9" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E106" s="8">
+        <x:f>SUM(E85:E86)</x:f>
+        <x:v>508</x:v>
+      </x:c>
+      <x:c r="F106">
+        <x:f>SUM(F85:F86)</x:f>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="L106" s="8">
+        <x:f>SUM(F85/E85*100)</x:f>
+        <x:v>4.2635658914728678</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:dataValidations count="5">
-    <x:dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C65:C70 C45:C49 C36:C39 C27:C30 C55:C59 C91:C100">
+    <x:dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C91:C100 C55:C59 C27:C30 C36:C39 C45:C49 C65:C70">
       <x:formula1>"후킹형,정보형,흥미형"</x:formula1>
     </x:dataValidation>
-    <x:dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B36:B39 B27:B30">
+    <x:dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B27:B30 B36:B39">
       <x:formula1>"녹용체험 반말ver.,녹용체험 존댓말ver.,젤리 ASMR,쉐이크 ASMR"</x:formula1>
     </x:dataValidation>
-    <x:dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B45:B49 B55:B59">
+    <x:dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B55:B59 B45:B49">
       <x:formula1>"녹용체험 반말ver.,녹용체험 존댓말ver.,젤리 ASMR,쉐이크 ASMR,한동팀장은 근무중"</x:formula1>
     </x:dataValidation>
     <x:dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B65:B70">

--- a/data/한동녹용연구소_인스타그램_인게이지먼트.xlsx
+++ b/data/한동녹용연구소_인스타그램_인게이지먼트.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11865" tabRatio="500" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11865" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="콘텐츠별 인게이지먼트" sheetId="1" r:id="rId4"/>
     <x:sheet name="이전 콘텐츠 인게이지먼트" sheetId="2" r:id="rId5"/>
+    <x:sheet name="이벤트 명단" sheetId="3" r:id="rId6"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'콘텐츠별 인게이지먼트'!$B$1:$B$1000</x:definedName>
@@ -39,81 +40,279 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="131">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="158">
   <x:si>
-    <x:t>평균2</x:t>
+    <x:t>2025.5.17 오후 4시</x:t>
   </x:si>
   <x:si>
-    <x:t>451</x:t>
+    <x:t>효능정보형+캐릭터(1)</x:t>
   </x:si>
   <x:si>
-    <x:t>정보형</x:t>
+    <x:t>2025.5.14 오후 3시</x:t>
   </x:si>
   <x:si>
-    <x:t>반응률</x:t>
+    <x:t>2025.5.23 오후 8시</x:t>
   </x:si>
   <x:si>
-    <x:t>후킹형</x:t>
+    <x:t>2025.5.13 오후 3시</x:t>
   </x:si>
   <x:si>
-    <x:t>437</x:t>
+    <x:t>녹용체험 존댓말ver.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.12 오후 3시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.15 오후 8시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KPI(3배): 7.84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우리가 한 것 전체 평균</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KPI(3배): 14.40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>its_suminology</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sanghee_0731</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6~12인데 9뺌 평균</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jiyeon1201_luv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppo_kki12.07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6~12인데 9뺌 참여율</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹용체험 반말ver.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쉐이크 ASMR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫 업로드 오후 6시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한동팀장은 근무중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>팔로워수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도달된 계정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>콘텐츠명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참여한 계정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>젤리 ASMR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좋아요 유무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업로드 날짜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>태그명수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I._.rae</x:t>
+  </x:si>
+  <x:si>
+    <x:t>soyun10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹녹디어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>j_wa_w</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹용칼슘스틱</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹용체험</x:t>
+  </x:si>
+  <x:si>
+    <x:t>녹용효능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저속노화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쉐이크 홍보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>명함이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이전 총</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(반응률3배)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6~12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이전 총 평균</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6~12 평균</x:t>
+  </x:si>
+  <x:si>
+    <x:t>굿띵챌린지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>팔로워 유무</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yo._.ny</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.13 오후 10시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.16 오전 10시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.16 오후 10시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.20 오후 10시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.22 오전 10시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.21 오후 11시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5/23 금 오후 6시 업로드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.6.5 오전 9시 30분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.13 오전 11시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.19 오후 10시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5/7 오후 7시 20분경 업로드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>첫 업로드 오후 7시 30분 업로드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.12 오후 10시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.5.16 오후 12시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진심환, 진액, 칼슘스틱 등 홍보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기존에비해몇배증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기존에비해몇퍼센트증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아래는 참여율의 평균</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이벤트제외</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이벤트제외평균</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참여율7개모두</x:t>
+  </x:si>
+  <x:si>
+    <x:t>산술평균1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가중평균1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19일꺼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20일꺼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22일꺼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가중평균4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이벤트뺀것</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025년</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가중평균3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7개 전부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가중평균2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>산술평균2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23일꺼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>산술평균4</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">11~12 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>산술평균3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21일꺼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>444</x:t>
+  </x:si>
+  <x:si>
+    <x:t>438</x:t>
   </x:si>
   <x:si>
     <x:t>참여율</x:t>
   </x:si>
   <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공유</x:t>
-  </x:si>
-  <x:si>
-    <x:t>반응율</x:t>
-  </x:si>
-  <x:si>
-    <x:t>흥미형</x:t>
-  </x:si>
-  <x:si>
     <x:t>댓글</x:t>
   </x:si>
   <x:si>
-    <x:t>9개</x:t>
-  </x:si>
-  <x:si>
     <x:t>재생수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좋아요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>438</x:t>
-  </x:si>
-  <x:si>
-    <x:t>참여률</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>443</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>440</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6개</x:t>
   </x:si>
   <x:si>
     <x:t>저장</x:t>
@@ -122,316 +321,199 @@
     <x:t>날짜</x:t>
   </x:si>
   <x:si>
+    <x:t>구분</x:t>
+  </x:si>
+  <x:si>
     <x:t>439</x:t>
+  </x:si>
+  <x:si>
+    <x:t>440</x:t>
+  </x:si>
+  <x:si>
+    <x:t>흥미형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>후킹형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>437</x:t>
+  </x:si>
+  <x:si>
+    <x:t>443</x:t>
+  </x:si>
+  <x:si>
+    <x:t>반응률</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좋아요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보형</x:t>
   </x:si>
   <x:si>
     <x:t>이벤트</x:t>
   </x:si>
   <x:si>
-    <x:t>구분</x:t>
+    <x:t>6개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>451</x:t>
   </x:si>
   <x:si>
     <x:t>-</x:t>
   </x:si>
   <x:si>
-    <x:t>444</x:t>
+    <x:t>조회수</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.5.22 오전 10시</x:t>
+    <x:t>X</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.5.21 오후 11시</x:t>
+    <x:t>O</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.5.16 오전 10시</x:t>
+    <x:t>아이디</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.5.19 오후 10시</x:t>
+    <x:t>2개콘텐츠</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.5.12 오후 10시</x:t>
+    <x:t>이게 진짜 이벤트 제외.</x:t>
   </x:si>
   <x:si>
-    <x:t>첫 업로드 오후 7시 30분 업로드</x:t>
+    <x:t>2025.6.4 오후 3시</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.5.13 오전 11시</x:t>
+    <x:t>2025.5.7 오후 7시</x:t>
   </x:si>
   <x:si>
-    <x:t>5/23 금 오후 6시 업로드</x:t>
+    <x:t>이게 더 높은 이유는 우리가 한 것 이벤트는 제외 안함.</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.5.16 오후 12시</x:t>
+    <x:t>존댓말 ver. 첫 업로드 오후 7시 30분 업로드</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.5.13 오후 10시</x:t>
+    <x:t>2024.03.12</x:t>
   </x:si>
   <x:si>
-    <x:t>진심환, 진액, 칼슘스틱 등 홍보</x:t>
+    <x:t>간기능이상-녹용</x:t>
   </x:si>
   <x:si>
-    <x:t>5/7 오후 7시 20분경 업로드</x:t>
+    <x:t>ASMR NG(2)</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.5.16 오후 10시</x:t>
+    <x:t>2024.03.06</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.5.20 오후 10시</x:t>
+    <x:t>ASMR NG(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KPI(참여율3배)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.05.02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.02.04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.04.30</x:t>
   </x:si>
   <x:si>
     <x:t>베이비페어 홍보</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.02.04</x:t>
+    <x:t>2025.02.17</x:t>
   </x:si>
   <x:si>
-    <x:t>ASMR NG(2)</x:t>
+    <x:t>베이비페어 브이로그</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한동녹용연구소 홍보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.03.20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.01.13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024.04.18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.02.11</x:t>
   </x:si>
   <x:si>
     <x:t>11~12 반응률</x:t>
   </x:si>
   <x:si>
-    <x:t>기존에비해몇배증가</x:t>
+    <x:t>si._.eun_77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6~12 참여율</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11~12 평균</x:t>
+  </x:si>
+  <x:si>
+    <x:t>hyunseo.84</x:t>
   </x:si>
   <x:si>
     <x:t>우리가 한 것 전체</x:t>
   </x:si>
   <x:si>
-    <x:t>6~12 참여율</x:t>
+    <x:t>aer_fdewq</x:t>
   </x:si>
   <x:si>
-    <x:t>한동팀장은 근무중</x:t>
+    <x:t>theone_none</x:t>
   </x:si>
   <x:si>
-    <x:t>2024.05.02</x:t>
+    <x:t>podo.m_m</x:t>
   </x:si>
   <x:si>
-    <x:t>KPI(참여율3배)</x:t>
+    <x:t>yubinee_e</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.02.17</x:t>
+    <x:t>jjeoung90</x:t>
   </x:si>
   <x:si>
-    <x:t>쉐이크 ASMR</x:t>
+    <x:t>나머지 4개 픽</x:t>
   </x:si>
   <x:si>
-    <x:t>한동녹용연구소 홍보</x:t>
+    <x:t>yeeun922</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.02.11</x:t>
+    <x:t>7개</x:t>
   </x:si>
   <x:si>
-    <x:t>2024.03.20</x:t>
+    <x:t>9개</x:t>
   </x:si>
   <x:si>
-    <x:t>베이비페어 브이로그</x:t>
+    <x:t>10개</x:t>
   </x:si>
   <x:si>
-    <x:t>2024.03.12</x:t>
+    <x:t>참여률</x:t>
   </x:si>
   <x:si>
-    <x:t>11~12 평균</x:t>
+    <x:t>평균1</x:t>
   </x:si>
   <x:si>
-    <x:t>2024.03.06</x:t>
+    <x:t>평균2</x:t>
   </x:si>
   <x:si>
-    <x:t>기존에비해몇퍼센트증가</x:t>
+    <x:t>전부</x:t>
   </x:si>
   <x:si>
-    <x:t>2024.04.18</x:t>
+    <x:t>반응율</x:t>
   </x:si>
   <x:si>
-    <x:t>2025.01.13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>첫 업로드 오후 6시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ASMR NG(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹용체험 반말ver.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>간기능이상-녹용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아래는 참여율의 평균</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024.04.30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>존댓말 ver. 첫 업로드 오후 7시 30분 업로드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이게 더 높은 이유는 우리가 한 것 이벤트는 제외 안함.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KPI(3배): 14.40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.5.12 오후 3시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.5.15 오후 8시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이게 진짜 이벤트 제외.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹용체험 존댓말ver.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6~12인데 9뺌 참여율</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.6.4 오후 3시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>효능정보형+캐릭터(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.5.17 오후 4시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.5.23 오후 8시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.5.14 오후 3시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6~12인데 9뺌 평균</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.5.7 오후 7시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우리가 한 것 전체 평균</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.5.13 오후 3시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KPI(3배): 7.84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이벤트제외평균</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이벤트제외</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업로드 날짜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>참여율7개모두</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가중평균1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>명함이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>산술평균1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹녹디어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6~12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19일꺼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>산술평균4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>젤리 ASMR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이전 총</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2개콘테츠</x:t>
-  </x:si>
-  <x:si>
-    <x:t>참여한 계정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가중평균2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21일꺼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>콘텐츠명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(반응률3배)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이전 총 평균</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22일꺼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹용체험</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이벤트뺀것</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹용칼슘스틱</x:t>
-  </x:si>
-  <x:si>
-    <x:t>녹용효능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025년</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쉐이크 홍보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가중평균4</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">11~12 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>가중평균3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>산술평균3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저속노화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20일꺼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6~12 평균</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7개 전부</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도달된 계정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>팔로워수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>산술평균2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23일꺼</x:t>
+    <x:t>446</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -492,6 +574,10 @@
           <hs:strikeoutType val="1"/>
           <hs:strikeoutShape val="solid"/>
           <hs:strikeoutColor rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
         </x:font>
       </mc:Choice>
       <mc:Fallback>
@@ -504,7 +590,7 @@
       </mc:Fallback>
     </mc:AlternateContent>
   </x:fonts>
-  <x:fills count="8">
+  <x:fills count="9">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -545,6 +631,12 @@
       <x:patternFill patternType="solid">
         <x:fgColor rgb="ff000000"/>
         <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffffffff"/>
+        <x:bgColor rgb="ffffffff"/>
       </x:patternFill>
     </x:fill>
   </x:fills>
@@ -684,7 +776,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="56">
+  <x:cellXfs count="59">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -971,6 +1063,15 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellXfs>
@@ -1580,8 +1681,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:O1000"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:pane xSplit="2" ySplit="0" topLeftCell="C10" activePane="topRight" state="frozen"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <x:selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1595,57 +1696,57 @@
   <x:sheetData>
     <x:row r="1" spans="1:14" ht="17.149999999999999">
       <x:c r="A1" s="11" t="s">
-        <x:v>26</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B1" s="12" t="s">
-        <x:v>109</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C1" s="13" t="s">
-        <x:v>29</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D1" s="13" t="s">
-        <x:v>15</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E1" s="13" t="s">
-        <x:v>127</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F1" s="13" t="s">
-        <x:v>106</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G1" s="13" t="s">
-        <x:v>16</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H1" s="13" t="s">
-        <x:v>10</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="I1" s="13" t="s">
-        <x:v>13</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="J1" s="13" t="s">
-        <x:v>25</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="K1" s="14" t="s">
-        <x:v>18</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="L1" s="14" t="s">
-        <x:v>11</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="M1" s="15" t="s">
-        <x:v>128</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="N1" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:15" ht="16.399999999999999">
       <x:c r="A2" s="23" t="s">
-        <x:v>88</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B2" s="18" t="s">
-        <x:v>70</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C2" s="19" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D2" s="17">
         <x:v>4456</x:v>
@@ -1669,30 +1770,30 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="K2" s="20">
-        <x:f t="shared" ref="K2:K58" si="0">SUM((G2+I2+J2+H2)/E2)*100</x:f>
+        <x:f t="shared" ref="K2:K69" si="0">SUM((G2+I2+J2+H2)/E2)*100</x:f>
         <x:v>2.3727006131698212</x:v>
       </x:c>
       <x:c r="L2" s="20">
-        <x:f t="shared" ref="L2:L58" si="1">SUM(F2/E2)*100</x:f>
+        <x:f t="shared" ref="L2:L69" si="1">SUM(F2/E2)*100</x:f>
         <x:v>1.2263396427619302</x:v>
       </x:c>
       <x:c r="M2" s="21" t="s">
-        <x:v>17</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N2" s="22" t="s">
-        <x:v>43</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="O2" s="17"/>
     </x:row>
     <x:row r="3" spans="1:14" ht="16.399999999999999">
       <x:c r="A3" s="23" t="s">
-        <x:v>77</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B3" s="18" t="s">
-        <x:v>70</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C3" s="19" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D3" s="17">
         <x:v>4470</x:v>
@@ -1724,19 +1825,19 @@
         <x:v>1.2263396427619302</x:v>
       </x:c>
       <x:c r="M3" s="21" t="s">
-        <x:v>17</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N3" s="22"/>
     </x:row>
     <x:row r="4" spans="1:14" ht="16.399999999999999">
       <x:c r="A4" s="25" t="s">
-        <x:v>36</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B4" s="18" t="s">
-        <x:v>70</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C4" s="19" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D4" s="17">
         <x:v>4504</x:v>
@@ -1768,19 +1869,19 @@
         <x:v>1.2263396427619302</x:v>
       </x:c>
       <x:c r="M4" s="21" t="s">
-        <x:v>17</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N4" s="22"/>
     </x:row>
     <x:row r="5" spans="1:14" ht="16.399999999999999">
       <x:c r="A5" s="25" t="s">
-        <x:v>36</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B5" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C5" s="19" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D5" s="17">
         <x:v>1141</x:v>
@@ -1812,21 +1913,21 @@
         <x:v>1.3844515441959531</x:v>
       </x:c>
       <x:c r="M5" s="21" t="s">
-        <x:v>17</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N5" s="22" t="s">
-        <x:v>74</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:14" ht="16.399999999999999">
       <x:c r="A6" s="17" t="s">
-        <x:v>38</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B6" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C6" s="19" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D6" s="17">
         <x:v>2587</x:v>
@@ -1858,19 +1959,19 @@
         <x:v>1.3507219375873312</x:v>
       </x:c>
       <x:c r="M6" s="21" t="s">
-        <x:v>27</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="N6" s="22"/>
     </x:row>
     <x:row r="7" spans="1:14" ht="16.399999999999999">
       <x:c r="A7" s="17" t="s">
-        <x:v>38</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B7" s="18" t="s">
-        <x:v>70</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C7" s="19" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D7" s="17">
         <x:v>4520</x:v>
@@ -1902,19 +2003,19 @@
         <x:v>1.248671625929862</x:v>
       </x:c>
       <x:c r="M7" s="21" t="s">
-        <x:v>27</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="N7" s="22"/>
     </x:row>
     <x:row r="8" spans="1:14" ht="16.399999999999999">
       <x:c r="A8" s="25" t="s">
-        <x:v>90</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B8" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C8" s="19" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D8" s="17">
         <x:v>2813</x:v>
@@ -1946,19 +2047,19 @@
         <x:v>1.3852813852813852</x:v>
       </x:c>
       <x:c r="M8" s="21" t="s">
-        <x:v>17</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N8" s="22"/>
     </x:row>
     <x:row r="9" spans="1:14" ht="16.399999999999999">
       <x:c r="A9" s="25" t="s">
-        <x:v>41</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B9" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C9" s="19" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D9" s="17">
         <x:v>3735</x:v>
@@ -1990,19 +2091,19 @@
         <x:v>1.1958629605688429</x:v>
       </x:c>
       <x:c r="M9" s="21" t="s">
-        <x:v>17</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N9" s="22"/>
     </x:row>
     <x:row r="10" spans="1:14" ht="16.399999999999999">
       <x:c r="A10" s="25" t="s">
-        <x:v>86</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B10" s="18" t="s">
-        <x:v>70</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C10" s="19" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D10" s="17">
         <x:v>4558</x:v>
@@ -2034,19 +2135,19 @@
         <x:v>1.2624934245134138</x:v>
       </x:c>
       <x:c r="M10" s="21" t="s">
-        <x:v>17</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N10" s="22"/>
     </x:row>
     <x:row r="11" spans="1:14" ht="16.399999999999999">
       <x:c r="A11" s="25" t="s">
-        <x:v>86</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B11" s="18" t="s">
-        <x:v>80</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="19" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D11" s="17">
         <x:v>3872</x:v>
@@ -2078,19 +2179,19 @@
         <x:v>1.1558887847547641</x:v>
       </x:c>
       <x:c r="M11" s="21" t="s">
-        <x:v>17</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N11" s="22"/>
     </x:row>
     <x:row r="12" spans="1:14" ht="16.399999999999999">
       <x:c r="A12" s="33" t="s">
-        <x:v>78</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B12" s="34" t="s">
-        <x:v>70</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C12" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D12" s="36">
         <x:v>4584</x:v>
@@ -2122,19 +2223,19 @@
         <x:v>1.3368283093053734</x:v>
       </x:c>
       <x:c r="M12" s="21" t="s">
-        <x:v>5</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N12" s="38"/>
     </x:row>
     <x:row r="13" spans="1:14" ht="16.399999999999999">
       <x:c r="A13" s="33" t="s">
-        <x:v>78</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B13" s="34" t="s">
-        <x:v>80</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C13" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D13" s="36">
         <x:v>4044</x:v>
@@ -2166,19 +2267,19 @@
         <x:v>1.1887072808320951</x:v>
       </x:c>
       <x:c r="M13" s="21" t="s">
-        <x:v>5</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N13" s="38"/>
     </x:row>
     <x:row r="14" spans="1:14" ht="16.399999999999999">
       <x:c r="A14" s="33" t="s">
-        <x:v>78</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B14" s="34" t="s">
-        <x:v>103</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C14" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D14" s="36">
         <x:v>75</x:v>
@@ -2210,21 +2311,21 @@
         <x:v>66.666666666666657</x:v>
       </x:c>
       <x:c r="M14" s="21" t="s">
-        <x:v>5</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N14" s="39" t="s">
-        <x:v>37</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:14" ht="16.399999999999999">
       <x:c r="A15" s="33" t="s">
-        <x:v>40</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B15" s="34" t="s">
-        <x:v>103</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C15" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D15" s="36">
         <x:v>503</x:v>
@@ -2256,19 +2357,19 @@
         <x:v>8.4690553745928341</x:v>
       </x:c>
       <x:c r="M15" s="21" t="s">
-        <x:v>17</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N15" s="38"/>
     </x:row>
     <x:row r="16" spans="1:14" ht="16.399999999999999">
       <x:c r="A16" s="33" t="s">
-        <x:v>34</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B16" s="34" t="s">
-        <x:v>103</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C16" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D16" s="36">
         <x:v>584</x:v>
@@ -2300,19 +2401,19 @@
         <x:v>9.0651558073654392</x:v>
       </x:c>
       <x:c r="M16" s="21" t="s">
-        <x:v>5</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N16" s="38"/>
     </x:row>
     <x:row r="17" spans="1:14" ht="16.399999999999999">
       <x:c r="A17" s="33" t="s">
-        <x:v>34</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B17" s="34" t="s">
-        <x:v>70</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C17" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D17" s="36">
         <x:v>4625</x:v>
@@ -2344,19 +2445,19 @@
         <x:v>1.3848967859942514</x:v>
       </x:c>
       <x:c r="M17" s="21" t="s">
-        <x:v>5</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N17" s="38"/>
     </x:row>
     <x:row r="18" spans="1:14" ht="16.399999999999999">
       <x:c r="A18" s="33" t="s">
-        <x:v>34</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B18" s="34" t="s">
-        <x:v>80</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C18" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D18" s="36">
         <x:v>4077</x:v>
@@ -2388,19 +2489,19 @@
         <x:v>1.2144549763033177</x:v>
       </x:c>
       <x:c r="M18" s="21" t="s">
-        <x:v>5</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="N18" s="38"/>
     </x:row>
     <x:row r="19" spans="1:14" ht="16.399999999999999">
       <x:c r="A19" s="33" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B19" s="34" t="s">
-        <x:v>103</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C19" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D19" s="36">
         <x:v>683</x:v>
@@ -2432,19 +2533,19 @@
         <x:v>8.9330024813895772</x:v>
       </x:c>
       <x:c r="M19" s="21" t="s">
-        <x:v>17</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N19" s="38"/>
     </x:row>
     <x:row r="20" spans="1:14" ht="16.399999999999999">
       <x:c r="A20" s="33" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B20" s="34" t="s">
-        <x:v>70</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C20" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D20" s="36">
         <x:v>4636</x:v>
@@ -2476,19 +2577,19 @@
         <x:v>1.3823682837767346</x:v>
       </x:c>
       <x:c r="M20" s="21" t="s">
-        <x:v>17</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N20" s="38"/>
     </x:row>
     <x:row r="21" spans="1:14" ht="16.399999999999999">
       <x:c r="A21" s="33" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B21" s="34" t="s">
-        <x:v>80</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C21" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D21" s="36">
         <x:v>4087</x:v>
@@ -2520,19 +2621,19 @@
         <x:v>1.2126589766341318</x:v>
       </x:c>
       <x:c r="M21" s="21" t="s">
-        <x:v>17</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="N21" s="38"/>
     </x:row>
     <x:row r="22" spans="1:14" ht="16.399999999999999">
       <x:c r="A22" s="33" t="s">
-        <x:v>84</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="34" t="s">
-        <x:v>103</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C22" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D22" s="36">
         <x:v>701</x:v>
@@ -2564,19 +2665,19 @@
         <x:v>11.302211302211303</x:v>
       </x:c>
       <x:c r="M22" s="21" t="s">
-        <x:v>22</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="N22" s="38"/>
     </x:row>
     <x:row r="23" spans="1:14" ht="16.399999999999999">
       <x:c r="A23" s="33" t="s">
-        <x:v>84</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="34" t="s">
-        <x:v>70</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C23" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D23" s="36">
         <x:v>4643</x:v>
@@ -2608,19 +2709,19 @@
         <x:v>1.3823682837767346</x:v>
       </x:c>
       <x:c r="M23" s="21" t="s">
-        <x:v>22</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="N23" s="38"/>
     </x:row>
     <x:row r="24" spans="1:14" ht="16.399999999999999">
       <x:c r="A24" s="33" t="s">
-        <x:v>84</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="34" t="s">
-        <x:v>80</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C24" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D24" s="36">
         <x:v>4100</x:v>
@@ -2652,19 +2753,19 @@
         <x:v>1.2126589766341318</x:v>
       </x:c>
       <x:c r="M24" s="21" t="s">
-        <x:v>22</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="N24" s="38"/>
     </x:row>
     <x:row r="25" spans="1:14" ht="16.399999999999999">
       <x:c r="A25" s="36" t="s">
-        <x:v>35</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B25" s="34" t="s">
-        <x:v>70</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C25" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D25" s="36">
         <x:v>4666</x:v>
@@ -2696,19 +2797,19 @@
         <x:v>1.3802083333333333</x:v>
       </x:c>
       <x:c r="M25" s="21" t="s">
-        <x:v>22</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="N25" s="41"/>
     </x:row>
     <x:row r="26" spans="1:14" ht="16.399999999999999">
       <x:c r="A26" s="36" t="s">
-        <x:v>35</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B26" s="34" t="s">
-        <x:v>80</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C26" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D26" s="36">
         <x:v>4145</x:v>
@@ -2740,19 +2841,19 @@
         <x:v>1.2327560904021133</x:v>
       </x:c>
       <x:c r="M26" s="21" t="s">
-        <x:v>22</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="N26" s="41"/>
     </x:row>
     <x:row r="27" spans="1:14" ht="16.399999999999999">
       <x:c r="A27" s="36" t="s">
-        <x:v>35</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B27" s="34" t="s">
-        <x:v>103</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C27" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D27" s="36">
         <x:v>741</x:v>
@@ -2784,19 +2885,19 @@
         <x:v>8.6330935251798557</x:v>
       </x:c>
       <x:c r="M27" s="21" t="s">
-        <x:v>22</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="N27" s="41"/>
     </x:row>
     <x:row r="28" spans="1:14" ht="16.399999999999999">
       <x:c r="A28" s="36" t="s">
-        <x:v>35</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B28" s="34" t="s">
-        <x:v>57</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C28" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D28" s="36">
         <x:v>437</x:v>
@@ -2828,21 +2929,21 @@
         <x:v>2.3121387283236992</x:v>
       </x:c>
       <x:c r="M28" s="21" t="s">
-        <x:v>22</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="N28" s="38" t="s">
-        <x:v>68</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:14" ht="16.399999999999999">
       <x:c r="A29" s="36" t="s">
-        <x:v>45</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B29" s="34" t="s">
-        <x:v>70</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C29" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D29" s="36">
         <x:v>4679</x:v>
@@ -2874,19 +2975,19 @@
         <x:v>1.3802083333333333</x:v>
       </x:c>
       <x:c r="M29" s="21" t="s">
-        <x:v>22</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="N29" s="24"/>
     </x:row>
     <x:row r="30" spans="1:14" ht="16.399999999999999">
       <x:c r="A30" s="36" t="s">
-        <x:v>45</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B30" s="34" t="s">
-        <x:v>80</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C30" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D30" s="36">
         <x:v>4156</x:v>
@@ -2918,19 +3019,19 @@
         <x:v>1.2327560904021133</x:v>
       </x:c>
       <x:c r="M30" s="21" t="s">
-        <x:v>22</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="N30" s="24"/>
     </x:row>
     <x:row r="31" spans="1:14" ht="16.399999999999999">
       <x:c r="A31" s="36" t="s">
-        <x:v>45</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B31" s="34" t="s">
-        <x:v>103</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C31" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D31" s="36">
         <x:v>760</x:v>
@@ -2962,19 +3063,19 @@
         <x:v>8.5714285714285712</x:v>
       </x:c>
       <x:c r="M31" s="21" t="s">
-        <x:v>22</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="N31" s="24"/>
     </x:row>
     <x:row r="32" spans="1:14" ht="16.399999999999999">
       <x:c r="A32" s="36" t="s">
-        <x:v>45</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B32" s="34" t="s">
-        <x:v>57</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C32" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D32" s="36">
         <x:v>553</x:v>
@@ -3006,19 +3107,19 @@
         <x:v>3.8461538461538463</x:v>
       </x:c>
       <x:c r="M32" s="21" t="s">
-        <x:v>22</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="N32" s="24"/>
     </x:row>
     <x:row r="33" spans="1:14" ht="16.399999999999999">
       <x:c r="A33" s="36" t="s">
-        <x:v>33</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B33" s="34" t="s">
-        <x:v>53</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C33" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D33" s="36">
         <x:v>496</x:v>
@@ -3050,19 +3151,19 @@
         <x:v>4.0114613180515759</x:v>
       </x:c>
       <x:c r="M33" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="N33" s="24"/>
     </x:row>
     <x:row r="34" spans="1:14" ht="16.399999999999999">
       <x:c r="A34" s="36" t="s">
-        <x:v>33</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B34" s="34" t="s">
-        <x:v>70</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C34" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D34" s="36">
         <x:v>4697</x:v>
@@ -3094,19 +3195,19 @@
         <x:v>1.3964313421256789</x:v>
       </x:c>
       <x:c r="M34" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="N34" s="24"/>
     </x:row>
     <x:row r="35" spans="1:14" ht="16.399999999999999">
       <x:c r="A35" s="36" t="s">
-        <x:v>33</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B35" s="34" t="s">
-        <x:v>80</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C35" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D35" s="36">
         <x:v>4172</x:v>
@@ -3138,19 +3239,19 @@
         <x:v>1.2580456407255705</x:v>
       </x:c>
       <x:c r="M35" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="N35" s="24"/>
     </x:row>
     <x:row r="36" spans="1:14" ht="16.399999999999999">
       <x:c r="A36" s="36" t="s">
-        <x:v>33</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B36" s="34" t="s">
-        <x:v>103</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C36" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D36" s="36">
         <x:v>781</x:v>
@@ -3182,19 +3283,19 @@
         <x:v>8.7058823529411757</x:v>
       </x:c>
       <x:c r="M36" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="N36" s="24"/>
     </x:row>
     <x:row r="37" spans="1:14" ht="16.399999999999999">
       <x:c r="A37" s="36" t="s">
-        <x:v>33</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B37" s="34" t="s">
-        <x:v>57</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C37" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D37" s="36">
         <x:v>598</x:v>
@@ -3226,19 +3327,19 @@
         <x:v>5.1470588235294112</x:v>
       </x:c>
       <x:c r="M37" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="N37" s="24"/>
     </x:row>
     <x:row r="38" spans="1:14" ht="16.399999999999999">
       <x:c r="A38" s="36" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B38" s="34" t="s">
-        <x:v>53</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C38" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D38" s="36">
         <x:v>567</x:v>
@@ -3270,19 +3371,19 @@
         <x:v>4.5801526717557248</x:v>
       </x:c>
       <x:c r="M38" s="21" t="s">
-        <x:v>31</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N38" s="24"/>
     </x:row>
     <x:row r="39" spans="1:14" ht="16.399999999999999">
       <x:c r="A39" s="36" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B39" s="34" t="s">
-        <x:v>57</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C39" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D39" s="36">
         <x:v>599</x:v>
@@ -3314,19 +3415,19 @@
         <x:v>5.1470588235294112</x:v>
       </x:c>
       <x:c r="M39" s="21" t="s">
-        <x:v>31</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N39" s="24"/>
     </x:row>
     <x:row r="40" spans="1:14" ht="16.399999999999999">
       <x:c r="A40" s="36" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B40" s="34" t="s">
-        <x:v>103</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C40" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D40" s="36">
         <x:v>784</x:v>
@@ -3358,19 +3459,19 @@
         <x:v>8.9411764705882355</x:v>
       </x:c>
       <x:c r="M40" s="21" t="s">
-        <x:v>31</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N40" s="24"/>
     </x:row>
     <x:row r="41" spans="1:14" ht="16.399999999999999">
       <x:c r="A41" s="36" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B41" s="34" t="s">
-        <x:v>80</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C41" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D41" s="36">
         <x:v>4175</x:v>
@@ -3402,19 +3503,19 @@
         <x:v>1.2562080046742623</x:v>
       </x:c>
       <x:c r="M41" s="21" t="s">
-        <x:v>31</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N41" s="24"/>
     </x:row>
     <x:row r="42" spans="1:14" ht="16.399999999999999">
       <x:c r="A42" s="36" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B42" s="34" t="s">
-        <x:v>70</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C42" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D42" s="36">
         <x:v>4700</x:v>
@@ -3446,19 +3547,19 @@
         <x:v>1.3964313421256789</x:v>
       </x:c>
       <x:c r="M42" s="21" t="s">
-        <x:v>31</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N42" s="24"/>
     </x:row>
     <x:row r="43" spans="1:14" ht="16.399999999999999">
       <x:c r="A43" s="36" t="s">
-        <x:v>85</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B43" s="34" t="s">
-        <x:v>53</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C43" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D43" s="36">
         <x:v>686</x:v>
@@ -3490,19 +3591,19 @@
         <x:v>4.5356371490280782</x:v>
       </x:c>
       <x:c r="M43" s="21" t="s">
-        <x:v>31</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N43" s="46"/>
     </x:row>
     <x:row r="44" spans="1:14" ht="16.399999999999999">
       <x:c r="A44" s="36" t="s">
-        <x:v>85</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B44" s="34" t="s">
-        <x:v>57</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C44" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D44" s="36">
         <x:v>624</x:v>
@@ -3534,19 +3635,19 @@
         <x:v>5.3527980535279802</x:v>
       </x:c>
       <x:c r="M44" s="21" t="s">
-        <x:v>31</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N44" s="46"/>
     </x:row>
     <x:row r="45" spans="1:14" ht="16.399999999999999">
       <x:c r="A45" s="36" t="s">
-        <x:v>85</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B45" s="34" t="s">
-        <x:v>103</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C45" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D45" s="36">
         <x:v>810</x:v>
@@ -3578,19 +3679,19 @@
         <x:v>9.1549295774647899</x:v>
       </x:c>
       <x:c r="M45" s="21" t="s">
-        <x:v>31</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N45" s="46"/>
     </x:row>
     <x:row r="46" spans="1:14" ht="16.399999999999999">
       <x:c r="A46" s="36" t="s">
-        <x:v>85</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B46" s="34" t="s">
-        <x:v>80</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C46" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D46" s="36">
         <x:v>4192</x:v>
@@ -3622,19 +3723,19 @@
         <x:v>1.3146362839614372</x:v>
       </x:c>
       <x:c r="M46" s="21" t="s">
-        <x:v>31</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N46" s="46"/>
     </x:row>
     <x:row r="47" spans="1:14" ht="16.399999999999999">
       <x:c r="A47" s="36" t="s">
-        <x:v>85</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B47" s="34" t="s">
-        <x:v>70</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C47" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D47" s="36">
         <x:v>4712</x:v>
@@ -3666,19 +3767,19 @@
         <x:v>1.4200877872450297</x:v>
       </x:c>
       <x:c r="M47" s="21" t="s">
-        <x:v>31</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N47" s="46"/>
     </x:row>
     <x:row r="48" spans="1:14" ht="16.399999999999999">
       <x:c r="A48" s="36" t="s">
-        <x:v>85</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B48" s="34" t="s">
-        <x:v>69</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C48" s="35" t="s">
-        <x:v>4</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D48" s="36">
         <x:v>739</x:v>
@@ -3710,21 +3811,21 @@
         <x:v>1.6216216216216217</x:v>
       </x:c>
       <x:c r="M48" s="21" t="s">
-        <x:v>31</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N48" s="38" t="s">
-        <x:v>39</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:14" ht="16.399999999999999">
       <x:c r="A49" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B49" s="51" t="s">
-        <x:v>70</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C49" s="52" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D49" s="50">
         <x:v>4783</x:v>
@@ -3756,19 +3857,19 @@
         <x:v>1.5541264737406217</x:v>
       </x:c>
       <x:c r="M49" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="N49" s="24"/>
     </x:row>
     <x:row r="50" spans="1:14" ht="16.399999999999999">
       <x:c r="A50" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B50" s="34" t="s">
-        <x:v>80</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C50" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D50" s="36">
         <x:v>4252</x:v>
@@ -3800,19 +3901,19 @@
         <x:v>1.3892908827785817</x:v>
       </x:c>
       <x:c r="M50" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="N50" s="24"/>
     </x:row>
     <x:row r="51" spans="1:14" ht="16.399999999999999">
       <x:c r="A51" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B51" s="34" t="s">
-        <x:v>103</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C51" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D51" s="36">
         <x:v>872</x:v>
@@ -3844,19 +3945,19 @@
         <x:v>10.16548463356974</x:v>
       </x:c>
       <x:c r="M51" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="N51" s="24"/>
     </x:row>
     <x:row r="52" spans="1:14" ht="16.399999999999999">
       <x:c r="A52" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B52" s="34" t="s">
-        <x:v>57</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C52" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D52" s="36">
         <x:v>681</x:v>
@@ -3888,19 +3989,19 @@
         <x:v>6.2068965517241379</x:v>
       </x:c>
       <x:c r="M52" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="N52" s="24"/>
     </x:row>
     <x:row r="53" spans="1:14" ht="16.399999999999999">
       <x:c r="A53" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B53" s="34" t="s">
-        <x:v>53</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C53" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D53" s="36">
         <x:v>761</x:v>
@@ -3932,19 +4033,19 @@
         <x:v>5.5327868852459012</x:v>
       </x:c>
       <x:c r="M53" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="N53" s="24"/>
     </x:row>
     <x:row r="54" spans="1:14" ht="16.399999999999999">
       <x:c r="A54" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B54" s="34" t="s">
-        <x:v>69</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C54" s="35" t="s">
-        <x:v>4</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D54" s="36">
         <x:v>3296</x:v>
@@ -3976,19 +4077,19 @@
         <x:v>1.2786761940579165</x:v>
       </x:c>
       <x:c r="M54" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="N54" s="24"/>
     </x:row>
     <x:row r="55" spans="1:14" ht="16.399999999999999">
       <x:c r="A55" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B55" s="34" t="s">
-        <x:v>48</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C55" s="35" t="s">
-        <x:v>4</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D55" s="36">
         <x:v>706</x:v>
@@ -4020,19 +4121,19 @@
         <x:v>5.3497942386831276</x:v>
       </x:c>
       <x:c r="M55" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="N55" s="24"/>
     </x:row>
     <x:row r="56" spans="1:14" ht="16.399999999999999">
       <x:c r="A56" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B56" s="34" t="s">
-        <x:v>83</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C56" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D56" s="36">
         <x:v>1396</x:v>
@@ -4064,19 +4165,19 @@
         <x:v>3.3834586466165413</x:v>
       </x:c>
       <x:c r="M56" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="N56" s="24"/>
     </x:row>
     <x:row r="57" spans="1:14" ht="16.399999999999999">
       <x:c r="A57" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B57" s="34" t="s">
-        <x:v>99</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C57" s="35" t="s">
-        <x:v>4</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D57" s="36">
         <x:v>956</x:v>
@@ -4108,19 +4209,19 @@
         <x:v>4.4182621502209134</x:v>
       </x:c>
       <x:c r="M57" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="N57" s="24"/>
     </x:row>
     <x:row r="58" spans="1:14" ht="16.399999999999999">
       <x:c r="A58" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B58" s="34" t="s">
-        <x:v>123</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C58" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D58" s="36">
         <x:v>1832</x:v>
@@ -4152,107 +4253,492 @@
         <x:v>1.8436109345200253</x:v>
       </x:c>
       <x:c r="M58" s="21" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="N58" s="24"/>
+    </x:row>
+    <x:row r="59" spans="1:14" ht="16.399999999999999">
+      <x:c r="A59" s="50" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B59" s="51" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C59" s="52" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D59" s="50">
+        <x:v>4790</x:v>
+      </x:c>
+      <x:c r="E59" s="50">
+        <x:v>3907</x:v>
+      </x:c>
+      <x:c r="F59" s="50">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G59" s="50">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H59" s="50">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I59" s="50">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J59" s="50">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="K59" s="20">
+        <x:f t="shared" si="0"/>
+        <x:v>2.7130790888149474</x:v>
+      </x:c>
+      <x:c r="L59" s="20">
+        <x:f t="shared" si="1"/>
+        <x:v>1.4845149731251599</x:v>
+      </x:c>
+      <x:c r="M59" s="28" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="N59" s="24"/>
+    </x:row>
+    <x:row r="60" spans="1:14" ht="16.399999999999999">
+      <x:c r="A60" s="36" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B60" s="34" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C60" s="35" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D60" s="36">
+        <x:v>4254</x:v>
+      </x:c>
+      <x:c r="E60" s="36">
+        <x:v>3439</x:v>
+      </x:c>
+      <x:c r="F60" s="36">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G60" s="36">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H60" s="36">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I60" s="36">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J60" s="36">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K60" s="20">
+        <x:f t="shared" si="0"/>
+        <x:v>2.8787438208781624</x:v>
+      </x:c>
+      <x:c r="L60" s="20">
+        <x:f t="shared" si="1"/>
+        <x:v>1.3957545798197151</x:v>
+      </x:c>
+      <x:c r="M60" s="21" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="N60" s="24"/>
+    </x:row>
+    <x:row r="61" spans="1:14" ht="16.399999999999999">
+      <x:c r="A61" s="36" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B61" s="34" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C61" s="35" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D61" s="36">
+        <x:v>879</x:v>
+      </x:c>
+      <x:c r="E61" s="36">
+        <x:v>445</x:v>
+      </x:c>
+      <x:c r="F61" s="36">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G61" s="36">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H61" s="36">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I61" s="36">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J61" s="36">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K61" s="20">
+        <x:f t="shared" si="0"/>
+        <x:v>19.101123595505616</x:v>
+      </x:c>
+      <x:c r="L61" s="20">
+        <x:f t="shared" si="1"/>
+        <x:v>9.6629213483146064</x:v>
+      </x:c>
+      <x:c r="M61" s="21" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="N61" s="24"/>
+    </x:row>
+    <x:row r="62" spans="1:14" ht="16.399999999999999">
+      <x:c r="A62" s="36" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B62" s="34" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C62" s="35" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D62" s="36">
+        <x:v>685</x:v>
+      </x:c>
+      <x:c r="E62" s="36">
+        <x:v>438</x:v>
+      </x:c>
+      <x:c r="F62" s="36">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G62" s="36">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H62" s="36">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I62" s="36">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J62" s="36">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K62" s="20">
+        <x:f t="shared" si="0"/>
+        <x:v>13.013698630136986</x:v>
+      </x:c>
+      <x:c r="L62" s="20">
+        <x:f t="shared" si="1"/>
+        <x:v>6.1643835616438354</x:v>
+      </x:c>
+      <x:c r="M62" s="21" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="N62" s="24"/>
+    </x:row>
+    <x:row r="63" spans="1:14" ht="16.399999999999999">
+      <x:c r="A63" s="36" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B63" s="34" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C63" s="35" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D63" s="36">
+        <x:v>763</x:v>
+      </x:c>
+      <x:c r="E63" s="36">
+        <x:v>481</x:v>
+      </x:c>
+      <x:c r="F63" s="36">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G63" s="36">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H63" s="36">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I63" s="36">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J63" s="36">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K63" s="20">
+        <x:f t="shared" si="0"/>
+        <x:v>11.850311850311851</x:v>
+      </x:c>
+      <x:c r="L63" s="20">
+        <x:f t="shared" si="1"/>
+        <x:v>5.6133056133056138</x:v>
+      </x:c>
+      <x:c r="M63" s="21" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="N63" s="24"/>
+    </x:row>
+    <x:row r="64" spans="1:14" ht="16.399999999999999">
+      <x:c r="A64" s="36" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B64" s="34" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C64" s="35" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D64" s="36">
+        <x:v>3301</x:v>
+      </x:c>
+      <x:c r="E64" s="36">
+        <x:v>2623</x:v>
+      </x:c>
+      <x:c r="F64" s="36">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G64" s="36">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H64" s="36">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I64" s="36">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J64" s="36">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K64" s="20">
+        <x:f t="shared" si="0"/>
+        <x:v>2.7830728173846744</x:v>
+      </x:c>
+      <x:c r="L64" s="20">
+        <x:f t="shared" si="1"/>
+        <x:v>1.3343499809378574</x:v>
+      </x:c>
+      <x:c r="M64" s="21" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="N64" s="24"/>
+    </x:row>
+    <x:row r="65" spans="1:14" ht="16.399999999999999">
+      <x:c r="A65" s="36" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B65" s="34" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C65" s="35" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D65" s="36">
+        <x:v>714</x:v>
+      </x:c>
+      <x:c r="E65" s="36">
+        <x:v>506</x:v>
+      </x:c>
+      <x:c r="F65" s="36">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G65" s="36">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H65" s="36">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I65" s="36">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J65" s="36">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="K65" s="20">
+        <x:f t="shared" si="0"/>
+        <x:v>11.857707509881422</x:v>
+      </x:c>
+      <x:c r="L65" s="20">
+        <x:f t="shared" si="1"/>
+        <x:v>5.3359683794466397</x:v>
+      </x:c>
+      <x:c r="M65" s="21" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="N65" s="24"/>
+    </x:row>
+    <x:row r="66" spans="1:14" ht="16.399999999999999">
+      <x:c r="A66" s="36" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B66" s="34" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="N58" s="24"/>
-    </x:row>
-    <x:row r="59" spans="1:14" ht="16.399999999999999">
-      <x:c r="A59" s="29"/>
-      <x:c r="B59" s="26"/>
-      <x:c r="C59" s="27"/>
-      <x:c r="K59" s="20"/>
-      <x:c r="L59" s="20"/>
-      <x:c r="M59" s="28"/>
-      <x:c r="N59" s="24"/>
-    </x:row>
-    <x:row r="60" spans="1:14" ht="16.399999999999999">
-      <x:c r="A60" s="29"/>
-      <x:c r="B60" s="26"/>
-      <x:c r="C60" s="27"/>
-      <x:c r="K60" s="20"/>
-      <x:c r="L60" s="20"/>
-      <x:c r="M60" s="28"/>
-      <x:c r="N60" s="24"/>
-    </x:row>
-    <x:row r="61" spans="1:14" ht="16.399999999999999">
-      <x:c r="A61" s="29"/>
-      <x:c r="B61" s="26"/>
-      <x:c r="C61" s="27"/>
-      <x:c r="K61" s="20"/>
-      <x:c r="L61" s="20"/>
-      <x:c r="M61" s="28"/>
-      <x:c r="N61" s="24"/>
-    </x:row>
-    <x:row r="62" spans="1:14" ht="16.399999999999999">
-      <x:c r="A62" s="29"/>
-      <x:c r="B62" s="26"/>
-      <x:c r="C62" s="27"/>
-      <x:c r="K62" s="20"/>
-      <x:c r="L62" s="20"/>
-      <x:c r="M62" s="28"/>
-      <x:c r="N62" s="24"/>
-    </x:row>
-    <x:row r="63" spans="1:14" ht="16.399999999999999">
-      <x:c r="A63" s="29"/>
-      <x:c r="B63" s="26"/>
-      <x:c r="C63" s="27"/>
-      <x:c r="K63" s="20"/>
-      <x:c r="L63" s="20"/>
-      <x:c r="M63" s="28"/>
-      <x:c r="N63" s="24"/>
-    </x:row>
-    <x:row r="64" spans="1:14" ht="16.399999999999999">
-      <x:c r="A64" s="29"/>
-      <x:c r="B64" s="26"/>
-      <x:c r="C64" s="27"/>
-      <x:c r="K64" s="20"/>
-      <x:c r="L64" s="20"/>
-      <x:c r="M64" s="28"/>
-      <x:c r="N64" s="24"/>
-    </x:row>
-    <x:row r="65" spans="1:14" ht="16.399999999999999">
-      <x:c r="A65" s="29"/>
-      <x:c r="B65" s="26"/>
-      <x:c r="C65" s="27"/>
-      <x:c r="K65" s="20"/>
-      <x:c r="L65" s="20"/>
-      <x:c r="M65" s="28"/>
-      <x:c r="N65" s="24"/>
-    </x:row>
-    <x:row r="66" spans="1:14" ht="16.399999999999999">
-      <x:c r="A66" s="29"/>
-      <x:c r="B66" s="26"/>
-      <x:c r="C66" s="27"/>
-      <x:c r="K66" s="20"/>
-      <x:c r="L66" s="20"/>
-      <x:c r="M66" s="28"/>
+      <x:c r="C66" s="35" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D66" s="36">
+        <x:v>1409</x:v>
+      </x:c>
+      <x:c r="E66" s="36">
+        <x:v>1100</x:v>
+      </x:c>
+      <x:c r="F66" s="36">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G66" s="36">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H66" s="36">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I66" s="36">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J66" s="36">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K66" s="20">
+        <x:f t="shared" si="0"/>
+        <x:v>7.2727272727272725</x:v>
+      </x:c>
+      <x:c r="L66" s="20">
+        <x:f t="shared" si="1"/>
+        <x:v>3.3636363636363638</x:v>
+      </x:c>
+      <x:c r="M66" s="21" t="s">
+        <x:v>157</x:v>
+      </x:c>
       <x:c r="N66" s="24"/>
     </x:row>
     <x:row r="67" spans="1:14" ht="16.399999999999999">
-      <x:c r="A67" s="29"/>
-      <x:c r="B67" s="26"/>
-      <x:c r="C67" s="27"/>
-      <x:c r="K67" s="20"/>
-      <x:c r="L67" s="20"/>
-      <x:c r="M67" s="28"/>
+      <x:c r="A67" s="36" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B67" s="34" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C67" s="35" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D67" s="36">
+        <x:v>976</x:v>
+      </x:c>
+      <x:c r="E67" s="36">
+        <x:v>669</x:v>
+      </x:c>
+      <x:c r="F67" s="36">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G67" s="36">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H67" s="36">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I67" s="36">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J67" s="36">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="K67" s="20">
+        <x:f t="shared" si="0"/>
+        <x:v>10.164424514200299</x:v>
+      </x:c>
+      <x:c r="L67" s="20">
+        <x:f t="shared" si="1"/>
+        <x:v>4.6337817638266072</x:v>
+      </x:c>
+      <x:c r="M67" s="21" t="s">
+        <x:v>157</x:v>
+      </x:c>
       <x:c r="N67" s="24"/>
     </x:row>
     <x:row r="68" spans="1:14" ht="16.399999999999999">
-      <x:c r="A68" s="29"/>
-      <x:c r="B68" s="26"/>
-      <x:c r="C68" s="27"/>
-      <x:c r="K68" s="20"/>
-      <x:c r="L68" s="20"/>
-      <x:c r="M68" s="28"/>
+      <x:c r="A68" s="36" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B68" s="34" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C68" s="35" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D68" s="36">
+        <x:v>1869</x:v>
+      </x:c>
+      <x:c r="E68" s="36">
+        <x:v>1545</x:v>
+      </x:c>
+      <x:c r="F68" s="36">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G68" s="36">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H68" s="36">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I68" s="36">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="J68" s="36">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K68" s="20">
+        <x:f t="shared" si="0"/>
+        <x:v>3.8834951456310676</x:v>
+      </x:c>
+      <x:c r="L68" s="20">
+        <x:f t="shared" si="1"/>
+        <x:v>2.0064724919093853</x:v>
+      </x:c>
+      <x:c r="M68" s="21" t="s">
+        <x:v>157</x:v>
+      </x:c>
       <x:c r="N68" s="24"/>
     </x:row>
     <x:row r="69" spans="1:14" ht="16.399999999999999">
-      <x:c r="A69" s="29"/>
-      <x:c r="B69" s="26"/>
-      <x:c r="C69" s="27"/>
-      <x:c r="K69" s="20"/>
-      <x:c r="L69" s="20"/>
-      <x:c r="M69" s="28"/>
+      <x:c r="A69" s="36" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B69" s="34" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C69" s="35" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D69" s="36">
+        <x:v>646</x:v>
+      </x:c>
+      <x:c r="E69" s="36">
+        <x:v>483</x:v>
+      </x:c>
+      <x:c r="F69" s="36">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G69" s="36">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H69" s="36">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I69" s="36">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J69" s="36">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K69" s="20">
+        <x:f t="shared" si="0"/>
+        <x:v>12.422360248447205</x:v>
+      </x:c>
+      <x:c r="L69" s="20">
+        <x:f t="shared" si="1"/>
+        <x:v>4.7619047619047619</x:v>
+      </x:c>
+      <x:c r="M69" s="21" t="s">
+        <x:v>157</x:v>
+      </x:c>
       <x:c r="N69" s="24"/>
     </x:row>
     <x:row r="70" spans="1:14" ht="16.399999999999999">
@@ -12635,8 +13121,8 @@
       <x:c r="N1000" s="24"/>
     </x:row>
   </x:sheetData>
-  <x:dataValidations count="7">
-    <x:dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B59:B204 B2:B11">
+  <x:dataValidations count="8">
+    <x:dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B11 B70:B204">
       <x:formula1>"녹용체험 반말ver.,녹용체험 존댓말ver."</x:formula1>
     </x:dataValidation>
     <x:dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C204">
@@ -12657,6 +13143,9 @@
     <x:dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B49:B58">
       <x:formula1>"녹용체험 반말ver.,녹용체험 존댓말ver.,젤리 ASMR,쉐이크 ASMR,한동팀장은 근무중,ASMR NG(1),ASMR NG(2),효능정보형+캐릭터(1),녹녹디어,저속노화"</x:formula1>
     </x:dataValidation>
+    <x:dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B59:B69">
+      <x:formula1>"녹용체험 반말ver.,녹용체험 존댓말ver.,젤리 ASMR,쉐이크 ASMR,한동팀장은 근무중,ASMR NG(1),ASMR NG(2),효능정보형+캐릭터(1),녹녹디어,저속노화,굿띵챌린지"</x:formula1>
+    </x:dataValidation>
   </x:dataValidations>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -12667,9 +13156,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="A1:Y106"/>
+  <x:dimension ref="A1:Y122"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:pane xSplit="2" ySplit="0" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <x:selection pane="topRight" activeCell="A1" activeCellId="0" sqref="A1:A1"/>
     </x:sheetView>
@@ -12699,46 +13188,46 @@
   <x:sheetData>
     <x:row r="1" spans="1:22" ht="17.149999999999999">
       <x:c r="A1" s="13" t="s">
-        <x:v>94</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B1" s="12" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C1" s="13" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D1" s="13" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="C1" s="13" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D1" s="13" t="s">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="E1" s="13" t="s">
-        <x:v>127</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F1" s="13" t="s">
-        <x:v>106</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G1" s="13" t="s">
-        <x:v>16</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H1" s="13" t="s">
-        <x:v>10</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="I1" s="13" t="s">
-        <x:v>13</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="J1" s="13" t="s">
-        <x:v>25</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="K1" s="14" t="s">
-        <x:v>6</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L1" s="14" t="s">
-        <x:v>3</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M1" s="15" t="s">
-        <x:v>128</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="N1" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="P1" s="47"/>
       <x:c r="R1" s="48"/>
@@ -12747,19 +13236,19 @@
     </x:row>
     <x:row r="2" spans="1:22" ht="16.399999999999999">
       <x:c r="A2" s="17" t="s">
-        <x:v>64</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B2" s="17" t="s">
-        <x:v>115</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D2" s="17">
         <x:v>25000</x:v>
       </x:c>
       <x:c r="E2" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F2" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G2" s="17">
         <x:v>78</x:v>
@@ -12774,10 +13263,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K2" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="L2" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="P2" s="47"/>
       <x:c r="R2" s="48"/>
@@ -12786,19 +13275,19 @@
     </x:row>
     <x:row r="3" spans="1:22" ht="16.399999999999999">
       <x:c r="A3" s="17" t="s">
-        <x:v>62</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B3" s="17" t="s">
-        <x:v>71</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D3" s="17">
         <x:v>36000</x:v>
       </x:c>
       <x:c r="E3" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F3" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G3" s="17">
         <x:v>54</x:v>
@@ -12813,10 +13302,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="K3" s="20" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="L3" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="P3" s="47"/>
       <x:c r="R3" s="48"/>
@@ -12825,19 +13314,19 @@
     </x:row>
     <x:row r="4" spans="1:22" ht="16.399999999999999">
       <x:c r="A4" s="17" t="s">
-        <x:v>60</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B4" s="17" t="s">
-        <x:v>116</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D4" s="17">
         <x:v>28000</x:v>
       </x:c>
       <x:c r="E4" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F4" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G4" s="17">
         <x:v>56</x:v>
@@ -12852,10 +13341,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K4" s="20" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="L4" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="P4" s="47"/>
       <x:c r="R4" s="48"/>
@@ -12864,19 +13353,19 @@
     </x:row>
     <x:row r="5" spans="1:22" ht="16.399999999999999">
       <x:c r="A5" s="17" t="s">
-        <x:v>66</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B5" s="17" t="s">
-        <x:v>113</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D5" s="17">
         <x:v>33</x:v>
       </x:c>
       <x:c r="E5" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="F5" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G5" s="17">
         <x:v>5</x:v>
@@ -12891,10 +13380,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="K5" s="20" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="L5" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="P5" s="47"/>
       <x:c r="R5" s="48"/>
@@ -12903,10 +13392,10 @@
     </x:row>
     <x:row r="6" spans="1:22" ht="16.399999999999999">
       <x:c r="A6" s="17" t="s">
-        <x:v>73</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B6" s="17" t="s">
-        <x:v>42</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D6" s="17">
         <x:v>39000</x:v>
@@ -12915,7 +13404,7 @@
         <x:v>30000</x:v>
       </x:c>
       <x:c r="F6" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G6" s="17">
         <x:v>136</x:v>
@@ -12934,7 +13423,7 @@
         <x:v>0.45999999999999996</x:v>
       </x:c>
       <x:c r="L6" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="P6" s="47"/>
       <x:c r="R6" s="48"/>
@@ -12943,10 +13432,10 @@
     </x:row>
     <x:row r="7" spans="1:22" ht="16.399999999999999">
       <x:c r="A7" s="17" t="s">
-        <x:v>73</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B7" s="17" t="s">
-        <x:v>118</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D7" s="17">
         <x:v>20000</x:v>
@@ -12955,7 +13444,7 @@
         <x:v>19000</x:v>
       </x:c>
       <x:c r="F7" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G7" s="17">
         <x:v>15</x:v>
@@ -12974,7 +13463,7 @@
         <x:v>0.078947368421052627</x:v>
       </x:c>
       <x:c r="L7" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="P7" s="47"/>
       <x:c r="R7" s="48"/>
@@ -12983,10 +13472,10 @@
     </x:row>
     <x:row r="8" spans="1:22" ht="16.399999999999999">
       <x:c r="A8" s="17" t="s">
-        <x:v>54</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B8" s="17" t="s">
-        <x:v>58</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D8" s="17">
         <x:v>18000</x:v>
@@ -12995,7 +13484,7 @@
         <x:v>15000</x:v>
       </x:c>
       <x:c r="F8" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G8" s="30">
         <x:v>612</x:v>
@@ -13014,7 +13503,7 @@
         <x:v>4.0800000000000001</x:v>
       </x:c>
       <x:c r="L8" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="P8" s="47"/>
       <x:c r="R8" s="48"/>
@@ -13023,10 +13512,10 @@
     </x:row>
     <x:row r="9" spans="1:22" ht="16.399999999999999">
       <x:c r="A9" s="17" t="s">
-        <x:v>67</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B9" s="17" t="s">
-        <x:v>28</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D9" s="17">
         <x:v>7323</x:v>
@@ -13035,7 +13524,7 @@
         <x:v>2863</x:v>
       </x:c>
       <x:c r="F9" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G9" s="17">
         <x:v>209</x:v>
@@ -13054,7 +13543,7 @@
         <x:v>18.721620677610897</x:v>
       </x:c>
       <x:c r="L9" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="P9" s="47"/>
       <x:c r="R9" s="48"/>
@@ -13063,10 +13552,10 @@
     </x:row>
     <x:row r="10" spans="1:22" ht="16.399999999999999">
       <x:c r="A10" s="17" t="s">
-        <x:v>47</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B10" s="17" t="s">
-        <x:v>46</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D10" s="17">
         <x:v>1738</x:v>
@@ -13075,7 +13564,7 @@
         <x:v>1436</x:v>
       </x:c>
       <x:c r="F10" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G10" s="17">
         <x:v>25</x:v>
@@ -13094,7 +13583,7 @@
         <x:v>2.01949860724234</x:v>
       </x:c>
       <x:c r="L10" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="P10" s="47"/>
       <x:c r="R10" s="48"/>
@@ -13103,10 +13592,10 @@
     </x:row>
     <x:row r="11" spans="1:22" ht="16.399999999999999">
       <x:c r="A11" s="17" t="s">
-        <x:v>59</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B11" s="17" t="s">
-        <x:v>97</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D11" s="30">
         <x:v>364</x:v>
@@ -13144,10 +13633,10 @@
     </x:row>
     <x:row r="12" spans="1:22" ht="16.399999999999999">
       <x:c r="A12" s="17" t="s">
-        <x:v>56</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B12" s="17" t="s">
-        <x:v>61</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D12" s="17">
         <x:v>343</x:v>
@@ -13185,7 +13674,7 @@
     </x:row>
     <x:row r="13" spans="1:22" ht="16.399999999999999">
       <x:c r="A13" s="3" t="s">
-        <x:v>117</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E13" s="9">
         <x:f>SUM(E9:E12)</x:f>
@@ -13218,7 +13707,7 @@
     </x:row>
     <x:row r="14" spans="1:22" customHeight="1">
       <x:c r="A14" s="3" t="s">
-        <x:v>93</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E14" s="9">
         <x:f>SUM(E10:E12)</x:f>
@@ -13245,10 +13734,10 @@
         <x:v>2.57201646090535</x:v>
       </x:c>
       <x:c r="O14" s="4" t="s">
-        <x:v>55</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="P14" s="47" t="s">
-        <x:v>110</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="R14" s="48"/>
       <x:c r="T14" s="47"/>
@@ -13256,7 +13745,7 @@
     </x:row>
     <x:row r="15" spans="1:22" customHeight="1">
       <x:c r="A15" s="9" t="s">
-        <x:v>104</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D15" s="9">
         <x:f>SUM(D2:D12)</x:f>
@@ -13293,7 +13782,7 @@
     </x:row>
     <x:row r="16" spans="1:22" ht="16.399999999999999">
       <x:c r="A16" s="9" t="s">
-        <x:v>111</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D16" s="9">
         <x:f>SUM(D2:D12)/11</x:f>
@@ -13346,7 +13835,7 @@
     <x:row r="17" spans="16:22" ht="13.199999999999999">
       <x:c r="P17" s="47"/>
       <x:c r="Q17" s="4" t="s">
-        <x:v>72</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="R17" s="48"/>
       <x:c r="T17" s="47"/>
@@ -13354,10 +13843,10 @@
     </x:row>
     <x:row r="18" spans="1:22" customHeight="1">
       <x:c r="A18" s="9" t="s">
-        <x:v>100</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B18" s="10" t="s">
-        <x:v>52</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D18" s="9">
         <x:f>SUM(D6:D12)</x:f>
@@ -13398,14 +13887,14 @@
         <x:v>4.8016042062817093</x:v>
       </x:c>
       <x:c r="R18" s="49" t="s">
-        <x:v>76</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="T18" s="47"/>
       <x:c r="V18" s="48"/>
     </x:row>
     <x:row r="19" spans="2:22" customHeight="1">
       <x:c r="B19" s="10" t="s">
-        <x:v>81</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D19" s="9">
         <x:f>SUM(D6,D7,D8,D10,D11,D12)</x:f>
@@ -13445,14 +13934,14 @@
         <x:v>2.481601461060178</x:v>
       </x:c>
       <x:c r="R19" s="49" t="s">
-        <x:v>91</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="T19" s="47"/>
       <x:c r="V19" s="48"/>
     </x:row>
     <x:row r="20" spans="2:22" customHeight="1">
       <x:c r="B20" s="10" t="s">
-        <x:v>125</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D20" s="9">
         <x:f>SUM(D6:D12)/7</x:f>
@@ -13493,7 +13982,7 @@
     </x:row>
     <x:row r="21" spans="2:22" customHeight="1">
       <x:c r="B21" s="10" t="s">
-        <x:v>87</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D21" s="9">
         <x:f>SUM(D6,D7,D8,D10,D11,D12)/6</x:f>
@@ -13540,10 +14029,10 @@
     </x:row>
     <x:row r="23" spans="1:22" customHeight="1">
       <x:c r="A23" s="9" t="s">
-        <x:v>120</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B23" s="9" t="s">
-        <x:v>49</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D23" s="9">
         <x:f>SUM(D11,D12)</x:f>
@@ -13595,7 +14084,7 @@
     </x:row>
     <x:row r="24" spans="2:22" customHeight="1">
       <x:c r="B24" s="10" t="s">
-        <x:v>63</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D24" s="9">
         <x:f>SUM(D11,D12)/2</x:f>
@@ -13653,7 +14142,7 @@
     </x:row>
     <x:row r="26" spans="1:22" customHeight="1">
       <x:c r="A26" s="9" t="s">
-        <x:v>101</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="P26" s="47"/>
       <x:c r="R26" s="48"/>
@@ -13662,13 +14151,13 @@
     </x:row>
     <x:row r="27" spans="1:25" customHeight="1">
       <x:c r="A27" s="36" t="s">
-        <x:v>35</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B27" s="34" t="s">
-        <x:v>70</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C27" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D27" s="36">
         <x:v>4666</x:v>
@@ -13700,29 +14189,29 @@
         <x:v>1.3802083333333333</x:v>
       </x:c>
       <x:c r="M27" s="21" t="s">
-        <x:v>22</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="N27" s="38"/>
       <x:c r="P27" s="47"/>
       <x:c r="R27" s="48"/>
       <x:c r="T27" s="47"/>
       <x:c r="U27" s="4" t="s">
-        <x:v>75</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="V27" s="48"/>
       <x:c r="Y27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:22" customHeight="1">
       <x:c r="A28" s="36" t="s">
-        <x:v>35</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B28" s="34" t="s">
-        <x:v>80</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C28" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D28" s="36">
         <x:v>4145</x:v>
@@ -13754,31 +14243,31 @@
         <x:v>1.2327560904021133</x:v>
       </x:c>
       <x:c r="M28" s="21" t="s">
-        <x:v>22</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="N28" s="38"/>
       <x:c r="P28" s="47" t="s">
-        <x:v>50</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="R28" s="48" t="s">
-        <x:v>65</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="T28" s="47" t="s">
-        <x:v>50</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="V28" s="48" t="s">
-        <x:v>65</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:23" customHeight="1">
       <x:c r="A29" s="36" t="s">
-        <x:v>35</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B29" s="34" t="s">
-        <x:v>103</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C29" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D29" s="36">
         <x:v>741</x:v>
@@ -13810,43 +14299,43 @@
         <x:v>8.6330935251798557</x:v>
       </x:c>
       <x:c r="M29" s="21" t="s">
-        <x:v>22</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="N29" s="38"/>
       <x:c r="P29" s="47" t="s">
-        <x:v>95</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="Q29" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="R29" s="48" t="s">
-        <x:v>95</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="S29" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="T29" s="47" t="s">
-        <x:v>95</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="U29" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="V29" s="48" t="s">
-        <x:v>95</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="W29" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:23" customHeight="1">
       <x:c r="A30" s="36" t="s">
-        <x:v>35</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B30" s="34" t="s">
-        <x:v>57</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C30" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D30" s="36">
         <x:v>437</x:v>
@@ -13878,37 +14367,37 @@
         <x:v>2.3121387283236992</x:v>
       </x:c>
       <x:c r="M30" s="21" t="s">
-        <x:v>22</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="N30" s="38"/>
       <x:c r="P30" s="47" t="s">
-        <x:v>98</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="Q30" s="4" t="s">
-        <x:v>129</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="R30" s="48" t="s">
-        <x:v>122</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="S30" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="T30" s="47" t="s">
-        <x:v>96</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="U30" s="4" t="s">
-        <x:v>107</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="V30" s="48" t="s">
-        <x:v>121</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="W30" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="2:22" customHeight="1">
       <x:c r="B31" s="10" t="s">
-        <x:v>93</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E31" s="2">
         <x:f>SUM(E30,E27:E28)</x:f>
@@ -13935,7 +14424,7 @@
         <x:v>2.8842354800474124</x:v>
       </x:c>
       <x:c r="N31" s="8" t="s">
-        <x:v>72</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="P31" s="47"/>
       <x:c r="R31" s="48"/>
@@ -13944,7 +14433,7 @@
     </x:row>
     <x:row r="32" spans="2:25" customHeight="1">
       <x:c r="B32" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D32" s="9">
         <x:f>SUM(D27:D30)</x:f>
@@ -14025,7 +14514,7 @@
     </x:row>
     <x:row r="33" spans="2:22" customHeight="1">
       <x:c r="B33" s="10" t="s">
-        <x:v>89</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D33" s="9">
         <x:f>SUM(D27:D30)/4</x:f>
@@ -14076,7 +14565,7 @@
     </x:row>
     <x:row r="35" spans="1:22" customHeight="1">
       <x:c r="A35" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="P35" s="47"/>
       <x:c r="R35" s="48"/>
@@ -14085,13 +14574,13 @@
     </x:row>
     <x:row r="36" spans="1:22" customHeight="1">
       <x:c r="A36" s="36" t="s">
-        <x:v>45</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B36" s="34" t="s">
-        <x:v>70</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C36" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D36" s="36">
         <x:v>4679</x:v>
@@ -14123,7 +14612,7 @@
         <x:v>1.3802083333333333</x:v>
       </x:c>
       <x:c r="M36" s="21" t="s">
-        <x:v>22</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="P36" s="47"/>
       <x:c r="R36" s="48"/>
@@ -14132,13 +14621,13 @@
     </x:row>
     <x:row r="37" spans="1:22" customHeight="1">
       <x:c r="A37" s="36" t="s">
-        <x:v>45</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B37" s="34" t="s">
-        <x:v>80</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C37" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D37" s="36">
         <x:v>4156</x:v>
@@ -14170,30 +14659,30 @@
         <x:v>1.2327560904021133</x:v>
       </x:c>
       <x:c r="M37" s="21" t="s">
-        <x:v>22</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="P37" s="47" t="s">
-        <x:v>50</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="R37" s="48" t="s">
-        <x:v>65</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="T37" s="47" t="s">
-        <x:v>50</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="V37" s="48" t="s">
-        <x:v>65</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:23" customHeight="1">
       <x:c r="A38" s="36" t="s">
-        <x:v>45</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B38" s="34" t="s">
-        <x:v>103</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C38" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D38" s="36">
         <x:v>760</x:v>
@@ -14225,42 +14714,42 @@
         <x:v>8.5714285714285712</x:v>
       </x:c>
       <x:c r="M38" s="21" t="s">
-        <x:v>22</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="P38" s="47" t="s">
-        <x:v>95</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="Q38" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="R38" s="48" t="s">
-        <x:v>95</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="S38" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="T38" s="47" t="s">
-        <x:v>95</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="U38" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="V38" s="48" t="s">
-        <x:v>95</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="W38" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:23" customHeight="1">
       <x:c r="A39" s="36" t="s">
-        <x:v>45</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B39" s="34" t="s">
-        <x:v>57</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C39" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D39" s="36">
         <x:v>553</x:v>
@@ -14292,36 +14781,36 @@
         <x:v>3.8461538461538463</x:v>
       </x:c>
       <x:c r="M39" s="21" t="s">
-        <x:v>22</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="P39" s="47" t="s">
-        <x:v>98</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="Q39" s="4" t="s">
-        <x:v>129</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="R39" s="48" t="s">
-        <x:v>122</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="S39" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="T39" s="47" t="s">
-        <x:v>96</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="U39" s="4" t="s">
-        <x:v>107</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="V39" s="48" t="s">
-        <x:v>121</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="W39" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="2:22" customHeight="1">
       <x:c r="B40" s="10" t="s">
-        <x:v>93</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E40" s="9">
         <x:f>SUM(E39,E36:E37)</x:f>
@@ -14354,7 +14843,7 @@
     </x:row>
     <x:row r="41" spans="2:25" customHeight="1">
       <x:c r="B41" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D41" s="7">
         <x:f>SUM(D36:D39)</x:f>
@@ -14435,7 +14924,7 @@
     </x:row>
     <x:row r="42" spans="2:22" customHeight="1">
       <x:c r="B42" s="10" t="s">
-        <x:v>89</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D42" s="7">
         <x:f>SUM(D36:D39)/4</x:f>
@@ -14486,7 +14975,7 @@
     </x:row>
     <x:row r="44" spans="1:22" customHeight="1">
       <x:c r="A44" s="6" t="s">
-        <x:v>108</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="P44" s="47"/>
       <x:c r="R44" s="48"/>
@@ -14495,13 +14984,13 @@
     </x:row>
     <x:row r="45" spans="1:22" customHeight="1">
       <x:c r="A45" s="36" t="s">
-        <x:v>33</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B45" s="34" t="s">
-        <x:v>53</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C45" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D45" s="36">
         <x:v>496</x:v>
@@ -14533,7 +15022,7 @@
         <x:v>4.0114613180515759</x:v>
       </x:c>
       <x:c r="M45" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="P45" s="47"/>
       <x:c r="R45" s="48"/>
@@ -14542,13 +15031,13 @@
     </x:row>
     <x:row r="46" spans="1:22" customHeight="1">
       <x:c r="A46" s="36" t="s">
-        <x:v>33</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B46" s="34" t="s">
-        <x:v>70</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C46" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D46" s="36">
         <x:v>4697</x:v>
@@ -14580,7 +15069,7 @@
         <x:v>1.3964313421256789</x:v>
       </x:c>
       <x:c r="M46" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="P46" s="47"/>
       <x:c r="R46" s="48"/>
@@ -14589,13 +15078,13 @@
     </x:row>
     <x:row r="47" spans="1:22" customHeight="1">
       <x:c r="A47" s="36" t="s">
-        <x:v>33</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B47" s="34" t="s">
-        <x:v>80</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C47" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D47" s="36">
         <x:v>4172</x:v>
@@ -14627,30 +15116,30 @@
         <x:v>1.2580456407255705</x:v>
       </x:c>
       <x:c r="M47" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="P47" s="47" t="s">
-        <x:v>50</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="R47" s="48" t="s">
-        <x:v>65</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="T47" s="47" t="s">
-        <x:v>50</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="V47" s="48" t="s">
-        <x:v>65</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:23" customHeight="1">
       <x:c r="A48" s="36" t="s">
-        <x:v>33</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B48" s="34" t="s">
-        <x:v>103</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C48" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D48" s="36">
         <x:v>781</x:v>
@@ -14682,42 +15171,42 @@
         <x:v>8.7058823529411757</x:v>
       </x:c>
       <x:c r="M48" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="P48" s="47" t="s">
-        <x:v>95</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="Q48" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="R48" s="48" t="s">
-        <x:v>95</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="S48" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="T48" s="47" t="s">
-        <x:v>95</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="U48" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="V48" s="48" t="s">
-        <x:v>95</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="W48" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:23" customHeight="1">
       <x:c r="A49" s="36" t="s">
-        <x:v>33</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B49" s="34" t="s">
-        <x:v>57</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C49" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D49" s="36">
         <x:v>598</x:v>
@@ -14749,36 +15238,36 @@
         <x:v>5.1470588235294112</x:v>
       </x:c>
       <x:c r="M49" s="21" t="s">
-        <x:v>20</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="P49" s="47" t="s">
-        <x:v>98</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="Q49" s="4" t="s">
-        <x:v>129</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="R49" s="48" t="s">
-        <x:v>122</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="S49" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="T49" s="47" t="s">
-        <x:v>96</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="U49" s="4" t="s">
-        <x:v>107</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="V49" s="48" t="s">
-        <x:v>121</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="W49" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="2:22" customHeight="1">
       <x:c r="B50" s="10" t="s">
-        <x:v>93</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E50" s="9">
         <x:f>SUM(E49,E45:E47)</x:f>
@@ -14811,7 +15300,7 @@
     </x:row>
     <x:row r="51" spans="2:25" customHeight="1">
       <x:c r="B51" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D51" s="6">
         <x:f>SUM(D45:D49)</x:f>
@@ -14892,7 +15381,7 @@
     </x:row>
     <x:row r="52" spans="2:22" customHeight="1">
       <x:c r="B52" s="10" t="s">
-        <x:v>89</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D52" s="6">
         <x:f>SUM(D45:D49)/5</x:f>
@@ -14944,7 +15433,7 @@
     </x:row>
     <x:row r="54" spans="1:22" customHeight="1">
       <x:c r="A54" s="6" t="s">
-        <x:v>112</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="P54" s="47"/>
       <x:c r="R54" s="48"/>
@@ -14953,13 +15442,13 @@
     </x:row>
     <x:row r="55" spans="1:22" customHeight="1">
       <x:c r="A55" s="36" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B55" s="34" t="s">
-        <x:v>53</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C55" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D55" s="36">
         <x:v>567</x:v>
@@ -14991,7 +15480,7 @@
         <x:v>4.5801526717557248</x:v>
       </x:c>
       <x:c r="M55" s="21" t="s">
-        <x:v>31</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="P55" s="47"/>
       <x:c r="R55" s="48"/>
@@ -15000,13 +15489,13 @@
     </x:row>
     <x:row r="56" spans="1:22" customHeight="1">
       <x:c r="A56" s="36" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B56" s="34" t="s">
-        <x:v>57</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C56" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D56" s="36">
         <x:v>599</x:v>
@@ -15038,7 +15527,7 @@
         <x:v>5.1470588235294112</x:v>
       </x:c>
       <x:c r="M56" s="21" t="s">
-        <x:v>31</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="P56" s="47"/>
       <x:c r="R56" s="48"/>
@@ -15047,13 +15536,13 @@
     </x:row>
     <x:row r="57" spans="1:22" customHeight="1">
       <x:c r="A57" s="36" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B57" s="34" t="s">
-        <x:v>103</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C57" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D57" s="36">
         <x:v>784</x:v>
@@ -15085,30 +15574,30 @@
         <x:v>8.9411764705882355</x:v>
       </x:c>
       <x:c r="M57" s="21" t="s">
-        <x:v>31</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="P57" s="47" t="s">
-        <x:v>50</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="R57" s="48" t="s">
-        <x:v>65</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="T57" s="47" t="s">
-        <x:v>50</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="V57" s="48" t="s">
-        <x:v>65</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:23" customHeight="1">
       <x:c r="A58" s="36" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B58" s="34" t="s">
-        <x:v>80</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C58" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D58" s="36">
         <x:v>4175</x:v>
@@ -15140,42 +15629,42 @@
         <x:v>1.2562080046742623</x:v>
       </x:c>
       <x:c r="M58" s="21" t="s">
-        <x:v>31</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="P58" s="47" t="s">
-        <x:v>95</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="Q58" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="R58" s="48" t="s">
-        <x:v>95</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="S58" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="T58" s="47" t="s">
-        <x:v>95</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="U58" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="V58" s="48" t="s">
-        <x:v>95</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="W58" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:23" customHeight="1">
       <x:c r="A59" s="36" t="s">
-        <x:v>32</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B59" s="34" t="s">
-        <x:v>70</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C59" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D59" s="36">
         <x:v>4700</x:v>
@@ -15207,36 +15696,36 @@
         <x:v>1.3964313421256789</x:v>
       </x:c>
       <x:c r="M59" s="21" t="s">
-        <x:v>31</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="P59" s="47" t="s">
-        <x:v>98</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="Q59" s="4" t="s">
-        <x:v>129</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="R59" s="48" t="s">
-        <x:v>122</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="S59" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="T59" s="47" t="s">
-        <x:v>96</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="U59" s="4" t="s">
-        <x:v>107</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="V59" s="48" t="s">
-        <x:v>121</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="W59" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="2:22" customHeight="1">
       <x:c r="B60" s="10" t="s">
-        <x:v>93</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E60" s="9">
         <x:f>SUM(E55:E56,E58:E59)</x:f>
@@ -15269,7 +15758,7 @@
     </x:row>
     <x:row r="61" spans="2:25" customHeight="1">
       <x:c r="B61" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D61" s="6">
         <x:f>SUM(D55:D59)</x:f>
@@ -15350,7 +15839,7 @@
     </x:row>
     <x:row r="62" spans="2:22" customHeight="1">
       <x:c r="B62" s="10" t="s">
-        <x:v>89</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D62" s="6">
         <x:f>SUM(D55:D59)/5</x:f>
@@ -15402,7 +15891,7 @@
     </x:row>
     <x:row r="64" spans="1:22" customHeight="1">
       <x:c r="A64" s="5" t="s">
-        <x:v>130</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="P64" s="47"/>
       <x:c r="R64" s="48"/>
@@ -15411,13 +15900,13 @@
     </x:row>
     <x:row r="65" spans="1:22" customHeight="1">
       <x:c r="A65" s="36" t="s">
-        <x:v>85</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B65" s="34" t="s">
-        <x:v>53</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C65" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D65" s="36">
         <x:v>686</x:v>
@@ -15449,7 +15938,7 @@
         <x:v>4.5356371490280782</x:v>
       </x:c>
       <x:c r="M65" s="21" t="s">
-        <x:v>31</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N65" s="46"/>
       <x:c r="P65" s="47"/>
@@ -15459,13 +15948,13 @@
     </x:row>
     <x:row r="66" spans="1:22" customHeight="1">
       <x:c r="A66" s="36" t="s">
-        <x:v>85</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B66" s="34" t="s">
-        <x:v>57</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C66" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D66" s="36">
         <x:v>624</x:v>
@@ -15497,7 +15986,7 @@
         <x:v>5.3527980535279802</x:v>
       </x:c>
       <x:c r="M66" s="21" t="s">
-        <x:v>31</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N66" s="46"/>
       <x:c r="P66" s="47"/>
@@ -15507,13 +15996,13 @@
     </x:row>
     <x:row r="67" spans="1:22" customHeight="1">
       <x:c r="A67" s="36" t="s">
-        <x:v>85</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B67" s="34" t="s">
-        <x:v>103</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C67" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D67" s="36">
         <x:v>810</x:v>
@@ -15545,7 +16034,7 @@
         <x:v>9.1549295774647899</x:v>
       </x:c>
       <x:c r="M67" s="21" t="s">
-        <x:v>31</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N67" s="46"/>
       <x:c r="P67" s="47"/>
@@ -15555,13 +16044,13 @@
     </x:row>
     <x:row r="68" spans="1:22" customHeight="1">
       <x:c r="A68" s="36" t="s">
-        <x:v>85</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B68" s="34" t="s">
-        <x:v>80</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C68" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D68" s="36">
         <x:v>4192</x:v>
@@ -15593,31 +16082,31 @@
         <x:v>1.3146362839614372</x:v>
       </x:c>
       <x:c r="M68" s="21" t="s">
-        <x:v>31</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N68" s="46"/>
       <x:c r="P68" s="47" t="s">
-        <x:v>50</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="R68" s="48" t="s">
-        <x:v>65</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="T68" s="47" t="s">
-        <x:v>50</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="V68" s="48" t="s">
-        <x:v>65</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:23" customHeight="1">
       <x:c r="A69" s="36" t="s">
-        <x:v>85</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B69" s="34" t="s">
-        <x:v>70</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C69" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D69" s="36">
         <x:v>4712</x:v>
@@ -15649,43 +16138,43 @@
         <x:v>1.4200877872450297</x:v>
       </x:c>
       <x:c r="M69" s="21" t="s">
-        <x:v>31</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N69" s="46"/>
       <x:c r="P69" s="47" t="s">
-        <x:v>95</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="Q69" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="R69" s="48" t="s">
-        <x:v>95</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="S69" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="T69" s="47" t="s">
-        <x:v>95</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="U69" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="V69" s="48" t="s">
-        <x:v>95</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="W69" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:23" customHeight="1">
       <x:c r="A70" s="36" t="s">
-        <x:v>85</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B70" s="34" t="s">
-        <x:v>69</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C70" s="35" t="s">
-        <x:v>4</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D70" s="36">
         <x:v>739</x:v>
@@ -15717,37 +16206,37 @@
         <x:v>1.6216216216216217</x:v>
       </x:c>
       <x:c r="M70" s="21" t="s">
-        <x:v>31</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="N70" s="38"/>
       <x:c r="P70" s="47" t="s">
-        <x:v>98</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="Q70" s="4" t="s">
-        <x:v>129</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="R70" s="48" t="s">
-        <x:v>122</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="S70" s="4" t="s">
-        <x:v>102</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="T70" s="47" t="s">
-        <x:v>96</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="U70" s="4" t="s">
-        <x:v>107</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="V70" s="48" t="s">
-        <x:v>121</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="W70" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="2:22" customHeight="1">
       <x:c r="B71" s="10" t="s">
-        <x:v>93</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E71" s="9">
         <x:f>SUM(E68:E70,E65:E66)</x:f>
@@ -15780,7 +16269,7 @@
     </x:row>
     <x:row r="72" spans="2:25" customHeight="1">
       <x:c r="B72" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="D72" s="5">
         <x:f>SUM(D65:D70)</x:f>
@@ -15861,7 +16350,7 @@
     </x:row>
     <x:row r="73" spans="2:14" customHeight="1">
       <x:c r="B73" s="10" t="s">
-        <x:v>89</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D73" s="5">
         <x:f>SUM(D65:D70)/6</x:f>
@@ -15928,54 +16417,54 @@
     </x:row>
     <x:row r="75" spans="1:19" customHeight="1">
       <x:c r="A75" s="13" t="s">
-        <x:v>94</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B75" s="12" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C75" s="13" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D75" s="13" t="s">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="C75" s="13" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D75" s="13" t="s">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="E75" s="13" t="s">
-        <x:v>127</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F75" s="13" t="s">
-        <x:v>106</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G75" s="13" t="s">
-        <x:v>16</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="H75" s="13" t="s">
-        <x:v>10</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="I75" s="13" t="s">
-        <x:v>13</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="J75" s="13" t="s">
-        <x:v>25</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="K75" s="14" t="s">
-        <x:v>6</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="L75" s="14" t="s">
-        <x:v>3</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="M75" s="15" t="s">
-        <x:v>128</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="N75" s="16" t="s">
-        <x:v>7</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="O75" s="54"/>
       <x:c r="P75" s="3" t="s">
-        <x:v>50</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="Q75" s="3"/>
       <x:c r="R75" s="3" t="s">
-        <x:v>65</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="S75" s="3"/>
     </x:row>
@@ -15994,16 +16483,16 @@
       <x:c r="N76" s="3"/>
       <x:c r="O76" s="54"/>
       <x:c r="P76" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="Q76" s="3" t="s">
-        <x:v>93</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="R76" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="S76" s="3" t="s">
-        <x:v>93</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="2:19" customHeight="1">
@@ -16020,21 +16509,21 @@
       <x:c r="N77" s="3"/>
       <x:c r="O77" s="54"/>
       <x:c r="P77" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="Q77" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="R77" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="S77" s="3" t="s">
-        <x:v>0</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:25" customHeight="1">
       <x:c r="A78" s="17" t="s">
-        <x:v>92</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B78" s="17"/>
       <x:c r="D78" s="17"/>
@@ -16098,10 +16587,10 @@
     </x:row>
     <x:row r="80" spans="1:15" customHeight="1">
       <x:c r="A80" s="17" t="s">
-        <x:v>73</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B80" s="17" t="s">
-        <x:v>42</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D80" s="17">
         <x:v>39000</x:v>
@@ -16110,7 +16599,7 @@
         <x:v>30000</x:v>
       </x:c>
       <x:c r="F80" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G80" s="17">
         <x:v>136</x:v>
@@ -16129,17 +16618,17 @@
         <x:v>0.45999999999999996</x:v>
       </x:c>
       <x:c r="L80" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="N80" s="3"/>
       <x:c r="O80" s="54"/>
     </x:row>
     <x:row r="81" spans="1:15" customHeight="1">
       <x:c r="A81" s="17" t="s">
-        <x:v>73</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B81" s="17" t="s">
-        <x:v>118</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D81" s="17">
         <x:v>20000</x:v>
@@ -16148,7 +16637,7 @@
         <x:v>19000</x:v>
       </x:c>
       <x:c r="F81" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G81" s="17">
         <x:v>15</x:v>
@@ -16167,17 +16656,17 @@
         <x:v>0.078947368421052627</x:v>
       </x:c>
       <x:c r="L81" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="N81" s="3"/>
       <x:c r="O81" s="54"/>
     </x:row>
     <x:row r="82" spans="1:15" customHeight="1">
       <x:c r="A82" s="17" t="s">
-        <x:v>54</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B82" s="17" t="s">
-        <x:v>58</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D82" s="17">
         <x:v>18000</x:v>
@@ -16186,7 +16675,7 @@
         <x:v>15000</x:v>
       </x:c>
       <x:c r="F82" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G82" s="30">
         <x:v>612</x:v>
@@ -16205,17 +16694,17 @@
         <x:v>4.0800000000000001</x:v>
       </x:c>
       <x:c r="L82" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="N82" s="3"/>
       <x:c r="O82" s="54"/>
     </x:row>
     <x:row r="83" spans="1:15" customHeight="1">
       <x:c r="A83" s="17" t="s">
-        <x:v>67</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B83" s="17" t="s">
-        <x:v>28</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D83" s="17">
         <x:v>7323</x:v>
@@ -16224,7 +16713,7 @@
         <x:v>2863</x:v>
       </x:c>
       <x:c r="F83" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G83" s="17">
         <x:v>209</x:v>
@@ -16243,17 +16732,17 @@
         <x:v>18.721620677610897</x:v>
       </x:c>
       <x:c r="L83" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="N83" s="3"/>
       <x:c r="O83" s="54"/>
     </x:row>
     <x:row r="84" spans="1:15" customHeight="1">
       <x:c r="A84" s="17" t="s">
-        <x:v>47</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B84" s="17" t="s">
-        <x:v>46</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D84" s="17">
         <x:v>1738</x:v>
@@ -16262,7 +16751,7 @@
         <x:v>1436</x:v>
       </x:c>
       <x:c r="F84" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="G84" s="17">
         <x:v>25</x:v>
@@ -16281,17 +16770,17 @@
         <x:v>2.01949860724234</x:v>
       </x:c>
       <x:c r="L84" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="N84" s="3"/>
       <x:c r="O84" s="54"/>
     </x:row>
     <x:row r="85" spans="1:21" customHeight="1">
       <x:c r="A85" s="17" t="s">
-        <x:v>59</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B85" s="17" t="s">
-        <x:v>97</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D85" s="30">
         <x:v>364</x:v>
@@ -16330,10 +16819,10 @@
     </x:row>
     <x:row r="86" spans="1:21" customHeight="1">
       <x:c r="A86" s="17" t="s">
-        <x:v>56</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B86" s="17" t="s">
-        <x:v>61</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D86" s="17">
         <x:v>343</x:v>
@@ -16392,10 +16881,10 @@
     </x:row>
     <x:row r="88" spans="1:21" customHeight="1">
       <x:c r="A88" s="3" t="s">
-        <x:v>126</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B88" s="10" t="s">
-        <x:v>9</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="E88" s="9">
         <x:f>SUM(E80:E86)</x:f>
@@ -16428,10 +16917,10 @@
     </x:row>
     <x:row r="89" spans="1:21" customHeight="1">
       <x:c r="A89" s="3" t="s">
-        <x:v>93</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B89" s="10" t="s">
-        <x:v>24</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="E89" s="9">
         <x:f>SUM(E80:E82,E84:E86)</x:f>
@@ -16484,13 +16973,13 @@
     </x:row>
     <x:row r="91" spans="1:21" customHeight="1">
       <x:c r="A91" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B91" s="51" t="s">
-        <x:v>70</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C91" s="52" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D91" s="50">
         <x:v>4783</x:v>
@@ -16522,7 +17011,7 @@
         <x:v>1.5541264737406217</x:v>
       </x:c>
       <x:c r="M91" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="N91" s="3"/>
       <x:c r="O91" s="54"/>
@@ -16532,13 +17021,13 @@
     </x:row>
     <x:row r="92" spans="1:21" customHeight="1">
       <x:c r="A92" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B92" s="34" t="s">
-        <x:v>80</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C92" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D92" s="36">
         <x:v>4252</x:v>
@@ -16570,7 +17059,7 @@
         <x:v>1.3892908827785817</x:v>
       </x:c>
       <x:c r="M92" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="N92" s="3"/>
       <x:c r="O92" s="54"/>
@@ -16580,13 +17069,13 @@
     </x:row>
     <x:row r="93" spans="1:21" customHeight="1">
       <x:c r="A93" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B93" s="34" t="s">
-        <x:v>103</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C93" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D93" s="36">
         <x:v>872</x:v>
@@ -16618,7 +17107,7 @@
         <x:v>10.16548463356974</x:v>
       </x:c>
       <x:c r="M93" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="N93" s="3"/>
       <x:c r="O93" s="54"/>
@@ -16628,13 +17117,13 @@
     </x:row>
     <x:row r="94" spans="1:21" customHeight="1">
       <x:c r="A94" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B94" s="34" t="s">
-        <x:v>57</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C94" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D94" s="36">
         <x:v>681</x:v>
@@ -16666,7 +17155,7 @@
         <x:v>6.2068965517241379</x:v>
       </x:c>
       <x:c r="M94" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="N94" s="3"/>
       <x:c r="O94" s="54"/>
@@ -16676,13 +17165,13 @@
     </x:row>
     <x:row r="95" spans="1:21" customHeight="1">
       <x:c r="A95" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B95" s="34" t="s">
-        <x:v>53</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C95" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D95" s="36">
         <x:v>761</x:v>
@@ -16714,7 +17203,7 @@
         <x:v>5.5327868852459012</x:v>
       </x:c>
       <x:c r="M95" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="N95" s="3"/>
       <x:c r="O95" s="54"/>
@@ -16724,13 +17213,13 @@
     </x:row>
     <x:row r="96" spans="1:21" customHeight="1">
       <x:c r="A96" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B96" s="34" t="s">
-        <x:v>69</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C96" s="35" t="s">
-        <x:v>4</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D96" s="36">
         <x:v>3296</x:v>
@@ -16762,7 +17251,7 @@
         <x:v>1.2786761940579165</x:v>
       </x:c>
       <x:c r="M96" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="N96" s="3"/>
       <x:c r="O96" s="54"/>
@@ -16772,13 +17261,13 @@
     </x:row>
     <x:row r="97" spans="1:21" customHeight="1">
       <x:c r="A97" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B97" s="34" t="s">
-        <x:v>48</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C97" s="35" t="s">
-        <x:v>4</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D97" s="36">
         <x:v>706</x:v>
@@ -16810,7 +17299,7 @@
         <x:v>5.3497942386831276</x:v>
       </x:c>
       <x:c r="M97" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="N97" s="3"/>
       <x:c r="O97" s="54"/>
@@ -16820,13 +17309,13 @@
     </x:row>
     <x:row r="98" spans="1:21" customHeight="1">
       <x:c r="A98" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B98" s="34" t="s">
-        <x:v>83</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C98" s="35" t="s">
-        <x:v>2</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="D98" s="36">
         <x:v>1396</x:v>
@@ -16858,7 +17347,7 @@
         <x:v>3.3834586466165413</x:v>
       </x:c>
       <x:c r="M98" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="N98" s="3"/>
       <x:c r="O98" s="54"/>
@@ -16868,13 +17357,13 @@
     </x:row>
     <x:row r="99" spans="1:19" customHeight="1">
       <x:c r="A99" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B99" s="34" t="s">
-        <x:v>99</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C99" s="35" t="s">
-        <x:v>4</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D99" s="36">
         <x:v>956</x:v>
@@ -16906,7 +17395,7 @@
         <x:v>4.4182621502209134</x:v>
       </x:c>
       <x:c r="M99" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="N99" s="3"/>
       <x:c r="O99" s="54"/>
@@ -16915,13 +17404,13 @@
     </x:row>
     <x:row r="100" spans="1:19" customHeight="1">
       <x:c r="A100" s="36" t="s">
-        <x:v>82</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B100" s="34" t="s">
-        <x:v>123</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C100" s="35" t="s">
-        <x:v>12</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="D100" s="36">
         <x:v>1832</x:v>
@@ -16953,7 +17442,7 @@
         <x:v>1.8436109345200253</x:v>
       </x:c>
       <x:c r="M100" s="21" t="s">
-        <x:v>1</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="N100" s="3"/>
       <x:c r="O100" s="54"/>
@@ -16981,10 +17470,10 @@
     </x:row>
     <x:row r="102" spans="1:21" customHeight="1">
       <x:c r="A102" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B102" s="10" t="s">
-        <x:v>21</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E102" s="9">
         <x:f>SUM(E91:E100)</x:f>
@@ -17017,10 +17506,10 @@
     </x:row>
     <x:row r="103" spans="1:15" customHeight="1">
       <x:c r="A103" s="3" t="s">
-        <x:v>93</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B103" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="E103" s="9">
         <x:f>SUM(E91:E92,E94:E100)</x:f>
@@ -17065,12 +17554,15 @@
       <x:c r="N104" s="54"/>
       <x:c r="O104" s="54"/>
     </x:row>
-    <x:row r="106" spans="1:12" customHeight="1">
+    <x:row r="105" spans="15:15" customHeight="1">
+      <x:c r="O105" s="54"/>
+    </x:row>
+    <x:row r="106" spans="1:15" customHeight="1">
       <x:c r="A106" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B106" s="10" t="s">
-        <x:v>105</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E106" s="9">
         <x:f>SUM(E85:E86)</x:f>
@@ -17084,10 +17576,605 @@
         <x:f>SUM(F85/E85*100)</x:f>
         <x:v>4.2635658914728678</x:v>
       </x:c>
+      <x:c r="O106" s="54"/>
+    </x:row>
+    <x:row r="107" spans="15:15" customHeight="1">
+      <x:c r="O107" s="54"/>
+    </x:row>
+    <x:row r="108" spans="1:23" customHeight="1">
+      <x:c r="A108" s="54"/>
+      <x:c r="B108" s="55"/>
+      <x:c r="C108" s="55"/>
+      <x:c r="D108" s="54"/>
+      <x:c r="E108" s="54"/>
+      <x:c r="F108" s="54"/>
+      <x:c r="G108" s="54"/>
+      <x:c r="H108" s="54"/>
+      <x:c r="I108" s="54"/>
+      <x:c r="J108" s="54"/>
+      <x:c r="K108" s="54"/>
+      <x:c r="L108" s="54"/>
+      <x:c r="M108" s="55"/>
+      <x:c r="N108" s="54"/>
+      <x:c r="O108" s="54"/>
+      <x:c r="P108" s="54"/>
+      <x:c r="Q108" s="54"/>
+      <x:c r="R108" s="54"/>
+      <x:c r="S108" s="54"/>
+      <x:c r="T108" s="54"/>
+      <x:c r="U108" s="54"/>
+      <x:c r="V108" s="54"/>
+      <x:c r="W108" s="54"/>
+    </x:row>
+    <x:row r="109" spans="1:17" customHeight="1">
+      <x:c r="A109" s="50" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B109" s="51" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C109" s="52" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D109" s="50">
+        <x:v>4790</x:v>
+      </x:c>
+      <x:c r="E109" s="50">
+        <x:v>3907</x:v>
+      </x:c>
+      <x:c r="F109" s="50">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G109" s="50">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="H109" s="50">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I109" s="50">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J109" s="50">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="K109" s="20">
+        <x:f t="shared" ref="K109:K119" si="14">SUM((G109+I109+J109+H109)/E109)*100</x:f>
+        <x:v>2.7130790888149474</x:v>
+      </x:c>
+      <x:c r="L109" s="20">
+        <x:f t="shared" ref="L109:L119" si="15">SUM(F109/E109)*100</x:f>
+        <x:v>1.4845149731251599</x:v>
+      </x:c>
+      <x:c r="O109" s="54"/>
+      <x:c r="P109" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="Q109"/>
+    </x:row>
+    <x:row r="110" spans="1:17" customHeight="1">
+      <x:c r="A110" s="36" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B110" s="34" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C110" s="35" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D110" s="36">
+        <x:v>4254</x:v>
+      </x:c>
+      <x:c r="E110" s="36">
+        <x:v>3439</x:v>
+      </x:c>
+      <x:c r="F110" s="36">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="G110" s="36">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H110" s="36">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="I110" s="36">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J110" s="36">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="K110" s="20">
+        <x:f t="shared" si="14"/>
+        <x:v>2.8787438208781624</x:v>
+      </x:c>
+      <x:c r="L110" s="20">
+        <x:f t="shared" si="15"/>
+        <x:v>1.3957545798197151</x:v>
+      </x:c>
+      <x:c r="O110" s="54"/>
+      <x:c r="P110" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="Q110" t="s">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:17" customHeight="1">
+      <x:c r="A111" s="36" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B111" s="34" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C111" s="35" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D111" s="36">
+        <x:v>879</x:v>
+      </x:c>
+      <x:c r="E111" s="36">
+        <x:v>445</x:v>
+      </x:c>
+      <x:c r="F111" s="36">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G111" s="36">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H111" s="36">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I111" s="36">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J111" s="36">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K111" s="20">
+        <x:f t="shared" si="14"/>
+        <x:v>19.101123595505616</x:v>
+      </x:c>
+      <x:c r="L111" s="20">
+        <x:f t="shared" si="15"/>
+        <x:v>9.6629213483146064</x:v>
+      </x:c>
+      <x:c r="O111" s="54"/>
+      <x:c r="P111" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="Q111" t="s">
+        <x:v>154</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:25" customHeight="1">
+      <x:c r="A112" s="36" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B112" s="34" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C112" s="35" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D112" s="36">
+        <x:v>685</x:v>
+      </x:c>
+      <x:c r="E112" s="36">
+        <x:v>438</x:v>
+      </x:c>
+      <x:c r="F112" s="36">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G112" s="36">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H112" s="36">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I112" s="36">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J112" s="36">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K112" s="20">
+        <x:f t="shared" si="14"/>
+        <x:v>13.013698630136986</x:v>
+      </x:c>
+      <x:c r="L112" s="20">
+        <x:f t="shared" si="15"/>
+        <x:v>6.1643835616438354</x:v>
+      </x:c>
+      <x:c r="O112" s="54"/>
+      <x:c r="P112">
+        <x:f>K121/K88</x:f>
+        <x:v>2.6220893858599195</x:v>
+      </x:c>
+      <x:c r="Q112">
+        <x:f>K122/K89</x:f>
+        <x:v>3.8349862466999958</x:v>
+      </x:c>
+      <x:c r="Y112" s="2">
+        <x:f>K122/K89</x:f>
+        <x:v>3.8349862466999958</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:15" customHeight="1">
+      <x:c r="A113" s="36" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B113" s="34" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C113" s="35" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D113" s="36">
+        <x:v>763</x:v>
+      </x:c>
+      <x:c r="E113" s="36">
+        <x:v>481</x:v>
+      </x:c>
+      <x:c r="F113" s="36">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G113" s="36">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H113" s="36">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I113" s="36">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J113" s="36">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K113" s="20">
+        <x:f t="shared" si="14"/>
+        <x:v>11.850311850311851</x:v>
+      </x:c>
+      <x:c r="L113" s="20">
+        <x:f t="shared" si="15"/>
+        <x:v>5.6133056133056138</x:v>
+      </x:c>
+      <x:c r="O113" s="54"/>
+    </x:row>
+    <x:row r="114" spans="1:15" customHeight="1">
+      <x:c r="A114" s="36" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B114" s="34" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C114" s="35" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D114" s="36">
+        <x:v>3301</x:v>
+      </x:c>
+      <x:c r="E114" s="36">
+        <x:v>2623</x:v>
+      </x:c>
+      <x:c r="F114" s="36">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G114" s="36">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H114" s="36">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I114" s="36">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J114" s="36">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K114" s="20">
+        <x:f t="shared" si="14"/>
+        <x:v>2.7830728173846744</x:v>
+      </x:c>
+      <x:c r="L114" s="20">
+        <x:f t="shared" si="15"/>
+        <x:v>1.3343499809378574</x:v>
+      </x:c>
+      <x:c r="O114" s="54"/>
+    </x:row>
+    <x:row r="115" spans="1:15" customHeight="1">
+      <x:c r="A115" s="36" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B115" s="34" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C115" s="35" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D115" s="36">
+        <x:v>714</x:v>
+      </x:c>
+      <x:c r="E115" s="36">
+        <x:v>506</x:v>
+      </x:c>
+      <x:c r="F115" s="36">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G115" s="36">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H115" s="36">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I115" s="36">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J115" s="36">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="K115" s="20">
+        <x:f t="shared" si="14"/>
+        <x:v>11.857707509881422</x:v>
+      </x:c>
+      <x:c r="L115" s="20">
+        <x:f t="shared" si="15"/>
+        <x:v>5.3359683794466397</x:v>
+      </x:c>
+      <x:c r="O115" s="54"/>
+    </x:row>
+    <x:row r="116" spans="1:15" customHeight="1">
+      <x:c r="A116" s="36" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B116" s="34" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C116" s="35" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D116" s="36">
+        <x:v>1409</x:v>
+      </x:c>
+      <x:c r="E116" s="36">
+        <x:v>1100</x:v>
+      </x:c>
+      <x:c r="F116" s="36">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G116" s="36">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H116" s="36">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="I116" s="36">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J116" s="36">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K116" s="20">
+        <x:f t="shared" si="14"/>
+        <x:v>7.2727272727272725</x:v>
+      </x:c>
+      <x:c r="L116" s="20">
+        <x:f t="shared" si="15"/>
+        <x:v>3.3636363636363638</x:v>
+      </x:c>
+      <x:c r="O116" s="54"/>
+    </x:row>
+    <x:row r="117" spans="1:15" customHeight="1">
+      <x:c r="A117" s="36" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B117" s="34" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C117" s="35" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D117" s="36">
+        <x:v>976</x:v>
+      </x:c>
+      <x:c r="E117" s="36">
+        <x:v>669</x:v>
+      </x:c>
+      <x:c r="F117" s="36">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G117" s="36">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H117" s="36">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I117" s="36">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="J117" s="36">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="K117" s="20">
+        <x:f t="shared" si="14"/>
+        <x:v>10.164424514200299</x:v>
+      </x:c>
+      <x:c r="L117" s="20">
+        <x:f t="shared" si="15"/>
+        <x:v>4.6337817638266072</x:v>
+      </x:c>
+      <x:c r="O117" s="54"/>
+    </x:row>
+    <x:row r="118" spans="1:15" customHeight="1">
+      <x:c r="A118" s="36" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B118" s="34" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C118" s="35" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D118" s="36">
+        <x:v>1869</x:v>
+      </x:c>
+      <x:c r="E118" s="36">
+        <x:v>1545</x:v>
+      </x:c>
+      <x:c r="F118" s="36">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G118" s="36">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H118" s="36">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I118" s="36">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="J118" s="36">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K118" s="20">
+        <x:f t="shared" si="14"/>
+        <x:v>3.8834951456310676</x:v>
+      </x:c>
+      <x:c r="L118" s="20">
+        <x:f t="shared" si="15"/>
+        <x:v>2.0064724919093853</x:v>
+      </x:c>
+      <x:c r="O118" s="54"/>
+    </x:row>
+    <x:row r="119" spans="1:15" customHeight="1">
+      <x:c r="A119" s="36" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B119" s="34" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C119" s="35" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D119" s="36">
+        <x:v>646</x:v>
+      </x:c>
+      <x:c r="E119" s="36">
+        <x:v>483</x:v>
+      </x:c>
+      <x:c r="F119" s="36">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G119" s="36">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H119" s="36">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I119" s="36">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J119" s="36">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="K119" s="20">
+        <x:f t="shared" si="14"/>
+        <x:v>12.422360248447205</x:v>
+      </x:c>
+      <x:c r="L119" s="20">
+        <x:f t="shared" si="15"/>
+        <x:v>4.7619047619047619</x:v>
+      </x:c>
+      <x:c r="O119" s="54"/>
+    </x:row>
+    <x:row r="120" spans="1:15" customHeight="1">
+      <x:c r="A120" s="54"/>
+      <x:c r="B120" s="55"/>
+      <x:c r="C120" s="55"/>
+      <x:c r="D120" s="54"/>
+      <x:c r="E120" s="54"/>
+      <x:c r="F120" s="54"/>
+      <x:c r="G120" s="54"/>
+      <x:c r="H120" s="54"/>
+      <x:c r="I120" s="54"/>
+      <x:c r="J120" s="54"/>
+      <x:c r="K120" s="54"/>
+      <x:c r="L120" s="54"/>
+      <x:c r="M120" s="55"/>
+      <x:c r="N120" s="54"/>
+      <x:c r="O120" s="54"/>
+    </x:row>
+    <x:row r="121" spans="1:14" customHeight="1">
+      <x:c r="A121" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="B121" s="10" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D121"/>
+      <x:c r="E121">
+        <x:f>SUM(E109:E119)</x:f>
+        <x:v>15636</x:v>
+      </x:c>
+      <x:c r="F121"/>
+      <x:c r="G121">
+        <x:f>SUM(G109:G119)</x:f>
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="H121">
+        <x:f>SUM(H109:H119)</x:f>
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="I121">
+        <x:f>SUM(I109:I119)</x:f>
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="J121">
+        <x:f>SUM(J109:J119)</x:f>
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="K121" s="17">
+        <x:f>SUM((G121+H121+I121+J121)/E121)*100</x:f>
+        <x:v>5.148375543617294</x:v>
+      </x:c>
+      <x:c r="L121"/>
+      <x:c r="N121"/>
+    </x:row>
+    <x:row r="122" spans="1:11" customHeight="1">
+      <x:c r="A122" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B122" s="10" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D122"/>
+      <x:c r="E122">
+        <x:f>SUM(E109:E110,E112:E119)</x:f>
+        <x:v>15191</x:v>
+      </x:c>
+      <x:c r="F122"/>
+      <x:c r="G122">
+        <x:f>SUM(G109:G110,G112:G119)</x:f>
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="H122">
+        <x:f>SUM(H109:H110,H112:H119)</x:f>
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="I122">
+        <x:f>SUM(I109:I110,I112:I119)</x:f>
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="J122">
+        <x:f>SUM(J109:J110,J112:J119)</x:f>
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="K122" s="17">
+        <x:f>SUM((G122+H122+I122+J122)/E122)*100</x:f>
+        <x:v>4.7396484760713582</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
-  <x:dataValidations count="5">
-    <x:dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C91:C100 C55:C59 C27:C30 C36:C39 C45:C49 C65:C70">
+  <x:dataValidations count="6">
+    <x:dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C109:C119 C91:C100 C55:C59 C27:C30 C36:C39 C45:C49 C65:C70">
       <x:formula1>"후킹형,정보형,흥미형"</x:formula1>
     </x:dataValidation>
     <x:dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B27:B30 B36:B39">
@@ -17102,8 +18189,272 @@
     <x:dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B91:B100">
       <x:formula1>"녹용체험 반말ver.,녹용체험 존댓말ver.,젤리 ASMR,쉐이크 ASMR,한동팀장은 근무중,ASMR NG(1),ASMR NG(2),효능정보형+캐릭터(1),녹녹디어,저속노화"</x:formula1>
     </x:dataValidation>
+    <x:dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B109:B119">
+      <x:formula1>"녹용체험 반말ver.,녹용체험 존댓말ver.,젤리 ASMR,쉐이크 ASMR,한동팀장은 근무중,ASMR NG(1),ASMR NG(2),효능정보형+캐릭터(1),녹녹디어,저속노화,굿띵챌린지"</x:formula1>
+    </x:dataValidation>
   </x:dataValidations>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet3"/>
+  <x:dimension ref="A1:E17"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:A1"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.199999999999999"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4" ht="16.399999999999999">
+      <x:c r="A1" s="36" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B1" s="36" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C1" s="36" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D1" s="36" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5" ht="16.399999999999999">
+      <x:c r="A2" s="36" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B2" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C2" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D2" s="56">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E2" s="36" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4" ht="16.399999999999999">
+      <x:c r="A3" s="36" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B3" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C3" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D3" s="56">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:4" ht="16.399999999999999">
+      <x:c r="A4" s="36" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B4" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C4" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D4" s="56">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4" ht="16.399999999999999">
+      <x:c r="A5" s="36" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B5" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C5" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D5" s="56">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4" ht="16.399999999999999">
+      <x:c r="A6" s="36" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B6" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C6" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D6" s="56">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4" ht="16.399999999999999">
+      <x:c r="A7" s="36" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B7" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C7" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D7" s="56">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:4" ht="16.399999999999999">
+      <x:c r="A8" s="36" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B8" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C8" s="57" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D8" s="58">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5" ht="16.399999999999999">
+      <x:c r="A9" s="36" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="B9" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C9" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D9" s="56">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E9" s="36" t="s">
+        <x:v>147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4" ht="16.399999999999999">
+      <x:c r="A10" s="36" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B10" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C10" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D10" s="36">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4" ht="16.399999999999999">
+      <x:c r="A11" s="36" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B11" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C11" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D11" s="56">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4" ht="16.399999999999999">
+      <x:c r="A12" s="36" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B12" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C12" s="57" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D12" s="36">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4" ht="16.399999999999999">
+      <x:c r="A13" s="36" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B13" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C13" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D13" s="56">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4" ht="16.399999999999999">
+      <x:c r="A14" s="36" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B14" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C14" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D14" s="36">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4" ht="16.399999999999999">
+      <x:c r="A15" s="36" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="B15" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C15" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D15" s="36">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4" ht="16.399999999999999">
+      <x:c r="A16" s="36" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B16" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C16" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D16" s="36">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4" ht="16.399999999999999">
+      <x:c r="A17" s="36" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="B17" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C17" s="36" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D17" s="56">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
 </file>